--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2 - 2_1_0/Fotogroep Waalre/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C32AF3-1306-7F47-B3C1-CDF59D1673BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FBB0FB-FFA3-4843-B8FA-287F4E63371F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30160" windowHeight="26560" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30160" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -559,6 +559,9 @@
                 <c:pt idx="96">
                   <c:v>44709</c:v>
                 </c:pt>
+                <c:pt idx="97">
+                  <c:v>44781</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -858,6 +861,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>3817</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,10 +879,10 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Code</c:v>
+            <c:v>Swift code</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="44450" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1196,6 +1202,9 @@
                 <c:pt idx="96">
                   <c:v>44709</c:v>
                 </c:pt>
+                <c:pt idx="97">
+                  <c:v>44781</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1495,6 +1504,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>3023</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1513,7 +1525,7 @@
             <c:v>Comments</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="6350" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -1835,6 +1847,9 @@
                 <c:pt idx="96">
                   <c:v>44709</c:v>
                 </c:pt>
+                <c:pt idx="97">
+                  <c:v>44781</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2134,6 +2149,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2152,7 +2170,7 @@
             <c:v>Blank lines</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -2209,7 +2227,7 @@
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="6350" cap="rnd">
+              <a:ln w="25400" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -2523,6 +2541,9 @@
                 <c:pt idx="96">
                   <c:v>44709</c:v>
                 </c:pt>
+                <c:pt idx="97">
+                  <c:v>44781</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2822,6 +2843,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2848,7 +2872,7 @@
         <c:axId val="1582352671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44750"/>
+          <c:max val="44850"/>
           <c:min val="44349"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2914,7 +2938,7 @@
         <c:axId val="1582338719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4000"/>
+          <c:max val="4500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3056,8 +3080,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1054842261614604"/>
-          <c:y val="6.4535827711273586E-2"/>
+          <c:x val="0.6393516697157211"/>
+          <c:y val="0.59630513927694528"/>
           <c:w val="8.6045271289377251E-2"/>
           <c:h val="0.14401330501945014"/>
         </c:manualLayout>
@@ -4031,13 +4055,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N89" sqref="N89"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7713,7 +7737,7 @@
         <v>36</v>
       </c>
       <c r="H99" s="18">
-        <f t="shared" ref="H99" si="119">SUM(I99:K99)</f>
+        <f t="shared" ref="H99:H100" si="119">SUM(I99:K99)</f>
         <v>3817</v>
       </c>
       <c r="I99" s="6">
@@ -7724,6 +7748,43 @@
       </c>
       <c r="K99" s="8">
         <v>377</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B100" s="2">
+        <v>9</v>
+      </c>
+      <c r="C100" s="3">
+        <f t="shared" ref="C100" si="120">SUM(D100:F100)</f>
+        <v>1673</v>
+      </c>
+      <c r="D100" s="3">
+        <v>1105</v>
+      </c>
+      <c r="E100" s="3">
+        <v>371</v>
+      </c>
+      <c r="F100" s="4">
+        <v>197</v>
+      </c>
+      <c r="G100" s="5">
+        <v>39</v>
+      </c>
+      <c r="H100" s="18">
+        <f t="shared" si="119"/>
+        <v>3886</v>
+      </c>
+      <c r="I100" s="6">
+        <v>3079</v>
+      </c>
+      <c r="J100" s="7">
+        <v>423</v>
+      </c>
+      <c r="K100" s="8">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -7743,8 +7804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W37" sqref="W37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FBB0FB-FFA3-4843-B8FA-287F4E63371F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61063E63-63DD-0F4E-9995-9118378A7792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30160" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -264,10 +264,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$A$3:$A$100</c:f>
+              <c:f>Table!$A$3:$A$150</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
                   <c:v>44380</c:v>
                 </c:pt>
@@ -561,16 +561,22 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$H$3:$H$100</c:f>
+              <c:f>Table!$H$3:$H$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
                   <c:v>340</c:v>
                 </c:pt>
@@ -864,6 +870,12 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>3886</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3890</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -907,10 +919,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$A$3:$A$100</c:f>
+              <c:f>Table!$A$3:$A$150</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
                   <c:v>44380</c:v>
                 </c:pt>
@@ -1204,16 +1216,22 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$I$3:$I$100</c:f>
+              <c:f>Table!$I$3:$I$150</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
                   <c:v>239</c:v>
                 </c:pt>
@@ -1507,6 +1525,12 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>3079</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3083</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1552,10 +1576,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$A$3:$A$100</c:f>
+              <c:f>Table!$A$3:$A$150</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
                   <c:v>44380</c:v>
                 </c:pt>
@@ -1849,16 +1873,22 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$J$3:$J$100</c:f>
+              <c:f>Table!$J$3:$J$150</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
                   <c:v>61</c:v>
                 </c:pt>
@@ -2151,6 +2181,12 @@
                   <c:v>417</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>423</c:v>
                 </c:pt>
               </c:numCache>
@@ -2246,10 +2282,10 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$A$3:$A$100</c:f>
+              <c:f>Table!$A$3:$A$150</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
                   <c:v>44380</c:v>
                 </c:pt>
@@ -2543,16 +2579,22 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$K$3:$K$100</c:f>
+              <c:f>Table!$K$3:$K$150</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -2845,6 +2887,12 @@
                   <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>384</c:v>
                 </c:pt>
               </c:numCache>
@@ -4055,13 +4103,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7737,7 +7785,7 @@
         <v>36</v>
       </c>
       <c r="H99" s="18">
-        <f t="shared" ref="H99:H100" si="119">SUM(I99:K99)</f>
+        <f t="shared" ref="H99:H102" si="119">SUM(I99:K99)</f>
         <v>3817</v>
       </c>
       <c r="I99" s="6">
@@ -7784,6 +7832,80 @@
         <v>423</v>
       </c>
       <c r="K100" s="8">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>44785</v>
+      </c>
+      <c r="B101" s="2">
+        <v>9</v>
+      </c>
+      <c r="C101" s="3">
+        <f t="shared" ref="C101" si="121">SUM(D101:F101)</f>
+        <v>1673</v>
+      </c>
+      <c r="D101" s="3">
+        <v>1105</v>
+      </c>
+      <c r="E101" s="3">
+        <v>371</v>
+      </c>
+      <c r="F101" s="4">
+        <v>197</v>
+      </c>
+      <c r="G101" s="5">
+        <v>39</v>
+      </c>
+      <c r="H101" s="18">
+        <f t="shared" si="119"/>
+        <v>3890</v>
+      </c>
+      <c r="I101" s="6">
+        <v>3083</v>
+      </c>
+      <c r="J101" s="7">
+        <v>423</v>
+      </c>
+      <c r="K101" s="8">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>44787</v>
+      </c>
+      <c r="B102" s="2">
+        <v>9</v>
+      </c>
+      <c r="C102" s="3">
+        <f t="shared" ref="C102" si="122">SUM(D102:F102)</f>
+        <v>1673</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1105</v>
+      </c>
+      <c r="E102" s="3">
+        <v>371</v>
+      </c>
+      <c r="F102" s="4">
+        <v>197</v>
+      </c>
+      <c r="G102" s="5">
+        <v>39</v>
+      </c>
+      <c r="H102" s="18">
+        <f t="shared" si="119"/>
+        <v>3891</v>
+      </c>
+      <c r="I102" s="6">
+        <v>3084</v>
+      </c>
+      <c r="J102" s="7">
+        <v>423</v>
+      </c>
+      <c r="K102" s="8">
         <v>384</v>
       </c>
     </row>
@@ -7805,7 +7927,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+      <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61063E63-63DD-0F4E-9995-9118378A7792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0139C208-327B-4C4C-AA57-CF78BDD3127D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30160" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -568,6 +568,9 @@
                 <c:pt idx="99">
                   <c:v>44787</c:v>
                 </c:pt>
+                <c:pt idx="100">
+                  <c:v>44808</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -876,6 +879,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>3891</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1223,6 +1229,9 @@
                 <c:pt idx="99">
                   <c:v>44787</c:v>
                 </c:pt>
+                <c:pt idx="100">
+                  <c:v>44808</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1531,6 +1540,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>3084</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1880,6 +1892,9 @@
                 <c:pt idx="99">
                   <c:v>44787</c:v>
                 </c:pt>
+                <c:pt idx="100">
+                  <c:v>44808</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2188,6 +2203,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2586,6 +2604,9 @@
                 <c:pt idx="99">
                   <c:v>44787</c:v>
                 </c:pt>
+                <c:pt idx="100">
+                  <c:v>44808</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2894,6 +2915,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4103,13 +4127,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K102" sqref="K102"/>
+      <selection pane="bottomRight" activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7907,6 +7931,43 @@
       </c>
       <c r="K102" s="8">
         <v>384</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>44808</v>
+      </c>
+      <c r="B103" s="2">
+        <v>9</v>
+      </c>
+      <c r="C103" s="3">
+        <f t="shared" ref="C103" si="123">SUM(D103:F103)</f>
+        <v>1673</v>
+      </c>
+      <c r="D103" s="3">
+        <v>1105</v>
+      </c>
+      <c r="E103" s="3">
+        <v>371</v>
+      </c>
+      <c r="F103" s="4">
+        <v>197</v>
+      </c>
+      <c r="G103" s="5">
+        <v>39</v>
+      </c>
+      <c r="H103" s="18">
+        <f t="shared" ref="H103" si="124">SUM(I103:K103)</f>
+        <v>3906</v>
+      </c>
+      <c r="I103" s="6">
+        <v>3098</v>
+      </c>
+      <c r="J103" s="7">
+        <v>425</v>
+      </c>
+      <c r="K103" s="8">
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0139C208-327B-4C4C-AA57-CF78BDD3127D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648F0B91-19E3-934D-8136-A68D8385EC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30160" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -881,7 +881,7 @@
                   <c:v>3891</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3906</c:v>
+                  <c:v>3909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1542,7 +1542,7 @@
                   <c:v>3084</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3098</c:v>
+                  <c:v>3104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2205,7 +2205,7 @@
                   <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>425</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2917,7 +2917,7 @@
                   <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>383</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4133,7 +4133,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I103" sqref="I103"/>
+      <selection pane="bottomRight" activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7958,16 +7958,16 @@
       </c>
       <c r="H103" s="18">
         <f t="shared" ref="H103" si="124">SUM(I103:K103)</f>
-        <v>3906</v>
+        <v>3909</v>
       </c>
       <c r="I103" s="6">
-        <v>3098</v>
+        <v>3104</v>
       </c>
       <c r="J103" s="7">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K103" s="8">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648F0B91-19E3-934D-8136-A68D8385EC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8086B9B-71A9-0E4E-BE15-81A6C2894C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30160" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -571,6 +571,9 @@
                 <c:pt idx="100">
                   <c:v>44808</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>44812</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -882,6 +885,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>3909</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1232,6 +1238,9 @@
                 <c:pt idx="100">
                   <c:v>44808</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>44812</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1543,6 +1552,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>3104</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1895,6 +1907,9 @@
                 <c:pt idx="100">
                   <c:v>44808</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>44812</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2206,6 +2221,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2607,6 +2625,9 @@
                 <c:pt idx="100">
                   <c:v>44808</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>44812</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2918,6 +2939,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4127,13 +4151,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I104" sqref="I104"/>
+      <selection pane="bottomRight" activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7968,6 +7992,43 @@
       </c>
       <c r="K103" s="8">
         <v>382</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>44812</v>
+      </c>
+      <c r="B104" s="2">
+        <v>9</v>
+      </c>
+      <c r="C104" s="3">
+        <f t="shared" ref="C104" si="125">SUM(D104:F104)</f>
+        <v>1673</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1105</v>
+      </c>
+      <c r="E104" s="3">
+        <v>371</v>
+      </c>
+      <c r="F104" s="4">
+        <v>197</v>
+      </c>
+      <c r="G104" s="5">
+        <v>39</v>
+      </c>
+      <c r="H104" s="18">
+        <f t="shared" ref="H104" si="126">SUM(I104:K104)</f>
+        <v>3930</v>
+      </c>
+      <c r="I104" s="6">
+        <v>3123</v>
+      </c>
+      <c r="J104" s="7">
+        <v>422</v>
+      </c>
+      <c r="K104" s="8">
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8086B9B-71A9-0E4E-BE15-81A6C2894C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FC5BEE-6E34-1547-86F0-542AF717F1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30160" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -574,6 +574,9 @@
                 <c:pt idx="101">
                   <c:v>44812</c:v>
                 </c:pt>
+                <c:pt idx="102">
+                  <c:v>44814</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -888,6 +891,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>3930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1241,6 +1247,9 @@
                 <c:pt idx="101">
                   <c:v>44812</c:v>
                 </c:pt>
+                <c:pt idx="102">
+                  <c:v>44814</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1555,6 +1564,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>3123</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1910,6 +1922,9 @@
                 <c:pt idx="101">
                   <c:v>44812</c:v>
                 </c:pt>
+                <c:pt idx="102">
+                  <c:v>44814</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2223,6 +2238,9 @@
                   <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>422</c:v>
                 </c:pt>
               </c:numCache>
@@ -2628,6 +2646,9 @@
                 <c:pt idx="101">
                   <c:v>44812</c:v>
                 </c:pt>
+                <c:pt idx="102">
+                  <c:v>44814</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2942,6 +2963,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4151,13 +4175,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I105" sqref="I105"/>
+      <selection pane="bottomRight" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8029,6 +8053,43 @@
       </c>
       <c r="K104" s="8">
         <v>385</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>44814</v>
+      </c>
+      <c r="B105" s="2">
+        <v>9</v>
+      </c>
+      <c r="C105" s="3">
+        <f t="shared" ref="C105" si="127">SUM(D105:F105)</f>
+        <v>1673</v>
+      </c>
+      <c r="D105" s="3">
+        <v>1105</v>
+      </c>
+      <c r="E105" s="3">
+        <v>371</v>
+      </c>
+      <c r="F105" s="4">
+        <v>197</v>
+      </c>
+      <c r="G105" s="5">
+        <v>39</v>
+      </c>
+      <c r="H105" s="18">
+        <f t="shared" ref="H105" si="128">SUM(I105:K105)</f>
+        <v>3943</v>
+      </c>
+      <c r="I105" s="6">
+        <v>3135</v>
+      </c>
+      <c r="J105" s="7">
+        <v>422</v>
+      </c>
+      <c r="K105" s="8">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6671B16-DE7F-A04A-869F-217B4F979C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C46605-A9AB-6F4D-814E-B8B6756ABF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30160" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -580,6 +580,9 @@
                 <c:pt idx="103">
                   <c:v>44815</c:v>
                 </c:pt>
+                <c:pt idx="104">
+                  <c:v>44821</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -900,6 +903,9 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>3973</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1259,6 +1265,9 @@
                 <c:pt idx="103">
                   <c:v>44815</c:v>
                 </c:pt>
+                <c:pt idx="104">
+                  <c:v>44821</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1579,6 +1588,9 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>3163</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1940,6 +1952,9 @@
                 <c:pt idx="103">
                   <c:v>44815</c:v>
                 </c:pt>
+                <c:pt idx="104">
+                  <c:v>44821</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2259,6 +2274,9 @@
                   <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="103">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>423</c:v>
                 </c:pt>
               </c:numCache>
@@ -2670,6 +2688,9 @@
                 <c:pt idx="103">
                   <c:v>44815</c:v>
                 </c:pt>
+                <c:pt idx="104">
+                  <c:v>44821</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2990,6 +3011,9 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4199,13 +4223,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I107" sqref="I107"/>
+      <selection pane="bottomRight" activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8151,6 +8175,43 @@
       </c>
       <c r="K106" s="8">
         <v>387</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>44821</v>
+      </c>
+      <c r="B107" s="2">
+        <v>9</v>
+      </c>
+      <c r="C107" s="3">
+        <f t="shared" ref="C107" si="131">SUM(D107:F107)</f>
+        <v>1673</v>
+      </c>
+      <c r="D107" s="3">
+        <v>1105</v>
+      </c>
+      <c r="E107" s="3">
+        <v>371</v>
+      </c>
+      <c r="F107" s="4">
+        <v>197</v>
+      </c>
+      <c r="G107" s="5">
+        <v>39</v>
+      </c>
+      <c r="H107" s="18">
+        <f t="shared" ref="H107" si="132">SUM(I107:K107)</f>
+        <v>3873</v>
+      </c>
+      <c r="I107" s="6">
+        <v>3069</v>
+      </c>
+      <c r="J107" s="7">
+        <v>423</v>
+      </c>
+      <c r="K107" s="8">
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C46605-A9AB-6F4D-814E-B8B6756ABF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECF813C-1DE0-994B-9EC9-C71FC86249F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30160" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30160" windowHeight="26560" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -583,6 +583,9 @@
                 <c:pt idx="104">
                   <c:v>44821</c:v>
                 </c:pt>
+                <c:pt idx="105">
+                  <c:v>44823</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -905,6 +908,9 @@
                   <c:v>3973</c:v>
                 </c:pt>
                 <c:pt idx="104">
+                  <c:v>3873</c:v>
+                </c:pt>
+                <c:pt idx="105">
                   <c:v>3873</c:v>
                 </c:pt>
               </c:numCache>
@@ -1268,6 +1274,9 @@
                 <c:pt idx="104">
                   <c:v>44821</c:v>
                 </c:pt>
+                <c:pt idx="105">
+                  <c:v>44823</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1590,6 +1599,9 @@
                   <c:v>3163</c:v>
                 </c:pt>
                 <c:pt idx="104">
+                  <c:v>3069</c:v>
+                </c:pt>
+                <c:pt idx="105">
                   <c:v>3069</c:v>
                 </c:pt>
               </c:numCache>
@@ -1955,6 +1967,9 @@
                 <c:pt idx="104">
                   <c:v>44821</c:v>
                 </c:pt>
+                <c:pt idx="105">
+                  <c:v>44823</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2277,6 +2292,9 @@
                   <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="104">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="105">
                   <c:v>423</c:v>
                 </c:pt>
               </c:numCache>
@@ -2691,6 +2709,9 @@
                 <c:pt idx="104">
                   <c:v>44821</c:v>
                 </c:pt>
+                <c:pt idx="105">
+                  <c:v>44823</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3013,6 +3034,9 @@
                   <c:v>387</c:v>
                 </c:pt>
                 <c:pt idx="104">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="105">
                   <c:v>381</c:v>
                 </c:pt>
               </c:numCache>
@@ -4223,13 +4247,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I108" sqref="I108"/>
+      <selection pane="bottomRight" activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8214,6 +8238,43 @@
         <v>381</v>
       </c>
     </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>44823</v>
+      </c>
+      <c r="B108" s="2">
+        <v>9</v>
+      </c>
+      <c r="C108" s="3">
+        <f t="shared" ref="C108" si="133">SUM(D108:F108)</f>
+        <v>1673</v>
+      </c>
+      <c r="D108" s="3">
+        <v>1105</v>
+      </c>
+      <c r="E108" s="3">
+        <v>371</v>
+      </c>
+      <c r="F108" s="4">
+        <v>197</v>
+      </c>
+      <c r="G108" s="5">
+        <v>39</v>
+      </c>
+      <c r="H108" s="18">
+        <f t="shared" ref="H108" si="134">SUM(I108:K108)</f>
+        <v>3873</v>
+      </c>
+      <c r="I108" s="6">
+        <v>3069</v>
+      </c>
+      <c r="J108" s="7">
+        <v>423</v>
+      </c>
+      <c r="K108" s="8">
+        <v>381</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:F1"/>
@@ -8231,7 +8292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECF813C-1DE0-994B-9EC9-C71FC86249F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5820B3F3-791E-F64A-AB5E-DCAA031296ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30160" windowHeight="26560" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30160" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -586,6 +586,9 @@
                 <c:pt idx="105">
                   <c:v>44823</c:v>
                 </c:pt>
+                <c:pt idx="106">
+                  <c:v>44824</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -912,6 +915,9 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>3873</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1277,6 +1283,9 @@
                 <c:pt idx="105">
                   <c:v>44823</c:v>
                 </c:pt>
+                <c:pt idx="106">
+                  <c:v>44824</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1603,6 +1612,9 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>3069</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1970,6 +1982,9 @@
                 <c:pt idx="105">
                   <c:v>44823</c:v>
                 </c:pt>
+                <c:pt idx="106">
+                  <c:v>44824</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2296,6 +2311,9 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2712,6 +2730,9 @@
                 <c:pt idx="105">
                   <c:v>44823</c:v>
                 </c:pt>
+                <c:pt idx="106">
+                  <c:v>44824</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3038,6 +3059,9 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4247,13 +4271,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I109" sqref="I109"/>
+      <selection pane="bottomRight" activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8275,6 +8299,43 @@
         <v>381</v>
       </c>
     </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B109" s="2">
+        <v>9</v>
+      </c>
+      <c r="C109" s="3">
+        <f t="shared" ref="C109" si="135">SUM(D109:F109)</f>
+        <v>1673</v>
+      </c>
+      <c r="D109" s="3">
+        <v>1105</v>
+      </c>
+      <c r="E109" s="3">
+        <v>371</v>
+      </c>
+      <c r="F109" s="4">
+        <v>197</v>
+      </c>
+      <c r="G109" s="5">
+        <v>39</v>
+      </c>
+      <c r="H109" s="18">
+        <f t="shared" ref="H109" si="136">SUM(I109:K109)</f>
+        <v>3999</v>
+      </c>
+      <c r="I109" s="6">
+        <v>3161</v>
+      </c>
+      <c r="J109" s="7">
+        <v>449</v>
+      </c>
+      <c r="K109" s="8">
+        <v>389</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:F1"/>
@@ -8292,7 +8353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5820B3F3-791E-F64A-AB5E-DCAA031296ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6D695C-A764-C645-974D-23928C19F30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30160" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -589,6 +589,9 @@
                 <c:pt idx="106">
                   <c:v>44824</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>44829</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -918,6 +921,9 @@
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>3999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,6 +1292,9 @@
                 <c:pt idx="106">
                   <c:v>44824</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>44829</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1615,6 +1624,9 @@
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>3161</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1985,6 +1997,9 @@
                 <c:pt idx="106">
                   <c:v>44824</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>44829</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2314,6 +2329,9 @@
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2733,6 +2751,9 @@
                 <c:pt idx="106">
                   <c:v>44824</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>44829</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3062,6 +3083,9 @@
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4271,13 +4295,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I110" sqref="I110"/>
+      <selection pane="bottomRight" activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8334,6 +8358,43 @@
       </c>
       <c r="K109" s="8">
         <v>389</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>44829</v>
+      </c>
+      <c r="B110" s="2">
+        <v>9</v>
+      </c>
+      <c r="C110" s="3">
+        <f t="shared" ref="C110" si="137">SUM(D110:F110)</f>
+        <v>1673</v>
+      </c>
+      <c r="D110" s="3">
+        <v>1105</v>
+      </c>
+      <c r="E110" s="3">
+        <v>371</v>
+      </c>
+      <c r="F110" s="4">
+        <v>197</v>
+      </c>
+      <c r="G110" s="5">
+        <v>39</v>
+      </c>
+      <c r="H110" s="18">
+        <f t="shared" ref="H110" si="138">SUM(I110:K110)</f>
+        <v>4032</v>
+      </c>
+      <c r="I110" s="6">
+        <v>3185</v>
+      </c>
+      <c r="J110" s="7">
+        <v>459</v>
+      </c>
+      <c r="K110" s="8">
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6D695C-A764-C645-974D-23928C19F30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E965975-EA27-8F4D-A979-8B613BA021BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30160" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -592,6 +592,9 @@
                 <c:pt idx="107">
                   <c:v>44829</c:v>
                 </c:pt>
+                <c:pt idx="108">
+                  <c:v>44842</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -924,6 +927,9 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>4032</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1295,6 +1301,9 @@
                 <c:pt idx="107">
                   <c:v>44829</c:v>
                 </c:pt>
+                <c:pt idx="108">
+                  <c:v>44842</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1627,6 +1636,9 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>3185</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2000,6 +2012,9 @@
                 <c:pt idx="107">
                   <c:v>44829</c:v>
                 </c:pt>
+                <c:pt idx="108">
+                  <c:v>44842</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2332,6 +2347,9 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2754,6 +2772,9 @@
                 <c:pt idx="107">
                   <c:v>44829</c:v>
                 </c:pt>
+                <c:pt idx="108">
+                  <c:v>44842</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3086,6 +3107,9 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4295,13 +4319,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I111" sqref="I111"/>
+      <selection pane="bottomRight" activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8395,6 +8419,43 @@
       </c>
       <c r="K110" s="8">
         <v>388</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B111" s="2">
+        <v>9</v>
+      </c>
+      <c r="C111" s="3">
+        <f t="shared" ref="C111" si="139">SUM(D111:F111)</f>
+        <v>1673</v>
+      </c>
+      <c r="D111" s="3">
+        <v>1105</v>
+      </c>
+      <c r="E111" s="3">
+        <v>371</v>
+      </c>
+      <c r="F111" s="4">
+        <v>197</v>
+      </c>
+      <c r="G111" s="5">
+        <v>39</v>
+      </c>
+      <c r="H111" s="18">
+        <f t="shared" ref="H111" si="140">SUM(I111:K111)</f>
+        <v>4157</v>
+      </c>
+      <c r="I111" s="6">
+        <v>3297</v>
+      </c>
+      <c r="J111" s="7">
+        <v>457</v>
+      </c>
+      <c r="K111" s="8">
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E965975-EA27-8F4D-A979-8B613BA021BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE87652-BB95-4441-881F-CDDB094D2501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30160" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -595,6 +595,9 @@
                 <c:pt idx="108">
                   <c:v>44842</c:v>
                 </c:pt>
+                <c:pt idx="109">
+                  <c:v>44846</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -930,6 +933,9 @@
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>4157</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1304,6 +1310,9 @@
                 <c:pt idx="108">
                   <c:v>44842</c:v>
                 </c:pt>
+                <c:pt idx="109">
+                  <c:v>44846</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1639,6 +1648,9 @@
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>3297</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2015,6 +2027,9 @@
                 <c:pt idx="108">
                   <c:v>44842</c:v>
                 </c:pt>
+                <c:pt idx="109">
+                  <c:v>44846</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2350,6 +2365,9 @@
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2775,6 +2793,9 @@
                 <c:pt idx="108">
                   <c:v>44842</c:v>
                 </c:pt>
+                <c:pt idx="109">
+                  <c:v>44846</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3109,6 +3130,9 @@
                   <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="108">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="109">
                   <c:v>403</c:v>
                 </c:pt>
               </c:numCache>
@@ -4319,13 +4343,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I112" sqref="I112"/>
+      <selection pane="bottomRight" activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8455,6 +8479,43 @@
         <v>457</v>
       </c>
       <c r="K111" s="8">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>44846</v>
+      </c>
+      <c r="B112" s="2">
+        <v>9</v>
+      </c>
+      <c r="C112" s="3">
+        <f t="shared" ref="C112" si="141">SUM(D112:F112)</f>
+        <v>1673</v>
+      </c>
+      <c r="D112" s="3">
+        <v>1105</v>
+      </c>
+      <c r="E112" s="3">
+        <v>371</v>
+      </c>
+      <c r="F112" s="4">
+        <v>197</v>
+      </c>
+      <c r="G112" s="5">
+        <v>39</v>
+      </c>
+      <c r="H112" s="18">
+        <f t="shared" ref="H112" si="142">SUM(I112:K112)</f>
+        <v>4163</v>
+      </c>
+      <c r="I112" s="6">
+        <v>3302</v>
+      </c>
+      <c r="J112" s="7">
+        <v>458</v>
+      </c>
+      <c r="K112" s="8">
         <v>403</v>
       </c>
     </row>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE87652-BB95-4441-881F-CDDB094D2501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B799BF-B75C-774A-B07B-F20D277B6562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30160" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -598,6 +598,9 @@
                 <c:pt idx="109">
                   <c:v>44846</c:v>
                 </c:pt>
+                <c:pt idx="110">
+                  <c:v>44857</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -936,6 +939,9 @@
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>4163</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1313,6 +1319,9 @@
                 <c:pt idx="109">
                   <c:v>44846</c:v>
                 </c:pt>
+                <c:pt idx="110">
+                  <c:v>44857</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1651,6 +1660,9 @@
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>3302</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2030,6 +2042,9 @@
                 <c:pt idx="109">
                   <c:v>44846</c:v>
                 </c:pt>
+                <c:pt idx="110">
+                  <c:v>44857</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2367,6 +2382,9 @@
                   <c:v>457</c:v>
                 </c:pt>
                 <c:pt idx="109">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>458</c:v>
                 </c:pt>
               </c:numCache>
@@ -2796,6 +2814,9 @@
                 <c:pt idx="109">
                   <c:v>44846</c:v>
                 </c:pt>
+                <c:pt idx="110">
+                  <c:v>44857</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3133,6 +3154,9 @@
                   <c:v>403</c:v>
                 </c:pt>
                 <c:pt idx="109">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>403</c:v>
                 </c:pt>
               </c:numCache>
@@ -3160,7 +3184,7 @@
         <c:axId val="1582352671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44850"/>
+          <c:max val="44900"/>
           <c:min val="44349"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4013,8 +4037,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4343,13 +4367,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I113" sqref="I113"/>
+      <selection pane="bottomRight" activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8516,6 +8540,43 @@
         <v>458</v>
       </c>
       <c r="K112" s="8">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B113" s="2">
+        <v>9</v>
+      </c>
+      <c r="C113" s="3">
+        <f t="shared" ref="C113" si="143">SUM(D113:F113)</f>
+        <v>1673</v>
+      </c>
+      <c r="D113" s="3">
+        <v>1105</v>
+      </c>
+      <c r="E113" s="3">
+        <v>371</v>
+      </c>
+      <c r="F113" s="4">
+        <v>197</v>
+      </c>
+      <c r="G113" s="5">
+        <v>39</v>
+      </c>
+      <c r="H113" s="18">
+        <f t="shared" ref="H113" si="144">SUM(I113:K113)</f>
+        <v>4165</v>
+      </c>
+      <c r="I113" s="6">
+        <v>3304</v>
+      </c>
+      <c r="J113" s="7">
+        <v>458</v>
+      </c>
+      <c r="K113" s="8">
         <v>403</v>
       </c>
     </row>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B799BF-B75C-774A-B07B-F20D277B6562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5850BF2-C08D-8B48-B5A8-4618107B7EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -241,6 +241,727 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Table!$A$3:$A$150</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>44380</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44382</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44387</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44392</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44393</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44394</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44395</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44396</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44397</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44398</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44401</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44402</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44410</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44415</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44416</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44417</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44422</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44423</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44424</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44425</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44472</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44539</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44541</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44542</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44547</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44549</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44550</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44551</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44552</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44553</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44554</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44555</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44556</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44558</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44559</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44560</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44564</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44565</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44566</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44567</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44569</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44575</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44576</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44577</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44579</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44584</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44585</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44586</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44587</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44590</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44626</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44627</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44628</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44632</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44633</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44637</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44644</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44646</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44647</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44648</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44653</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44654</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44655</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44656</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44661</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44663</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44668</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44669</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44672</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44674</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44675</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44688</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44689</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44690</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44698</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44700</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44702</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44707</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44709</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44787</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44808</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44814</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44815</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44821</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44824</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44829</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44842</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44846</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Table!$H$3:$H$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="148"/>
+                <c:pt idx="0">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1173</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1171</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1197</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1213</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1223</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1296</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1332</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1335</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1338</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1417</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1414</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1921</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1717</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1703</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1737</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1769</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1817</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1838</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1837</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1848</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1924</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2105</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2209</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2209</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2221</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2221</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2293</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2320</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2449</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2518</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2567</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2927</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2915</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2917</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2862</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2949</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2976</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3025</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3025</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3027</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3029</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2686</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3024</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3031</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3033</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3053</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3057</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3090</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3109</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3126</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3277</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3287</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3284</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3331</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3333</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3465</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3489</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3496</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3526</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3558</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3526</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3891</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3908</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3763</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3744</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3752</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3704</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3691</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3719</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3694</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3710</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3727</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3721</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3721</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3799</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3817</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3886</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3890</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3891</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3909</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3943</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3973</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3873</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3873</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4032</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4157</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4163</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-207B-2046-BDBA-43068CA74D1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Swift code</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
@@ -252,7 +973,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -606,727 +1327,6 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$H$3:$H$150</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="148"/>
-                <c:pt idx="0">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>551</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>642</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>684</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>695</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>714</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>717</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1173</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1171</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1187</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1197</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1213</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1223</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1241</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1296</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1332</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1335</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1338</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1375</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1372</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1417</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1414</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1921</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1717</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1703</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1737</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1760</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1769</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1817</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1838</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1837</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1848</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1896</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1905</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1924</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2105</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2209</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2209</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2221</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2221</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2293</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2320</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2449</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2518</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2567</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2927</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2915</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2917</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2862</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2949</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2976</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3025</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3025</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3027</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3029</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2686</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3024</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3031</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3033</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3053</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3057</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3090</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3109</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>3126</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3277</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3287</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3284</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>3331</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3333</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3450</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3465</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>3489</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>3496</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>3526</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3558</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3526</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3891</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3908</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3763</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3744</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3752</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3704</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>3691</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3719</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3694</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>3710</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>3727</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>3721</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>3721</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>3799</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>3817</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>3886</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>3890</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>3891</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>3909</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>3930</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>3943</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>3973</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>3873</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>3873</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>3999</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>4032</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>4157</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>4163</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>4165</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-207B-2046-BDBA-43068CA74D1D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Swift code</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Table!$A$3:$A$150</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="148"/>
-                <c:pt idx="0">
-                  <c:v>44380</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44381</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44382</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44383</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44387</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44392</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44393</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44394</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44395</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44396</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44397</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44398</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44401</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44402</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44409</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44410</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44415</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44416</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44417</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44422</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44423</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44424</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44425</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44472</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44539</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44541</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44542</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44547</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44549</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44550</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44551</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44552</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44553</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44554</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44555</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44556</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44558</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44559</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44560</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44562</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44564</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44565</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44566</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44567</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44568</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44569</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44575</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44576</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44577</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44578</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44579</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44584</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44585</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44586</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44587</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44588</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44589</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44590</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44626</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44627</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44628</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44632</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44633</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44637</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44644</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44645</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44646</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44647</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44648</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44652</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44653</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44654</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44655</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44656</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44661</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44663</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44668</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44669</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44672</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44674</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44675</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44678</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44682</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44686</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44688</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44689</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44690</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44698</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44700</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44701</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44702</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44707</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44709</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44781</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44785</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44787</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44808</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44812</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44814</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44815</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44821</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44823</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44824</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44829</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44842</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44846</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44857</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>Table!$I$3:$I$150</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
@@ -1662,12 +1662,12 @@
                   <c:v>3302</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3304</c:v>
+                  <c:v>3319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-207B-2046-BDBA-43068CA74D1D}"/>
@@ -1694,7 +1694,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -2390,7 +2390,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-207B-2046-BDBA-43068CA74D1D}"/>
@@ -2406,10 +2406,7 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2420,17 +2417,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2443,17 +2434,11 @@
               <c:size val="5"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:ln w="9525">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="accent4"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -2463,10 +2448,7 @@
             <c:spPr>
               <a:ln w="25400" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -3162,7 +3144,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-207B-2046-BDBA-43068CA74D1D}"/>
@@ -3184,14 +3166,14 @@
         <c:axId val="1582352671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44900"/>
+          <c:max val="44930"/>
           <c:min val="44349"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="22225" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -3381,9 +3363,17 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </c:spPr>
     </c:plotArea>
     <c:legend>
@@ -3400,11 +3390,21 @@
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -4373,7 +4373,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I114" sqref="I114"/>
+      <selection pane="bottomRight" activeCell="L113" sqref="L113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8568,10 +8568,10 @@
       </c>
       <c r="H113" s="18">
         <f t="shared" ref="H113" si="144">SUM(I113:K113)</f>
-        <v>4165</v>
+        <v>4180</v>
       </c>
       <c r="I113" s="6">
-        <v>3304</v>
+        <v>3319</v>
       </c>
       <c r="J113" s="7">
         <v>458</v>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre/Fotogroep Waalre/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5850BF2-C08D-8B48-B5A8-4618107B7EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7A10CA-F2A3-074F-A55E-08ADDE8AF789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -601,6 +601,9 @@
                 <c:pt idx="110">
                   <c:v>44857</c:v>
                 </c:pt>
+                <c:pt idx="111">
+                  <c:v>44892</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -942,6 +945,9 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>4180</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,6 +1328,9 @@
                 <c:pt idx="110">
                   <c:v>44857</c:v>
                 </c:pt>
+                <c:pt idx="111">
+                  <c:v>44892</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1663,6 +1672,9 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>3319</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2045,6 +2057,9 @@
                 <c:pt idx="110">
                   <c:v>44857</c:v>
                 </c:pt>
+                <c:pt idx="111">
+                  <c:v>44892</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2386,6 +2401,9 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2799,6 +2817,9 @@
                 <c:pt idx="110">
                   <c:v>44857</c:v>
                 </c:pt>
+                <c:pt idx="111">
+                  <c:v>44892</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3140,6 +3161,9 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4367,13 +4391,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L113" sqref="L113"/>
+      <selection pane="bottomRight" activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8580,6 +8604,43 @@
         <v>403</v>
       </c>
     </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>44892</v>
+      </c>
+      <c r="B114" s="2">
+        <v>9</v>
+      </c>
+      <c r="C114" s="3">
+        <f t="shared" ref="C114" si="145">SUM(D114:F114)</f>
+        <v>1673</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1105</v>
+      </c>
+      <c r="E114" s="3">
+        <v>371</v>
+      </c>
+      <c r="F114" s="4">
+        <v>197</v>
+      </c>
+      <c r="G114" s="5">
+        <v>39</v>
+      </c>
+      <c r="H114" s="18">
+        <f t="shared" ref="H114" si="146">SUM(I114:K114)</f>
+        <v>4018</v>
+      </c>
+      <c r="I114" s="6">
+        <v>3221</v>
+      </c>
+      <c r="J114" s="7">
+        <v>413</v>
+      </c>
+      <c r="K114" s="8">
+        <v>384</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:F1"/>
@@ -8598,7 +8659,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+      <selection activeCell="AA41" sqref="AA41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7A10CA-F2A3-074F-A55E-08ADDE8AF789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7115F8FD-BBD2-3F41-96CF-7FDFD6C71990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -604,6 +604,9 @@
                 <c:pt idx="111">
                   <c:v>44892</c:v>
                 </c:pt>
+                <c:pt idx="112">
+                  <c:v>44899</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -948,6 +951,9 @@
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>4018</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1331,6 +1337,9 @@
                 <c:pt idx="111">
                   <c:v>44892</c:v>
                 </c:pt>
+                <c:pt idx="112">
+                  <c:v>44899</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1675,6 +1684,9 @@
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>3221</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2060,6 +2072,9 @@
                 <c:pt idx="111">
                   <c:v>44892</c:v>
                 </c:pt>
+                <c:pt idx="112">
+                  <c:v>44899</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2404,6 +2419,9 @@
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2820,6 +2838,9 @@
                 <c:pt idx="111">
                   <c:v>44892</c:v>
                 </c:pt>
+                <c:pt idx="112">
+                  <c:v>44899</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3164,6 +3185,9 @@
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4391,13 +4415,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I115" sqref="I115"/>
+      <selection pane="bottomRight" activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8639,6 +8663,43 @@
       </c>
       <c r="K114" s="8">
         <v>384</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>44899</v>
+      </c>
+      <c r="B115" s="2">
+        <v>9</v>
+      </c>
+      <c r="C115" s="3">
+        <f t="shared" ref="C115" si="147">SUM(D115:F115)</f>
+        <v>1673</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1105</v>
+      </c>
+      <c r="E115" s="3">
+        <v>371</v>
+      </c>
+      <c r="F115" s="4">
+        <v>197</v>
+      </c>
+      <c r="G115" s="5">
+        <v>39</v>
+      </c>
+      <c r="H115" s="18">
+        <f t="shared" ref="H115" si="148">SUM(I115:K115)</f>
+        <v>4079</v>
+      </c>
+      <c r="I115" s="6">
+        <v>3273</v>
+      </c>
+      <c r="J115" s="7">
+        <v>428</v>
+      </c>
+      <c r="K115" s="8">
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7115F8FD-BBD2-3F41-96CF-7FDFD6C71990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A534688-66C6-EF42-BA6A-B3355FAD9103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -607,6 +607,9 @@
                 <c:pt idx="112">
                   <c:v>44899</c:v>
                 </c:pt>
+                <c:pt idx="113">
+                  <c:v>44900</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -954,6 +957,9 @@
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>4079</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1340,6 +1346,9 @@
                 <c:pt idx="112">
                   <c:v>44899</c:v>
                 </c:pt>
+                <c:pt idx="113">
+                  <c:v>44900</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1687,6 +1696,9 @@
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>3273</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2075,6 +2087,9 @@
                 <c:pt idx="112">
                   <c:v>44899</c:v>
                 </c:pt>
+                <c:pt idx="113">
+                  <c:v>44900</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2421,6 +2436,9 @@
                   <c:v>413</c:v>
                 </c:pt>
                 <c:pt idx="112">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="113">
                   <c:v>428</c:v>
                 </c:pt>
               </c:numCache>
@@ -2841,6 +2859,9 @@
                 <c:pt idx="112">
                   <c:v>44899</c:v>
                 </c:pt>
+                <c:pt idx="113">
+                  <c:v>44900</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3188,6 +3209,9 @@
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4415,13 +4439,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A116" sqref="A116"/>
+      <selection pane="bottomRight" activeCell="J117" sqref="J117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8700,6 +8724,43 @@
       </c>
       <c r="K115" s="8">
         <v>378</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B116" s="2">
+        <v>9</v>
+      </c>
+      <c r="C116" s="3">
+        <f t="shared" ref="C116" si="149">SUM(D116:F116)</f>
+        <v>1673</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1105</v>
+      </c>
+      <c r="E116" s="3">
+        <v>371</v>
+      </c>
+      <c r="F116" s="4">
+        <v>197</v>
+      </c>
+      <c r="G116" s="5">
+        <v>39</v>
+      </c>
+      <c r="H116" s="18">
+        <f t="shared" ref="H116" si="150">SUM(I116:K116)</f>
+        <v>4089</v>
+      </c>
+      <c r="I116" s="6">
+        <v>3282</v>
+      </c>
+      <c r="J116" s="7">
+        <v>428</v>
+      </c>
+      <c r="K116" s="8">
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A534688-66C6-EF42-BA6A-B3355FAD9103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7DF068-1BF1-D94A-BFCB-4C06A8A503A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -137,15 +137,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -153,7 +152,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -165,20 +164,16 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -610,6 +605,9 @@
                 <c:pt idx="113">
                   <c:v>44900</c:v>
                 </c:pt>
+                <c:pt idx="114">
+                  <c:v>44903</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -960,6 +958,9 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>4089</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1349,6 +1350,9 @@
                 <c:pt idx="113">
                   <c:v>44900</c:v>
                 </c:pt>
+                <c:pt idx="114">
+                  <c:v>44903</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1699,6 +1703,9 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>3282</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2090,6 +2097,9 @@
                 <c:pt idx="113">
                   <c:v>44900</c:v>
                 </c:pt>
+                <c:pt idx="114">
+                  <c:v>44903</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2440,6 +2450,9 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2862,6 +2875,9 @@
                 <c:pt idx="113">
                   <c:v>44900</c:v>
                 </c:pt>
+                <c:pt idx="114">
+                  <c:v>44903</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3212,6 +3228,9 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4439,76 +4458,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K116"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J117" sqref="J117"/>
+      <selection pane="bottomRight" activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="10.83203125" style="4"/>
-    <col min="7" max="7" width="10.83203125" style="5"/>
-    <col min="8" max="8" width="10.83203125" style="3"/>
-    <col min="9" max="9" width="10.83203125" style="6"/>
-    <col min="10" max="10" width="10.83203125" style="7"/>
-    <col min="11" max="11" width="10.83203125" style="8"/>
+    <col min="6" max="6" width="10.83203125" style="3"/>
+    <col min="7" max="7" width="10.83203125" style="4"/>
+    <col min="9" max="9" width="10.83203125" style="5"/>
+    <col min="10" max="10" width="10.83203125" style="6"/>
+    <col min="11" max="11" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="19" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-    </row>
-    <row r="2" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4519,33 +4536,33 @@
       <c r="B3" s="2">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <f>SUM(D3:F3)</f>
         <v>1673</v>
       </c>
-      <c r="D3" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E3" s="3">
-        <v>371</v>
-      </c>
-      <c r="F3" s="4">
-        <v>197</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="D3">
+        <v>1105</v>
+      </c>
+      <c r="E3">
+        <v>371</v>
+      </c>
+      <c r="F3" s="3">
+        <v>197</v>
+      </c>
+      <c r="G3" s="4">
         <v>6</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3">
         <f>SUM(I3:K3)</f>
         <v>340</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>239</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>61</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>40</v>
       </c>
     </row>
@@ -4557,33 +4574,33 @@
       <c r="B4" s="2">
         <v>9</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <f t="shared" ref="C4:C53" si="1">SUM(D4:F4)</f>
         <v>1673</v>
       </c>
-      <c r="D4" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E4" s="3">
-        <v>371</v>
-      </c>
-      <c r="F4" s="4">
-        <v>197</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="D4">
+        <v>1105</v>
+      </c>
+      <c r="E4">
+        <v>371</v>
+      </c>
+      <c r="F4" s="3">
+        <v>197</v>
+      </c>
+      <c r="G4" s="4">
         <v>6</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4">
         <f>SUM(I4:K4)</f>
         <v>551</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>405</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>62</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>84</v>
       </c>
     </row>
@@ -4595,33 +4612,33 @@
       <c r="B5" s="2">
         <v>9</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D5" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E5" s="3">
-        <v>371</v>
-      </c>
-      <c r="F5" s="4">
-        <v>197</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="D5">
+        <v>1105</v>
+      </c>
+      <c r="E5">
+        <v>371</v>
+      </c>
+      <c r="F5" s="3">
+        <v>197</v>
+      </c>
+      <c r="G5" s="4">
         <v>6</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
         <f>SUM(I5:K5)</f>
         <v>630</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>469</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>67</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>94</v>
       </c>
     </row>
@@ -4633,33 +4650,33 @@
       <c r="B6" s="2">
         <v>9</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D6" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E6" s="3">
-        <v>371</v>
-      </c>
-      <c r="F6" s="4">
-        <v>197</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="D6">
+        <v>1105</v>
+      </c>
+      <c r="E6">
+        <v>371</v>
+      </c>
+      <c r="F6" s="3">
+        <v>197</v>
+      </c>
+      <c r="G6" s="4">
         <v>6</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
         <f>SUM(I6:K6)</f>
         <v>642</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>477</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>68</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>97</v>
       </c>
     </row>
@@ -4671,33 +4688,33 @@
       <c r="B7" s="2">
         <v>9</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D7" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E7" s="3">
-        <v>371</v>
-      </c>
-      <c r="F7" s="4">
-        <v>197</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="D7">
+        <v>1105</v>
+      </c>
+      <c r="E7">
+        <v>371</v>
+      </c>
+      <c r="F7" s="3">
+        <v>197</v>
+      </c>
+      <c r="G7" s="4">
         <v>6</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7">
         <f t="shared" ref="H7:H26" si="3">SUM(I7:K7)</f>
         <v>684</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>539</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>63</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>82</v>
       </c>
     </row>
@@ -4708,33 +4725,33 @@
       <c r="B8" s="2">
         <v>9</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D8" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E8" s="3">
-        <v>371</v>
-      </c>
-      <c r="F8" s="4">
-        <v>197</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="D8">
+        <v>1105</v>
+      </c>
+      <c r="E8">
+        <v>371</v>
+      </c>
+      <c r="F8" s="3">
+        <v>197</v>
+      </c>
+      <c r="G8" s="4">
         <v>6</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8">
         <f t="shared" si="3"/>
         <v>695</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>549</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>63</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>83</v>
       </c>
     </row>
@@ -4745,33 +4762,33 @@
       <c r="B9" s="2">
         <v>9</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D9" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E9" s="3">
-        <v>371</v>
-      </c>
-      <c r="F9" s="4">
-        <v>197</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="D9">
+        <v>1105</v>
+      </c>
+      <c r="E9">
+        <v>371</v>
+      </c>
+      <c r="F9" s="3">
+        <v>197</v>
+      </c>
+      <c r="G9" s="4">
         <v>6</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
         <f t="shared" si="3"/>
         <v>714</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>557</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>70</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>87</v>
       </c>
     </row>
@@ -4783,33 +4800,33 @@
       <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D10" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E10" s="3">
-        <v>371</v>
-      </c>
-      <c r="F10" s="4">
-        <v>197</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="D10">
+        <v>1105</v>
+      </c>
+      <c r="E10">
+        <v>371</v>
+      </c>
+      <c r="F10" s="3">
+        <v>197</v>
+      </c>
+      <c r="G10" s="4">
         <v>6</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
         <f t="shared" si="3"/>
         <v>717</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>559</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>71</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>87</v>
       </c>
     </row>
@@ -4821,33 +4838,33 @@
       <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D11" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E11" s="3">
-        <v>371</v>
-      </c>
-      <c r="F11" s="4">
-        <v>197</v>
-      </c>
-      <c r="G11" s="5">
-        <v>9</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="D11">
+        <v>1105</v>
+      </c>
+      <c r="E11">
+        <v>371</v>
+      </c>
+      <c r="F11" s="3">
+        <v>197</v>
+      </c>
+      <c r="G11" s="4">
+        <v>9</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="3"/>
         <v>1173</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>908</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>131</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>134</v>
       </c>
     </row>
@@ -4859,34 +4876,34 @@
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D12" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E12" s="3">
-        <v>371</v>
-      </c>
-      <c r="F12" s="4">
-        <v>197</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="D12">
+        <v>1105</v>
+      </c>
+      <c r="E12">
+        <v>371</v>
+      </c>
+      <c r="F12" s="3">
+        <v>197</v>
+      </c>
+      <c r="G12" s="4">
         <f>G11</f>
         <v>9</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12">
         <f t="shared" si="3"/>
         <v>1171</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>945</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>116</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>110</v>
       </c>
     </row>
@@ -4898,34 +4915,34 @@
       <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D13" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E13" s="3">
-        <v>371</v>
-      </c>
-      <c r="F13" s="4">
-        <v>197</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="D13">
+        <v>1105</v>
+      </c>
+      <c r="E13">
+        <v>371</v>
+      </c>
+      <c r="F13" s="3">
+        <v>197</v>
+      </c>
+      <c r="G13" s="4">
         <f t="shared" ref="G13:G27" si="4">G12</f>
         <v>9</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13">
         <f t="shared" si="3"/>
         <v>1187</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>966</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>111</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>110</v>
       </c>
     </row>
@@ -4937,34 +4954,34 @@
       <c r="B14" s="2">
         <v>9</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D14" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E14" s="3">
-        <v>371</v>
-      </c>
-      <c r="F14" s="4">
-        <v>197</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="D14">
+        <v>1105</v>
+      </c>
+      <c r="E14">
+        <v>371</v>
+      </c>
+      <c r="F14" s="3">
+        <v>197</v>
+      </c>
+      <c r="G14" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14">
         <f t="shared" si="3"/>
         <v>1197</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>976</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>111</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>110</v>
       </c>
     </row>
@@ -4976,34 +4993,34 @@
       <c r="B15" s="2">
         <v>9</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D15" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E15" s="3">
-        <v>371</v>
-      </c>
-      <c r="F15" s="4">
-        <v>197</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="D15">
+        <v>1105</v>
+      </c>
+      <c r="E15">
+        <v>371</v>
+      </c>
+      <c r="F15" s="3">
+        <v>197</v>
+      </c>
+      <c r="G15" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15">
         <f t="shared" si="3"/>
         <v>1213</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>991</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>111</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>111</v>
       </c>
     </row>
@@ -5014,34 +5031,34 @@
       <c r="B16" s="2">
         <v>9</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D16" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E16" s="3">
-        <v>371</v>
-      </c>
-      <c r="F16" s="4">
-        <v>197</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="D16">
+        <v>1105</v>
+      </c>
+      <c r="E16">
+        <v>371</v>
+      </c>
+      <c r="F16" s="3">
+        <v>197</v>
+      </c>
+      <c r="G16" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16">
         <f t="shared" si="3"/>
         <v>1223</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>984</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>125</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>114</v>
       </c>
     </row>
@@ -5053,34 +5070,34 @@
       <c r="B17" s="2">
         <v>9</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D17" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E17" s="3">
-        <v>371</v>
-      </c>
-      <c r="F17" s="4">
-        <v>197</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="D17">
+        <v>1105</v>
+      </c>
+      <c r="E17">
+        <v>371</v>
+      </c>
+      <c r="F17" s="3">
+        <v>197</v>
+      </c>
+      <c r="G17" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17">
         <f t="shared" si="3"/>
         <v>1241</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>1009</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>117</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>115</v>
       </c>
     </row>
@@ -5092,34 +5109,34 @@
       <c r="B18" s="2">
         <v>9</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D18" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E18" s="3">
-        <v>371</v>
-      </c>
-      <c r="F18" s="4">
-        <v>197</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="D18">
+        <v>1105</v>
+      </c>
+      <c r="E18">
+        <v>371</v>
+      </c>
+      <c r="F18" s="3">
+        <v>197</v>
+      </c>
+      <c r="G18" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18">
         <f t="shared" si="3"/>
         <v>1296</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>1022</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>148</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <v>126</v>
       </c>
     </row>
@@ -5130,33 +5147,33 @@
       <c r="B19" s="2">
         <v>9</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D19" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E19" s="3">
-        <v>371</v>
-      </c>
-      <c r="F19" s="4">
-        <v>197</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="D19">
+        <v>1105</v>
+      </c>
+      <c r="E19">
+        <v>371</v>
+      </c>
+      <c r="F19" s="3">
+        <v>197</v>
+      </c>
+      <c r="G19" s="4">
         <v>11</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19">
         <f t="shared" si="3"/>
         <v>1332</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>1054</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>150</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <v>128</v>
       </c>
     </row>
@@ -5168,34 +5185,34 @@
       <c r="B20" s="2">
         <v>9</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D20" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E20" s="3">
-        <v>371</v>
-      </c>
-      <c r="F20" s="4">
-        <v>197</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="D20">
+        <v>1105</v>
+      </c>
+      <c r="E20">
+        <v>371</v>
+      </c>
+      <c r="F20" s="3">
+        <v>197</v>
+      </c>
+      <c r="G20" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20">
         <f t="shared" si="3"/>
         <v>1335</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>1045</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>154</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <v>136</v>
       </c>
     </row>
@@ -5206,34 +5223,34 @@
       <c r="B21" s="2">
         <v>9</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D21" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E21" s="3">
-        <v>371</v>
-      </c>
-      <c r="F21" s="4">
-        <v>197</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="D21">
+        <v>1105</v>
+      </c>
+      <c r="E21">
+        <v>371</v>
+      </c>
+      <c r="F21" s="3">
+        <v>197</v>
+      </c>
+      <c r="G21" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21">
         <f t="shared" si="3"/>
         <v>1338</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>1049</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>153</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <v>136</v>
       </c>
     </row>
@@ -5245,34 +5262,34 @@
       <c r="B22" s="2">
         <v>9</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D22" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E22" s="3">
-        <v>371</v>
-      </c>
-      <c r="F22" s="4">
-        <v>197</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="D22">
+        <v>1105</v>
+      </c>
+      <c r="E22">
+        <v>371</v>
+      </c>
+      <c r="F22" s="3">
+        <v>197</v>
+      </c>
+      <c r="G22" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22">
         <f t="shared" si="3"/>
         <v>1375</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>1084</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <v>155</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="7">
         <v>136</v>
       </c>
     </row>
@@ -5284,34 +5301,34 @@
       <c r="B23" s="2">
         <v>9</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D23" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E23" s="3">
-        <v>371</v>
-      </c>
-      <c r="F23" s="4">
-        <v>197</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="D23">
+        <v>1105</v>
+      </c>
+      <c r="E23">
+        <v>371</v>
+      </c>
+      <c r="F23" s="3">
+        <v>197</v>
+      </c>
+      <c r="G23" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23">
         <f t="shared" si="3"/>
         <v>1372</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>1072</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <v>155</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="7">
         <v>145</v>
       </c>
     </row>
@@ -5322,34 +5339,34 @@
       <c r="B24" s="2">
         <v>9</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D24" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E24" s="3">
-        <v>371</v>
-      </c>
-      <c r="F24" s="4">
-        <v>197</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="D24">
+        <v>1105</v>
+      </c>
+      <c r="E24">
+        <v>371</v>
+      </c>
+      <c r="F24" s="3">
+        <v>197</v>
+      </c>
+      <c r="G24" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24">
         <f t="shared" si="3"/>
         <v>1417</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>1106</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="6">
         <v>158</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="7">
         <v>153</v>
       </c>
     </row>
@@ -5361,34 +5378,34 @@
       <c r="B25" s="2">
         <v>9</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D25" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E25" s="3">
-        <v>371</v>
-      </c>
-      <c r="F25" s="4">
-        <v>197</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="D25">
+        <v>1105</v>
+      </c>
+      <c r="E25">
+        <v>371</v>
+      </c>
+      <c r="F25" s="3">
+        <v>197</v>
+      </c>
+      <c r="G25" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25">
         <f t="shared" si="3"/>
         <v>1414</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>1115</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <v>160</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="7">
         <v>139</v>
       </c>
     </row>
@@ -5400,34 +5417,34 @@
       <c r="B26" s="2">
         <v>9</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D26" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E26" s="3">
-        <v>371</v>
-      </c>
-      <c r="F26" s="4">
-        <v>197</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="D26">
+        <v>1105</v>
+      </c>
+      <c r="E26">
+        <v>371</v>
+      </c>
+      <c r="F26" s="3">
+        <v>197</v>
+      </c>
+      <c r="G26" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26">
         <f t="shared" si="3"/>
         <v>1921</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <v>1543</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <v>188</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="7">
         <v>190</v>
       </c>
     </row>
@@ -5439,34 +5456,34 @@
       <c r="B27" s="2">
         <v>9</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D27" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E27" s="3">
-        <v>371</v>
-      </c>
-      <c r="F27" s="4">
-        <v>197</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="D27">
+        <v>1105</v>
+      </c>
+      <c r="E27">
+        <v>371</v>
+      </c>
+      <c r="F27" s="3">
+        <v>197</v>
+      </c>
+      <c r="G27" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27">
         <f t="shared" ref="H27:H30" si="5">SUM(I27:K27)</f>
         <v>1920</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <v>1539</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <v>195</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="7">
         <v>186</v>
       </c>
     </row>
@@ -5477,33 +5494,33 @@
       <c r="B28" s="2">
         <v>9</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D28" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E28" s="3">
-        <v>371</v>
-      </c>
-      <c r="F28" s="4">
-        <v>197</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="D28">
+        <v>1105</v>
+      </c>
+      <c r="E28">
+        <v>371</v>
+      </c>
+      <c r="F28" s="3">
+        <v>197</v>
+      </c>
+      <c r="G28" s="4">
         <v>13</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28">
         <f t="shared" si="5"/>
         <v>1717</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <v>1374</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="6">
         <v>177</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="7">
         <v>166</v>
       </c>
     </row>
@@ -5514,33 +5531,33 @@
       <c r="B29" s="2">
         <v>9</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D29" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E29" s="3">
-        <v>371</v>
-      </c>
-      <c r="F29" s="4">
-        <v>197</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="D29">
+        <v>1105</v>
+      </c>
+      <c r="E29">
+        <v>371</v>
+      </c>
+      <c r="F29" s="3">
+        <v>197</v>
+      </c>
+      <c r="G29" s="4">
         <v>13</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29">
         <f t="shared" si="5"/>
         <v>1703</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <v>1358</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <v>179</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="7">
         <v>166</v>
       </c>
     </row>
@@ -5551,33 +5568,33 @@
       <c r="B30" s="2">
         <v>9</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D30" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E30" s="3">
-        <v>371</v>
-      </c>
-      <c r="F30" s="4">
-        <v>197</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="D30">
+        <v>1105</v>
+      </c>
+      <c r="E30">
+        <v>371</v>
+      </c>
+      <c r="F30" s="3">
+        <v>197</v>
+      </c>
+      <c r="G30" s="4">
         <v>14</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30">
         <f t="shared" si="5"/>
         <v>1737</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <v>1392</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="6">
         <v>174</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="7">
         <v>171</v>
       </c>
     </row>
@@ -5588,33 +5605,33 @@
       <c r="B31" s="2">
         <v>9</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D31" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E31" s="3">
-        <v>371</v>
-      </c>
-      <c r="F31" s="4">
-        <v>197</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="D31">
+        <v>1105</v>
+      </c>
+      <c r="E31">
+        <v>371</v>
+      </c>
+      <c r="F31" s="3">
+        <v>197</v>
+      </c>
+      <c r="G31" s="4">
         <v>14</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31">
         <f t="shared" ref="H31" si="6">SUM(I31:K31)</f>
         <v>1760</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="5">
         <v>1415</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="6">
         <v>174</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="7">
         <v>171</v>
       </c>
     </row>
@@ -5625,33 +5642,33 @@
       <c r="B32" s="2">
         <v>9</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D32" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E32" s="3">
-        <v>371</v>
-      </c>
-      <c r="F32" s="4">
-        <v>197</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="D32">
+        <v>1105</v>
+      </c>
+      <c r="E32">
+        <v>371</v>
+      </c>
+      <c r="F32" s="3">
+        <v>197</v>
+      </c>
+      <c r="G32" s="4">
         <v>14</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32">
         <f t="shared" ref="H32" si="7">SUM(I32:K32)</f>
         <v>1769</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="5">
         <v>1424</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="6">
         <v>175</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="7">
         <v>170</v>
       </c>
     </row>
@@ -5662,33 +5679,33 @@
       <c r="B33" s="2">
         <v>9</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D33" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E33" s="3">
-        <v>371</v>
-      </c>
-      <c r="F33" s="4">
-        <v>197</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="D33">
+        <v>1105</v>
+      </c>
+      <c r="E33">
+        <v>371</v>
+      </c>
+      <c r="F33" s="3">
+        <v>197</v>
+      </c>
+      <c r="G33" s="4">
         <v>14</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33">
         <f t="shared" ref="H33" si="8">SUM(I33:K33)</f>
         <v>1817</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="5">
         <v>1464</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <v>176</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="7">
         <v>177</v>
       </c>
     </row>
@@ -5699,33 +5716,33 @@
       <c r="B34" s="2">
         <v>9</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D34" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E34" s="3">
-        <v>371</v>
-      </c>
-      <c r="F34" s="4">
-        <v>197</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="D34">
+        <v>1105</v>
+      </c>
+      <c r="E34">
+        <v>371</v>
+      </c>
+      <c r="F34" s="3">
+        <v>197</v>
+      </c>
+      <c r="G34" s="4">
         <v>14</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34">
         <f t="shared" ref="H34" si="9">SUM(I34:K34)</f>
         <v>1838</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="5">
         <v>1472</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="6">
         <v>185</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="7">
         <v>181</v>
       </c>
     </row>
@@ -5736,33 +5753,33 @@
       <c r="B35" s="2">
         <v>9</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D35" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E35" s="3">
-        <v>371</v>
-      </c>
-      <c r="F35" s="4">
-        <v>197</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="D35">
+        <v>1105</v>
+      </c>
+      <c r="E35">
+        <v>371</v>
+      </c>
+      <c r="F35" s="3">
+        <v>197</v>
+      </c>
+      <c r="G35" s="4">
         <v>14</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35">
         <f t="shared" ref="H35" si="10">SUM(I35:K35)</f>
         <v>1837</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="5">
         <v>1475</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="6">
         <v>180</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="7">
         <v>182</v>
       </c>
     </row>
@@ -5773,33 +5790,33 @@
       <c r="B36" s="2">
         <v>9</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D36" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E36" s="3">
-        <v>371</v>
-      </c>
-      <c r="F36" s="4">
-        <v>197</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="D36">
+        <v>1105</v>
+      </c>
+      <c r="E36">
+        <v>371</v>
+      </c>
+      <c r="F36" s="3">
+        <v>197</v>
+      </c>
+      <c r="G36" s="4">
         <v>14</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36">
         <f t="shared" ref="H36" si="11">SUM(I36:K36)</f>
         <v>1848</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="5">
         <v>1481</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="6">
         <v>184</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="7">
         <v>183</v>
       </c>
     </row>
@@ -5810,33 +5827,33 @@
       <c r="B37" s="2">
         <v>9</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D37" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E37" s="3">
-        <v>371</v>
-      </c>
-      <c r="F37" s="4">
-        <v>197</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="D37">
+        <v>1105</v>
+      </c>
+      <c r="E37">
+        <v>371</v>
+      </c>
+      <c r="F37" s="3">
+        <v>197</v>
+      </c>
+      <c r="G37" s="4">
         <v>15</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37">
         <f t="shared" ref="H37" si="12">SUM(I37:K37)</f>
         <v>1896</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="5">
         <v>1501</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="6">
         <v>208</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37" s="7">
         <v>187</v>
       </c>
     </row>
@@ -5847,33 +5864,33 @@
       <c r="B38" s="2">
         <v>9</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D38" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E38" s="3">
-        <v>371</v>
-      </c>
-      <c r="F38" s="4">
-        <v>197</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="D38">
+        <v>1105</v>
+      </c>
+      <c r="E38">
+        <v>371</v>
+      </c>
+      <c r="F38" s="3">
+        <v>197</v>
+      </c>
+      <c r="G38" s="4">
         <v>16</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38">
         <f t="shared" ref="H38" si="13">SUM(I38:K38)</f>
         <v>1905</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="5">
         <v>1517</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="6">
         <v>192</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="7">
         <v>196</v>
       </c>
     </row>
@@ -5884,33 +5901,33 @@
       <c r="B39" s="2">
         <v>9</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D39" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E39" s="3">
-        <v>371</v>
-      </c>
-      <c r="F39" s="4">
-        <v>197</v>
-      </c>
-      <c r="G39" s="5">
+      <c r="D39">
+        <v>1105</v>
+      </c>
+      <c r="E39">
+        <v>371</v>
+      </c>
+      <c r="F39" s="3">
+        <v>197</v>
+      </c>
+      <c r="G39" s="4">
         <v>17</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39">
         <f t="shared" ref="H39" si="14">SUM(I39:K39)</f>
         <v>1924</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="5">
         <v>1527</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="6">
         <v>199</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="7">
         <v>198</v>
       </c>
     </row>
@@ -5921,33 +5938,33 @@
       <c r="B40" s="2">
         <v>9</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D40" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E40" s="3">
-        <v>371</v>
-      </c>
-      <c r="F40" s="4">
-        <v>197</v>
-      </c>
-      <c r="G40" s="5">
+      <c r="D40">
+        <v>1105</v>
+      </c>
+      <c r="E40">
+        <v>371</v>
+      </c>
+      <c r="F40" s="3">
+        <v>197</v>
+      </c>
+      <c r="G40" s="4">
         <v>17</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40">
         <f t="shared" ref="H40" si="15">SUM(I40:K40)</f>
         <v>2011</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="5">
         <v>1598</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="6">
         <v>211</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="7">
         <v>202</v>
       </c>
     </row>
@@ -5958,33 +5975,33 @@
       <c r="B41" s="2">
         <v>9</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D41" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E41" s="3">
-        <v>371</v>
-      </c>
-      <c r="F41" s="4">
-        <v>197</v>
-      </c>
-      <c r="G41" s="5">
+      <c r="D41">
+        <v>1105</v>
+      </c>
+      <c r="E41">
+        <v>371</v>
+      </c>
+      <c r="F41" s="3">
+        <v>197</v>
+      </c>
+      <c r="G41" s="4">
         <v>18</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41">
         <f t="shared" ref="H41" si="16">SUM(I41:K41)</f>
         <v>2035</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="5">
         <v>1604</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="6">
         <v>222</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41" s="7">
         <v>209</v>
       </c>
     </row>
@@ -5995,33 +6012,33 @@
       <c r="B42" s="2">
         <v>9</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D42" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E42" s="3">
-        <v>371</v>
-      </c>
-      <c r="F42" s="4">
-        <v>197</v>
-      </c>
-      <c r="G42" s="5">
+      <c r="D42">
+        <v>1105</v>
+      </c>
+      <c r="E42">
+        <v>371</v>
+      </c>
+      <c r="F42" s="3">
+        <v>197</v>
+      </c>
+      <c r="G42" s="4">
         <v>19</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42">
         <f t="shared" ref="H42" si="17">SUM(I42:K42)</f>
         <v>2022</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="5">
         <v>1594</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="6">
         <v>218</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="7">
         <v>210</v>
       </c>
     </row>
@@ -6032,33 +6049,33 @@
       <c r="B43" s="2">
         <v>9</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D43" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E43" s="3">
-        <v>371</v>
-      </c>
-      <c r="F43" s="4">
-        <v>197</v>
-      </c>
-      <c r="G43" s="5">
+      <c r="D43">
+        <v>1105</v>
+      </c>
+      <c r="E43">
+        <v>371</v>
+      </c>
+      <c r="F43" s="3">
+        <v>197</v>
+      </c>
+      <c r="G43" s="4">
         <v>20</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43">
         <f t="shared" ref="H43" si="18">SUM(I43:K43)</f>
         <v>2105</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="5">
         <v>1624</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="6">
         <v>264</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="7">
         <v>217</v>
       </c>
     </row>
@@ -6069,33 +6086,33 @@
       <c r="B44" s="2">
         <v>9</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D44" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E44" s="3">
-        <v>371</v>
-      </c>
-      <c r="F44" s="4">
-        <v>197</v>
-      </c>
-      <c r="G44" s="5">
+      <c r="D44">
+        <v>1105</v>
+      </c>
+      <c r="E44">
+        <v>371</v>
+      </c>
+      <c r="F44" s="3">
+        <v>197</v>
+      </c>
+      <c r="G44" s="4">
         <v>23</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44">
         <f t="shared" ref="H44" si="19">SUM(I44:K44)</f>
         <v>2209</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="5">
         <v>1702</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="6">
         <v>266</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44" s="7">
         <v>241</v>
       </c>
     </row>
@@ -6106,33 +6123,33 @@
       <c r="B45" s="2">
         <v>9</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D45" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E45" s="3">
-        <v>371</v>
-      </c>
-      <c r="F45" s="4">
-        <v>197</v>
-      </c>
-      <c r="G45" s="5">
+      <c r="D45">
+        <v>1105</v>
+      </c>
+      <c r="E45">
+        <v>371</v>
+      </c>
+      <c r="F45" s="3">
+        <v>197</v>
+      </c>
+      <c r="G45" s="4">
         <v>23</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45">
         <f t="shared" ref="H45" si="20">SUM(I45:K45)</f>
         <v>2209</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="5">
         <v>1701</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="6">
         <v>267</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K45" s="7">
         <v>241</v>
       </c>
     </row>
@@ -6143,33 +6160,33 @@
       <c r="B46" s="2">
         <v>9</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D46" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E46" s="3">
-        <v>371</v>
-      </c>
-      <c r="F46" s="4">
-        <v>197</v>
-      </c>
-      <c r="G46" s="5">
+      <c r="D46">
+        <v>1105</v>
+      </c>
+      <c r="E46">
+        <v>371</v>
+      </c>
+      <c r="F46" s="3">
+        <v>197</v>
+      </c>
+      <c r="G46" s="4">
         <v>23</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46">
         <f t="shared" ref="H46" si="21">SUM(I46:K46)</f>
         <v>2221</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="5">
         <v>1733</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="6">
         <v>258</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46" s="7">
         <v>230</v>
       </c>
     </row>
@@ -6180,33 +6197,33 @@
       <c r="B47" s="2">
         <v>9</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D47" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E47" s="3">
-        <v>371</v>
-      </c>
-      <c r="F47" s="4">
-        <v>197</v>
-      </c>
-      <c r="G47" s="5">
+      <c r="D47">
+        <v>1105</v>
+      </c>
+      <c r="E47">
+        <v>371</v>
+      </c>
+      <c r="F47" s="3">
+        <v>197</v>
+      </c>
+      <c r="G47" s="4">
         <v>23</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47">
         <f t="shared" ref="H47" si="22">SUM(I47:K47)</f>
         <v>2221</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="5">
         <v>1733</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="6">
         <v>258</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K47" s="7">
         <v>230</v>
       </c>
     </row>
@@ -6217,33 +6234,33 @@
       <c r="B48" s="2">
         <v>9</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D48" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E48" s="3">
-        <v>371</v>
-      </c>
-      <c r="F48" s="4">
-        <v>197</v>
-      </c>
-      <c r="G48" s="5">
+      <c r="D48">
+        <v>1105</v>
+      </c>
+      <c r="E48">
+        <v>371</v>
+      </c>
+      <c r="F48" s="3">
+        <v>197</v>
+      </c>
+      <c r="G48" s="4">
         <v>25</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48">
         <f t="shared" ref="H48" si="23">SUM(I48:K48)</f>
         <v>2293</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="5">
         <v>1759</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="6">
         <v>281</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48" s="7">
         <v>253</v>
       </c>
     </row>
@@ -6254,33 +6271,33 @@
       <c r="B49" s="2">
         <v>9</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D49" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E49" s="3">
-        <v>371</v>
-      </c>
-      <c r="F49" s="4">
-        <v>197</v>
-      </c>
-      <c r="G49" s="5">
+      <c r="D49">
+        <v>1105</v>
+      </c>
+      <c r="E49">
+        <v>371</v>
+      </c>
+      <c r="F49" s="3">
+        <v>197</v>
+      </c>
+      <c r="G49" s="4">
         <v>25</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49">
         <f t="shared" ref="H49" si="24">SUM(I49:K49)</f>
         <v>2320</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="5">
         <v>1787</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="6">
         <v>279</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K49" s="7">
         <v>254</v>
       </c>
     </row>
@@ -6291,33 +6308,33 @@
       <c r="B50" s="2">
         <v>9</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D50" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E50" s="3">
-        <v>371</v>
-      </c>
-      <c r="F50" s="4">
-        <v>197</v>
-      </c>
-      <c r="G50" s="5">
+      <c r="D50">
+        <v>1105</v>
+      </c>
+      <c r="E50">
+        <v>371</v>
+      </c>
+      <c r="F50" s="3">
+        <v>197</v>
+      </c>
+      <c r="G50" s="4">
         <v>27</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50">
         <f t="shared" ref="H50" si="25">SUM(I50:K50)</f>
         <v>2449</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50" s="5">
         <v>1875</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="6">
         <v>307</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K50" s="7">
         <v>267</v>
       </c>
     </row>
@@ -6328,33 +6345,33 @@
       <c r="B51" s="2">
         <v>9</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D51" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E51" s="3">
-        <v>371</v>
-      </c>
-      <c r="F51" s="4">
-        <v>197</v>
-      </c>
-      <c r="G51" s="5">
+      <c r="D51">
+        <v>1105</v>
+      </c>
+      <c r="E51">
+        <v>371</v>
+      </c>
+      <c r="F51" s="3">
+        <v>197</v>
+      </c>
+      <c r="G51" s="4">
         <v>27</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51">
         <f t="shared" ref="H51" si="26">SUM(I51:K51)</f>
         <v>2518</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="5">
         <v>1934</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="6">
         <v>309</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51" s="7">
         <v>275</v>
       </c>
     </row>
@@ -6365,33 +6382,33 @@
       <c r="B52" s="2">
         <v>9</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D52" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E52" s="3">
-        <v>371</v>
-      </c>
-      <c r="F52" s="4">
-        <v>197</v>
-      </c>
-      <c r="G52" s="5">
+      <c r="D52">
+        <v>1105</v>
+      </c>
+      <c r="E52">
+        <v>371</v>
+      </c>
+      <c r="F52" s="3">
+        <v>197</v>
+      </c>
+      <c r="G52" s="4">
         <v>29</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52">
         <f t="shared" ref="H52" si="27">SUM(I52:K52)</f>
         <v>2567</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="5">
         <v>1975</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="6">
         <v>314</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K52" s="7">
         <v>278</v>
       </c>
     </row>
@@ -6402,33 +6419,33 @@
       <c r="B53" s="2">
         <v>9</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53">
         <f t="shared" si="1"/>
         <v>1673</v>
       </c>
-      <c r="D53" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E53" s="3">
-        <v>371</v>
-      </c>
-      <c r="F53" s="4">
-        <v>197</v>
-      </c>
-      <c r="G53" s="5">
+      <c r="D53">
+        <v>1105</v>
+      </c>
+      <c r="E53">
+        <v>371</v>
+      </c>
+      <c r="F53" s="3">
+        <v>197</v>
+      </c>
+      <c r="G53" s="4">
         <v>30</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53">
         <f t="shared" ref="H53" si="28">SUM(I53:K53)</f>
         <v>2927</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="5">
         <v>2239</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="6">
         <v>385</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K53" s="7">
         <v>303</v>
       </c>
     </row>
@@ -6439,33 +6456,33 @@
       <c r="B54" s="2">
         <v>9</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54">
         <f t="shared" ref="C54" si="29">SUM(D54:F54)</f>
         <v>1673</v>
       </c>
-      <c r="D54" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E54" s="3">
-        <v>371</v>
-      </c>
-      <c r="F54" s="4">
-        <v>197</v>
-      </c>
-      <c r="G54" s="5">
+      <c r="D54">
+        <v>1105</v>
+      </c>
+      <c r="E54">
+        <v>371</v>
+      </c>
+      <c r="F54" s="3">
+        <v>197</v>
+      </c>
+      <c r="G54" s="4">
         <v>29</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54">
         <f t="shared" ref="H54" si="30">SUM(I54:K54)</f>
         <v>2915</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="5">
         <v>2242</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="6">
         <v>359</v>
       </c>
-      <c r="K54" s="8">
+      <c r="K54" s="7">
         <v>314</v>
       </c>
     </row>
@@ -6476,33 +6493,33 @@
       <c r="B55" s="2">
         <v>9</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55">
         <f t="shared" ref="C55" si="31">SUM(D55:F55)</f>
         <v>1673</v>
       </c>
-      <c r="D55" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E55" s="3">
-        <v>371</v>
-      </c>
-      <c r="F55" s="4">
-        <v>197</v>
-      </c>
-      <c r="G55" s="5">
+      <c r="D55">
+        <v>1105</v>
+      </c>
+      <c r="E55">
+        <v>371</v>
+      </c>
+      <c r="F55" s="3">
+        <v>197</v>
+      </c>
+      <c r="G55" s="4">
         <v>29</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55">
         <f t="shared" ref="H55" si="32">SUM(I55:K55)</f>
         <v>2917</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55" s="5">
         <v>2203</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="6">
         <v>409</v>
       </c>
-      <c r="K55" s="8">
+      <c r="K55" s="7">
         <v>305</v>
       </c>
     </row>
@@ -6513,33 +6530,33 @@
       <c r="B56" s="2">
         <v>9</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56">
         <f t="shared" ref="C56" si="33">SUM(D56:F56)</f>
         <v>1673</v>
       </c>
-      <c r="D56" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E56" s="3">
-        <v>371</v>
-      </c>
-      <c r="F56" s="4">
-        <v>197</v>
-      </c>
-      <c r="G56" s="5">
+      <c r="D56">
+        <v>1105</v>
+      </c>
+      <c r="E56">
+        <v>371</v>
+      </c>
+      <c r="F56" s="3">
+        <v>197</v>
+      </c>
+      <c r="G56" s="4">
         <v>29</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56">
         <f t="shared" ref="H56" si="34">SUM(I56:K56)</f>
         <v>2862</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I56" s="5">
         <v>2203</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="6">
         <v>357</v>
       </c>
-      <c r="K56" s="8">
+      <c r="K56" s="7">
         <v>302</v>
       </c>
     </row>
@@ -6550,33 +6567,33 @@
       <c r="B57" s="2">
         <v>9</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57">
         <f t="shared" ref="C57" si="35">SUM(D57:F57)</f>
         <v>1673</v>
       </c>
-      <c r="D57" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E57" s="3">
-        <v>371</v>
-      </c>
-      <c r="F57" s="4">
-        <v>197</v>
-      </c>
-      <c r="G57" s="5">
+      <c r="D57">
+        <v>1105</v>
+      </c>
+      <c r="E57">
+        <v>371</v>
+      </c>
+      <c r="F57" s="3">
+        <v>197</v>
+      </c>
+      <c r="G57" s="4">
         <v>29</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57">
         <f t="shared" ref="H57" si="36">SUM(I57:K57)</f>
         <v>2949</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57" s="5">
         <v>2285</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="6">
         <v>356</v>
       </c>
-      <c r="K57" s="8">
+      <c r="K57" s="7">
         <v>308</v>
       </c>
     </row>
@@ -6587,33 +6604,33 @@
       <c r="B58" s="2">
         <v>9</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58">
         <f t="shared" ref="C58" si="37">SUM(D58:F58)</f>
         <v>1673</v>
       </c>
-      <c r="D58" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E58" s="3">
-        <v>371</v>
-      </c>
-      <c r="F58" s="4">
-        <v>197</v>
-      </c>
-      <c r="G58" s="5">
+      <c r="D58">
+        <v>1105</v>
+      </c>
+      <c r="E58">
+        <v>371</v>
+      </c>
+      <c r="F58" s="3">
+        <v>197</v>
+      </c>
+      <c r="G58" s="4">
         <v>29</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58">
         <f t="shared" ref="H58" si="38">SUM(I58:K58)</f>
         <v>2976</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="5">
         <v>2319</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="6">
         <v>354</v>
       </c>
-      <c r="K58" s="8">
+      <c r="K58" s="7">
         <v>303</v>
       </c>
     </row>
@@ -6624,33 +6641,33 @@
       <c r="B59" s="2">
         <v>9</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59">
         <f t="shared" ref="C59" si="39">SUM(D59:F59)</f>
         <v>1673</v>
       </c>
-      <c r="D59" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E59" s="3">
-        <v>371</v>
-      </c>
-      <c r="F59" s="4">
-        <v>197</v>
-      </c>
-      <c r="G59" s="5">
+      <c r="D59">
+        <v>1105</v>
+      </c>
+      <c r="E59">
+        <v>371</v>
+      </c>
+      <c r="F59" s="3">
+        <v>197</v>
+      </c>
+      <c r="G59" s="4">
         <v>29</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59">
         <f t="shared" ref="H59" si="40">SUM(I59:K59)</f>
         <v>3025</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="5">
         <v>2360</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="6">
         <v>361</v>
       </c>
-      <c r="K59" s="8">
+      <c r="K59" s="7">
         <v>304</v>
       </c>
     </row>
@@ -6661,33 +6678,33 @@
       <c r="B60" s="2">
         <v>9</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60">
         <f t="shared" ref="C60" si="41">SUM(D60:F60)</f>
         <v>1673</v>
       </c>
-      <c r="D60" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E60" s="3">
-        <v>371</v>
-      </c>
-      <c r="F60" s="4">
-        <v>197</v>
-      </c>
-      <c r="G60" s="5">
+      <c r="D60">
+        <v>1105</v>
+      </c>
+      <c r="E60">
+        <v>371</v>
+      </c>
+      <c r="F60" s="3">
+        <v>197</v>
+      </c>
+      <c r="G60" s="4">
         <v>29</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60">
         <f t="shared" ref="H60" si="42">SUM(I60:K60)</f>
         <v>3025</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60" s="5">
         <v>2360</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="6">
         <v>361</v>
       </c>
-      <c r="K60" s="8">
+      <c r="K60" s="7">
         <v>304</v>
       </c>
     </row>
@@ -6698,33 +6715,33 @@
       <c r="B61" s="2">
         <v>9</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61">
         <f t="shared" ref="C61" si="43">SUM(D61:F61)</f>
         <v>1673</v>
       </c>
-      <c r="D61" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E61" s="3">
-        <v>371</v>
-      </c>
-      <c r="F61" s="4">
-        <v>197</v>
-      </c>
-      <c r="G61" s="5">
+      <c r="D61">
+        <v>1105</v>
+      </c>
+      <c r="E61">
+        <v>371</v>
+      </c>
+      <c r="F61" s="3">
+        <v>197</v>
+      </c>
+      <c r="G61" s="4">
         <v>29</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61">
         <f t="shared" ref="H61" si="44">SUM(I61:K61)</f>
         <v>3027</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="5">
         <v>2362</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="6">
         <v>361</v>
       </c>
-      <c r="K61" s="8">
+      <c r="K61" s="7">
         <v>304</v>
       </c>
     </row>
@@ -6735,33 +6752,33 @@
       <c r="B62" s="2">
         <v>9</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62">
         <f t="shared" ref="C62" si="45">SUM(D62:F62)</f>
         <v>1673</v>
       </c>
-      <c r="D62" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E62" s="3">
-        <v>371</v>
-      </c>
-      <c r="F62" s="4">
-        <v>197</v>
-      </c>
-      <c r="G62" s="5">
+      <c r="D62">
+        <v>1105</v>
+      </c>
+      <c r="E62">
+        <v>371</v>
+      </c>
+      <c r="F62" s="3">
+        <v>197</v>
+      </c>
+      <c r="G62" s="4">
         <v>29</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62">
         <f t="shared" ref="H62" si="46">SUM(I62:K62)</f>
         <v>3029</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62" s="5">
         <v>2364</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="6">
         <v>361</v>
       </c>
-      <c r="K62" s="8">
+      <c r="K62" s="7">
         <v>304</v>
       </c>
     </row>
@@ -6772,33 +6789,33 @@
       <c r="B63" s="2">
         <v>9</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63">
         <f t="shared" ref="C63" si="47">SUM(D63:F63)</f>
         <v>1673</v>
       </c>
-      <c r="D63" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E63" s="3">
-        <v>371</v>
-      </c>
-      <c r="F63" s="4">
-        <v>197</v>
-      </c>
-      <c r="G63" s="5">
+      <c r="D63">
+        <v>1105</v>
+      </c>
+      <c r="E63">
+        <v>371</v>
+      </c>
+      <c r="F63" s="3">
+        <v>197</v>
+      </c>
+      <c r="G63" s="4">
         <v>27</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63">
         <f t="shared" ref="H63" si="48">SUM(I63:K63)</f>
         <v>2686</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="5">
         <v>2071</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="6">
         <v>339</v>
       </c>
-      <c r="K63" s="8">
+      <c r="K63" s="7">
         <v>276</v>
       </c>
     </row>
@@ -6809,33 +6826,33 @@
       <c r="B64" s="2">
         <v>9</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64">
         <f t="shared" ref="C64" si="49">SUM(D64:F64)</f>
         <v>1673</v>
       </c>
-      <c r="D64" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E64" s="3">
-        <v>371</v>
-      </c>
-      <c r="F64" s="4">
-        <v>197</v>
-      </c>
-      <c r="G64" s="5">
+      <c r="D64">
+        <v>1105</v>
+      </c>
+      <c r="E64">
+        <v>371</v>
+      </c>
+      <c r="F64" s="3">
+        <v>197</v>
+      </c>
+      <c r="G64" s="4">
         <v>30</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64">
         <f t="shared" ref="H64" si="50">SUM(I64:K64)</f>
         <v>3024</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64" s="5">
         <v>2306</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="6">
         <v>406</v>
       </c>
-      <c r="K64" s="8">
+      <c r="K64" s="7">
         <v>312</v>
       </c>
     </row>
@@ -6846,33 +6863,33 @@
       <c r="B65" s="2">
         <v>9</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65">
         <f t="shared" ref="C65" si="51">SUM(D65:F65)</f>
         <v>1673</v>
       </c>
-      <c r="D65" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E65" s="3">
-        <v>371</v>
-      </c>
-      <c r="F65" s="4">
-        <v>197</v>
-      </c>
-      <c r="G65" s="5">
+      <c r="D65">
+        <v>1105</v>
+      </c>
+      <c r="E65">
+        <v>371</v>
+      </c>
+      <c r="F65" s="3">
+        <v>197</v>
+      </c>
+      <c r="G65" s="4">
         <v>30</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65">
         <f t="shared" ref="H65" si="52">SUM(I65:K65)</f>
         <v>3031</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65" s="5">
         <v>2313</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="6">
         <v>406</v>
       </c>
-      <c r="K65" s="8">
+      <c r="K65" s="7">
         <v>312</v>
       </c>
     </row>
@@ -6883,33 +6900,33 @@
       <c r="B66" s="2">
         <v>9</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66">
         <f t="shared" ref="C66" si="53">SUM(D66:F66)</f>
         <v>1673</v>
       </c>
-      <c r="D66" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E66" s="3">
-        <v>371</v>
-      </c>
-      <c r="F66" s="4">
-        <v>197</v>
-      </c>
-      <c r="G66" s="5">
+      <c r="D66">
+        <v>1105</v>
+      </c>
+      <c r="E66">
+        <v>371</v>
+      </c>
+      <c r="F66" s="3">
+        <v>197</v>
+      </c>
+      <c r="G66" s="4">
         <v>30</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66">
         <f t="shared" ref="H66" si="54">SUM(I66:K66)</f>
         <v>3033</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I66" s="5">
         <v>2324</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="6">
         <v>396</v>
       </c>
-      <c r="K66" s="8">
+      <c r="K66" s="7">
         <v>313</v>
       </c>
     </row>
@@ -6920,33 +6937,33 @@
       <c r="B67" s="2">
         <v>9</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67">
         <f t="shared" ref="C67" si="55">SUM(D67:F67)</f>
         <v>1673</v>
       </c>
-      <c r="D67" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E67" s="3">
-        <v>371</v>
-      </c>
-      <c r="F67" s="4">
-        <v>197</v>
-      </c>
-      <c r="G67" s="5">
+      <c r="D67">
+        <v>1105</v>
+      </c>
+      <c r="E67">
+        <v>371</v>
+      </c>
+      <c r="F67" s="3">
+        <v>197</v>
+      </c>
+      <c r="G67" s="4">
         <v>30</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67">
         <f t="shared" ref="H67" si="56">SUM(I67:K67)</f>
         <v>3053</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I67" s="5">
         <v>2347</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="6">
         <v>392</v>
       </c>
-      <c r="K67" s="8">
+      <c r="K67" s="7">
         <v>314</v>
       </c>
     </row>
@@ -6957,33 +6974,33 @@
       <c r="B68" s="2">
         <v>9</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68">
         <f t="shared" ref="C68" si="57">SUM(D68:F68)</f>
         <v>1673</v>
       </c>
-      <c r="D68" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E68" s="3">
-        <v>371</v>
-      </c>
-      <c r="F68" s="4">
-        <v>197</v>
-      </c>
-      <c r="G68" s="5">
+      <c r="D68">
+        <v>1105</v>
+      </c>
+      <c r="E68">
+        <v>371</v>
+      </c>
+      <c r="F68" s="3">
+        <v>197</v>
+      </c>
+      <c r="G68" s="4">
         <v>30</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68">
         <f t="shared" ref="H68" si="58">SUM(I68:K68)</f>
         <v>3057</v>
       </c>
-      <c r="I68" s="6">
+      <c r="I68" s="5">
         <v>2350</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="6">
         <v>392</v>
       </c>
-      <c r="K68" s="8">
+      <c r="K68" s="7">
         <v>315</v>
       </c>
     </row>
@@ -6994,33 +7011,33 @@
       <c r="B69" s="2">
         <v>9</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69">
         <f t="shared" ref="C69" si="59">SUM(D69:F69)</f>
         <v>1673</v>
       </c>
-      <c r="D69" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E69" s="3">
-        <v>371</v>
-      </c>
-      <c r="F69" s="4">
-        <v>197</v>
-      </c>
-      <c r="G69" s="5">
+      <c r="D69">
+        <v>1105</v>
+      </c>
+      <c r="E69">
+        <v>371</v>
+      </c>
+      <c r="F69" s="3">
+        <v>197</v>
+      </c>
+      <c r="G69" s="4">
         <v>31</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69">
         <f t="shared" ref="H69:H70" si="60">SUM(I69:K69)</f>
         <v>3090</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I69" s="5">
         <v>2380</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="6">
         <v>391</v>
       </c>
-      <c r="K69" s="8">
+      <c r="K69" s="7">
         <v>319</v>
       </c>
     </row>
@@ -7031,33 +7048,33 @@
       <c r="B70" s="2">
         <v>9</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70">
         <f t="shared" ref="C70" si="61">SUM(D70:F70)</f>
         <v>1673</v>
       </c>
-      <c r="D70" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E70" s="3">
-        <v>371</v>
-      </c>
-      <c r="F70" s="4">
-        <v>197</v>
-      </c>
-      <c r="G70" s="5">
+      <c r="D70">
+        <v>1105</v>
+      </c>
+      <c r="E70">
+        <v>371</v>
+      </c>
+      <c r="F70" s="3">
+        <v>197</v>
+      </c>
+      <c r="G70" s="4">
         <v>31</v>
       </c>
-      <c r="H70" s="18">
+      <c r="H70">
         <f t="shared" si="60"/>
         <v>3109</v>
       </c>
-      <c r="I70" s="6">
+      <c r="I70" s="5">
         <v>2394</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J70" s="6">
         <v>393</v>
       </c>
-      <c r="K70" s="8">
+      <c r="K70" s="7">
         <v>322</v>
       </c>
     </row>
@@ -7068,33 +7085,33 @@
       <c r="B71" s="2">
         <v>9</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71">
         <f t="shared" ref="C71" si="62">SUM(D71:F71)</f>
         <v>1673</v>
       </c>
-      <c r="D71" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E71" s="3">
-        <v>371</v>
-      </c>
-      <c r="F71" s="4">
-        <v>197</v>
-      </c>
-      <c r="G71" s="5">
+      <c r="D71">
+        <v>1105</v>
+      </c>
+      <c r="E71">
+        <v>371</v>
+      </c>
+      <c r="F71" s="3">
+        <v>197</v>
+      </c>
+      <c r="G71" s="4">
         <v>31</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H71">
         <f t="shared" ref="H71" si="63">SUM(I71:K71)</f>
         <v>3126</v>
       </c>
-      <c r="I71" s="6">
+      <c r="I71" s="5">
         <v>2404</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="6">
         <v>396</v>
       </c>
-      <c r="K71" s="8">
+      <c r="K71" s="7">
         <v>326</v>
       </c>
     </row>
@@ -7105,33 +7122,33 @@
       <c r="B72" s="2">
         <v>9</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72">
         <f t="shared" ref="C72" si="64">SUM(D72:F72)</f>
         <v>1673</v>
       </c>
-      <c r="D72" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E72" s="3">
-        <v>371</v>
-      </c>
-      <c r="F72" s="4">
-        <v>197</v>
-      </c>
-      <c r="G72" s="5">
+      <c r="D72">
+        <v>1105</v>
+      </c>
+      <c r="E72">
+        <v>371</v>
+      </c>
+      <c r="F72" s="3">
+        <v>197</v>
+      </c>
+      <c r="G72" s="4">
         <v>33</v>
       </c>
-      <c r="H72" s="18">
+      <c r="H72">
         <f t="shared" ref="H72" si="65">SUM(I72:K72)</f>
         <v>3277</v>
       </c>
-      <c r="I72" s="6">
+      <c r="I72" s="5">
         <v>2518</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J72" s="6">
         <v>419</v>
       </c>
-      <c r="K72" s="8">
+      <c r="K72" s="7">
         <v>340</v>
       </c>
     </row>
@@ -7142,33 +7159,33 @@
       <c r="B73" s="2">
         <v>9</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73">
         <f t="shared" ref="C73" si="66">SUM(D73:F73)</f>
         <v>1673</v>
       </c>
-      <c r="D73" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E73" s="3">
-        <v>371</v>
-      </c>
-      <c r="F73" s="4">
-        <v>197</v>
-      </c>
-      <c r="G73" s="5">
+      <c r="D73">
+        <v>1105</v>
+      </c>
+      <c r="E73">
+        <v>371</v>
+      </c>
+      <c r="F73" s="3">
+        <v>197</v>
+      </c>
+      <c r="G73" s="4">
         <v>33</v>
       </c>
-      <c r="H73" s="18">
+      <c r="H73">
         <f t="shared" ref="H73" si="67">SUM(I73:K73)</f>
         <v>3287</v>
       </c>
-      <c r="I73" s="6">
+      <c r="I73" s="5">
         <v>2533</v>
       </c>
-      <c r="J73" s="7">
+      <c r="J73" s="6">
         <v>413</v>
       </c>
-      <c r="K73" s="8">
+      <c r="K73" s="7">
         <v>341</v>
       </c>
     </row>
@@ -7179,33 +7196,33 @@
       <c r="B74" s="2">
         <v>9</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74">
         <f t="shared" ref="C74" si="68">SUM(D74:F74)</f>
         <v>1673</v>
       </c>
-      <c r="D74" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E74" s="3">
-        <v>371</v>
-      </c>
-      <c r="F74" s="4">
-        <v>197</v>
-      </c>
-      <c r="G74" s="5">
+      <c r="D74">
+        <v>1105</v>
+      </c>
+      <c r="E74">
+        <v>371</v>
+      </c>
+      <c r="F74" s="3">
+        <v>197</v>
+      </c>
+      <c r="G74" s="4">
         <v>33</v>
       </c>
-      <c r="H74" s="18">
+      <c r="H74">
         <f t="shared" ref="H74" si="69">SUM(I74:K74)</f>
         <v>3284</v>
       </c>
-      <c r="I74" s="6">
+      <c r="I74" s="5">
         <v>2536</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J74" s="6">
         <v>410</v>
       </c>
-      <c r="K74" s="8">
+      <c r="K74" s="7">
         <v>338</v>
       </c>
     </row>
@@ -7216,33 +7233,33 @@
       <c r="B75" s="2">
         <v>9</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75">
         <f t="shared" ref="C75" si="70">SUM(D75:F75)</f>
         <v>1673</v>
       </c>
-      <c r="D75" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E75" s="3">
-        <v>371</v>
-      </c>
-      <c r="F75" s="4">
-        <v>197</v>
-      </c>
-      <c r="G75" s="5">
+      <c r="D75">
+        <v>1105</v>
+      </c>
+      <c r="E75">
+        <v>371</v>
+      </c>
+      <c r="F75" s="3">
+        <v>197</v>
+      </c>
+      <c r="G75" s="4">
         <v>33</v>
       </c>
-      <c r="H75" s="18">
+      <c r="H75">
         <f t="shared" ref="H75" si="71">SUM(I75:K75)</f>
         <v>3331</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I75" s="5">
         <v>2580</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J75" s="6">
         <v>410</v>
       </c>
-      <c r="K75" s="8">
+      <c r="K75" s="7">
         <v>341</v>
       </c>
     </row>
@@ -7253,33 +7270,33 @@
       <c r="B76" s="2">
         <v>9</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76">
         <f t="shared" ref="C76" si="72">SUM(D76:F76)</f>
         <v>1673</v>
       </c>
-      <c r="D76" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E76" s="3">
-        <v>371</v>
-      </c>
-      <c r="F76" s="4">
-        <v>197</v>
-      </c>
-      <c r="G76" s="5">
+      <c r="D76">
+        <v>1105</v>
+      </c>
+      <c r="E76">
+        <v>371</v>
+      </c>
+      <c r="F76" s="3">
+        <v>197</v>
+      </c>
+      <c r="G76" s="4">
         <v>33</v>
       </c>
-      <c r="H76" s="18">
+      <c r="H76">
         <f t="shared" ref="H76" si="73">SUM(I76:K76)</f>
         <v>3333</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I76" s="5">
         <v>2582</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J76" s="6">
         <v>410</v>
       </c>
-      <c r="K76" s="8">
+      <c r="K76" s="7">
         <v>341</v>
       </c>
     </row>
@@ -7290,33 +7307,33 @@
       <c r="B77" s="2">
         <v>9</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77">
         <f t="shared" ref="C77" si="74">SUM(D77:F77)</f>
         <v>1673</v>
       </c>
-      <c r="D77" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E77" s="3">
-        <v>371</v>
-      </c>
-      <c r="F77" s="4">
-        <v>197</v>
-      </c>
-      <c r="G77" s="5">
+      <c r="D77">
+        <v>1105</v>
+      </c>
+      <c r="E77">
+        <v>371</v>
+      </c>
+      <c r="F77" s="3">
+        <v>197</v>
+      </c>
+      <c r="G77" s="4">
         <v>35</v>
       </c>
-      <c r="H77" s="18">
+      <c r="H77">
         <f t="shared" ref="H77" si="75">SUM(I77:K77)</f>
         <v>3450</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I77" s="5">
         <v>2677</v>
       </c>
-      <c r="J77" s="7">
+      <c r="J77" s="6">
         <v>423</v>
       </c>
-      <c r="K77" s="8">
+      <c r="K77" s="7">
         <v>350</v>
       </c>
     </row>
@@ -7327,33 +7344,33 @@
       <c r="B78" s="2">
         <v>9</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78">
         <f t="shared" ref="C78" si="76">SUM(D78:F78)</f>
         <v>1673</v>
       </c>
-      <c r="D78" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E78" s="3">
-        <v>371</v>
-      </c>
-      <c r="F78" s="4">
-        <v>197</v>
-      </c>
-      <c r="G78" s="5">
+      <c r="D78">
+        <v>1105</v>
+      </c>
+      <c r="E78">
+        <v>371</v>
+      </c>
+      <c r="F78" s="3">
+        <v>197</v>
+      </c>
+      <c r="G78" s="4">
         <v>35</v>
       </c>
-      <c r="H78" s="18">
+      <c r="H78">
         <f t="shared" ref="H78" si="77">SUM(I78:K78)</f>
         <v>3465</v>
       </c>
-      <c r="I78" s="6">
+      <c r="I78" s="5">
         <v>2692</v>
       </c>
-      <c r="J78" s="7">
+      <c r="J78" s="6">
         <v>423</v>
       </c>
-      <c r="K78" s="8">
+      <c r="K78" s="7">
         <v>350</v>
       </c>
     </row>
@@ -7364,33 +7381,33 @@
       <c r="B79" s="2">
         <v>9</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79">
         <f t="shared" ref="C79" si="78">SUM(D79:F79)</f>
         <v>1673</v>
       </c>
-      <c r="D79" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E79" s="3">
-        <v>371</v>
-      </c>
-      <c r="F79" s="4">
-        <v>197</v>
-      </c>
-      <c r="G79" s="5">
+      <c r="D79">
+        <v>1105</v>
+      </c>
+      <c r="E79">
+        <v>371</v>
+      </c>
+      <c r="F79" s="3">
+        <v>197</v>
+      </c>
+      <c r="G79" s="4">
         <v>36</v>
       </c>
-      <c r="H79" s="18">
+      <c r="H79">
         <f t="shared" ref="H79" si="79">SUM(I79:K79)</f>
         <v>3489</v>
       </c>
-      <c r="I79" s="6">
+      <c r="I79" s="5">
         <v>2707</v>
       </c>
-      <c r="J79" s="7">
+      <c r="J79" s="6">
         <v>429</v>
       </c>
-      <c r="K79" s="8">
+      <c r="K79" s="7">
         <v>353</v>
       </c>
     </row>
@@ -7401,33 +7418,33 @@
       <c r="B80" s="2">
         <v>9</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80">
         <f t="shared" ref="C80" si="80">SUM(D80:F80)</f>
         <v>1673</v>
       </c>
-      <c r="D80" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E80" s="3">
-        <v>371</v>
-      </c>
-      <c r="F80" s="4">
-        <v>197</v>
-      </c>
-      <c r="G80" s="5">
+      <c r="D80">
+        <v>1105</v>
+      </c>
+      <c r="E80">
+        <v>371</v>
+      </c>
+      <c r="F80" s="3">
+        <v>197</v>
+      </c>
+      <c r="G80" s="4">
         <v>36</v>
       </c>
-      <c r="H80" s="18">
+      <c r="H80">
         <f t="shared" ref="H80" si="81">SUM(I80:K80)</f>
         <v>3496</v>
       </c>
-      <c r="I80" s="6">
+      <c r="I80" s="5">
         <v>2715</v>
       </c>
-      <c r="J80" s="7">
+      <c r="J80" s="6">
         <v>426</v>
       </c>
-      <c r="K80" s="8">
+      <c r="K80" s="7">
         <v>355</v>
       </c>
     </row>
@@ -7438,33 +7455,33 @@
       <c r="B81" s="2">
         <v>9</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81">
         <f t="shared" ref="C81" si="82">SUM(D81:F81)</f>
         <v>1673</v>
       </c>
-      <c r="D81" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E81" s="3">
-        <v>371</v>
-      </c>
-      <c r="F81" s="4">
-        <v>197</v>
-      </c>
-      <c r="G81" s="5">
+      <c r="D81">
+        <v>1105</v>
+      </c>
+      <c r="E81">
+        <v>371</v>
+      </c>
+      <c r="F81" s="3">
+        <v>197</v>
+      </c>
+      <c r="G81" s="4">
         <v>33</v>
       </c>
-      <c r="H81" s="18">
+      <c r="H81">
         <f t="shared" ref="H81" si="83">SUM(I81:K81)</f>
         <v>3526</v>
       </c>
-      <c r="I81" s="6">
+      <c r="I81" s="5">
         <v>2730</v>
       </c>
-      <c r="J81" s="7">
+      <c r="J81" s="6">
         <v>439</v>
       </c>
-      <c r="K81" s="8">
+      <c r="K81" s="7">
         <v>357</v>
       </c>
     </row>
@@ -7475,33 +7492,33 @@
       <c r="B82" s="2">
         <v>9</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82">
         <f t="shared" ref="C82" si="84">SUM(D82:F82)</f>
         <v>1673</v>
       </c>
-      <c r="D82" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E82" s="3">
-        <v>371</v>
-      </c>
-      <c r="F82" s="4">
-        <v>197</v>
-      </c>
-      <c r="G82" s="5">
+      <c r="D82">
+        <v>1105</v>
+      </c>
+      <c r="E82">
+        <v>371</v>
+      </c>
+      <c r="F82" s="3">
+        <v>197</v>
+      </c>
+      <c r="G82" s="4">
         <v>33</v>
       </c>
-      <c r="H82" s="18">
+      <c r="H82">
         <f t="shared" ref="H82" si="85">SUM(I82:K82)</f>
         <v>3558</v>
       </c>
-      <c r="I82" s="6">
+      <c r="I82" s="5">
         <v>2762</v>
       </c>
-      <c r="J82" s="7">
+      <c r="J82" s="6">
         <v>439</v>
       </c>
-      <c r="K82" s="8">
+      <c r="K82" s="7">
         <v>357</v>
       </c>
     </row>
@@ -7512,33 +7529,33 @@
       <c r="B83" s="2">
         <v>9</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83">
         <f t="shared" ref="C83" si="86">SUM(D83:F83)</f>
         <v>1673</v>
       </c>
-      <c r="D83" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E83" s="3">
-        <v>371</v>
-      </c>
-      <c r="F83" s="4">
-        <v>197</v>
-      </c>
-      <c r="G83" s="5">
+      <c r="D83">
+        <v>1105</v>
+      </c>
+      <c r="E83">
+        <v>371</v>
+      </c>
+      <c r="F83" s="3">
+        <v>197</v>
+      </c>
+      <c r="G83" s="4">
         <v>36</v>
       </c>
-      <c r="H83" s="18">
+      <c r="H83">
         <f t="shared" ref="H83" si="87">SUM(I83:K83)</f>
         <v>3526</v>
       </c>
-      <c r="I83" s="6">
+      <c r="I83" s="5">
         <v>2730</v>
       </c>
-      <c r="J83" s="7">
+      <c r="J83" s="6">
         <v>439</v>
       </c>
-      <c r="K83" s="8">
+      <c r="K83" s="7">
         <v>357</v>
       </c>
     </row>
@@ -7549,33 +7566,33 @@
       <c r="B84" s="2">
         <v>9</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84">
         <f t="shared" ref="C84" si="88">SUM(D84:F84)</f>
         <v>1673</v>
       </c>
-      <c r="D84" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E84" s="3">
-        <v>371</v>
-      </c>
-      <c r="F84" s="4">
-        <v>197</v>
-      </c>
-      <c r="G84" s="5">
+      <c r="D84">
+        <v>1105</v>
+      </c>
+      <c r="E84">
+        <v>371</v>
+      </c>
+      <c r="F84" s="3">
+        <v>197</v>
+      </c>
+      <c r="G84" s="4">
         <v>37</v>
       </c>
-      <c r="H84" s="18">
+      <c r="H84">
         <f t="shared" ref="H84" si="89">SUM(I84:K84)</f>
         <v>3891</v>
       </c>
-      <c r="I84" s="6">
+      <c r="I84" s="5">
         <v>3084</v>
       </c>
-      <c r="J84" s="7">
+      <c r="J84" s="6">
         <v>445</v>
       </c>
-      <c r="K84" s="8">
+      <c r="K84" s="7">
         <v>362</v>
       </c>
     </row>
@@ -7586,33 +7603,33 @@
       <c r="B85" s="2">
         <v>9</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85">
         <f t="shared" ref="C85" si="90">SUM(D85:F85)</f>
         <v>1673</v>
       </c>
-      <c r="D85" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E85" s="3">
-        <v>371</v>
-      </c>
-      <c r="F85" s="4">
-        <v>197</v>
-      </c>
-      <c r="G85" s="5">
+      <c r="D85">
+        <v>1105</v>
+      </c>
+      <c r="E85">
+        <v>371</v>
+      </c>
+      <c r="F85" s="3">
+        <v>197</v>
+      </c>
+      <c r="G85" s="4">
         <v>37</v>
       </c>
-      <c r="H85" s="18">
+      <c r="H85">
         <f t="shared" ref="H85" si="91">SUM(I85:K85)</f>
         <v>3908</v>
       </c>
-      <c r="I85" s="6">
+      <c r="I85" s="5">
         <v>3101</v>
       </c>
-      <c r="J85" s="7">
+      <c r="J85" s="6">
         <v>445</v>
       </c>
-      <c r="K85" s="8">
+      <c r="K85" s="7">
         <v>362</v>
       </c>
     </row>
@@ -7623,33 +7640,33 @@
       <c r="B86" s="2">
         <v>9</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86">
         <f t="shared" ref="C86" si="92">SUM(D86:F86)</f>
         <v>1673</v>
       </c>
-      <c r="D86" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E86" s="3">
-        <v>371</v>
-      </c>
-      <c r="F86" s="4">
-        <v>197</v>
-      </c>
-      <c r="G86" s="5">
+      <c r="D86">
+        <v>1105</v>
+      </c>
+      <c r="E86">
+        <v>371</v>
+      </c>
+      <c r="F86" s="3">
+        <v>197</v>
+      </c>
+      <c r="G86" s="4">
         <v>36</v>
       </c>
-      <c r="H86" s="18">
+      <c r="H86">
         <f t="shared" ref="H86" si="93">SUM(I86:K86)</f>
         <v>3763</v>
       </c>
-      <c r="I86" s="6">
+      <c r="I86" s="5">
         <v>2961</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J86" s="6">
         <v>439</v>
       </c>
-      <c r="K86" s="8">
+      <c r="K86" s="7">
         <v>363</v>
       </c>
     </row>
@@ -7660,33 +7677,33 @@
       <c r="B87" s="2">
         <v>9</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87">
         <f t="shared" ref="C87" si="94">SUM(D87:F87)</f>
         <v>1673</v>
       </c>
-      <c r="D87" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E87" s="3">
-        <v>371</v>
-      </c>
-      <c r="F87" s="4">
-        <v>197</v>
-      </c>
-      <c r="G87" s="5">
+      <c r="D87">
+        <v>1105</v>
+      </c>
+      <c r="E87">
+        <v>371</v>
+      </c>
+      <c r="F87" s="3">
+        <v>197</v>
+      </c>
+      <c r="G87" s="4">
         <v>36</v>
       </c>
-      <c r="H87" s="18">
+      <c r="H87">
         <f t="shared" ref="H87" si="95">SUM(I87:K87)</f>
         <v>3744</v>
       </c>
-      <c r="I87" s="6">
+      <c r="I87" s="5">
         <v>2941</v>
       </c>
-      <c r="J87" s="7">
+      <c r="J87" s="6">
         <v>439</v>
       </c>
-      <c r="K87" s="8">
+      <c r="K87" s="7">
         <v>364</v>
       </c>
     </row>
@@ -7697,33 +7714,33 @@
       <c r="B88" s="2">
         <v>9</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88">
         <f t="shared" ref="C88" si="96">SUM(D88:F88)</f>
         <v>1673</v>
       </c>
-      <c r="D88" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E88" s="3">
-        <v>371</v>
-      </c>
-      <c r="F88" s="4">
-        <v>197</v>
-      </c>
-      <c r="G88" s="5">
+      <c r="D88">
+        <v>1105</v>
+      </c>
+      <c r="E88">
+        <v>371</v>
+      </c>
+      <c r="F88" s="3">
+        <v>197</v>
+      </c>
+      <c r="G88" s="4">
         <v>36</v>
       </c>
-      <c r="H88" s="18">
+      <c r="H88">
         <f t="shared" ref="H88" si="97">SUM(I88:K88)</f>
         <v>3752</v>
       </c>
-      <c r="I88" s="6">
+      <c r="I88" s="5">
         <v>2952</v>
       </c>
-      <c r="J88" s="7">
+      <c r="J88" s="6">
         <v>439</v>
       </c>
-      <c r="K88" s="8">
+      <c r="K88" s="7">
         <v>361</v>
       </c>
     </row>
@@ -7734,33 +7751,33 @@
       <c r="B89" s="2">
         <v>9</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89">
         <f t="shared" ref="C89" si="98">SUM(D89:F89)</f>
         <v>1673</v>
       </c>
-      <c r="D89" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E89" s="3">
-        <v>371</v>
-      </c>
-      <c r="F89" s="4">
-        <v>197</v>
-      </c>
-      <c r="G89" s="5">
+      <c r="D89">
+        <v>1105</v>
+      </c>
+      <c r="E89">
+        <v>371</v>
+      </c>
+      <c r="F89" s="3">
+        <v>197</v>
+      </c>
+      <c r="G89" s="4">
         <v>36</v>
       </c>
-      <c r="H89" s="18">
+      <c r="H89">
         <f t="shared" ref="H89" si="99">SUM(I89:K89)</f>
         <v>3704</v>
       </c>
-      <c r="I89" s="6">
+      <c r="I89" s="5">
         <v>2937</v>
       </c>
-      <c r="J89" s="7">
+      <c r="J89" s="6">
         <v>400</v>
       </c>
-      <c r="K89" s="8">
+      <c r="K89" s="7">
         <v>367</v>
       </c>
     </row>
@@ -7771,33 +7788,33 @@
       <c r="B90" s="2">
         <v>9</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90">
         <f t="shared" ref="C90" si="100">SUM(D90:F90)</f>
         <v>1673</v>
       </c>
-      <c r="D90" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E90" s="3">
-        <v>371</v>
-      </c>
-      <c r="F90" s="4">
-        <v>197</v>
-      </c>
-      <c r="G90" s="5">
+      <c r="D90">
+        <v>1105</v>
+      </c>
+      <c r="E90">
+        <v>371</v>
+      </c>
+      <c r="F90" s="3">
+        <v>197</v>
+      </c>
+      <c r="G90" s="4">
         <v>36</v>
       </c>
-      <c r="H90" s="18">
+      <c r="H90">
         <f t="shared" ref="H90" si="101">SUM(I90:K90)</f>
         <v>3691</v>
       </c>
-      <c r="I90" s="6">
+      <c r="I90" s="5">
         <v>2927</v>
       </c>
-      <c r="J90" s="7">
+      <c r="J90" s="6">
         <v>399</v>
       </c>
-      <c r="K90" s="8">
+      <c r="K90" s="7">
         <v>365</v>
       </c>
     </row>
@@ -7808,33 +7825,33 @@
       <c r="B91" s="2">
         <v>9</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91">
         <f t="shared" ref="C91" si="102">SUM(D91:F91)</f>
         <v>1673</v>
       </c>
-      <c r="D91" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E91" s="3">
-        <v>371</v>
-      </c>
-      <c r="F91" s="4">
-        <v>197</v>
-      </c>
-      <c r="G91" s="5">
+      <c r="D91">
+        <v>1105</v>
+      </c>
+      <c r="E91">
+        <v>371</v>
+      </c>
+      <c r="F91" s="3">
+        <v>197</v>
+      </c>
+      <c r="G91" s="4">
         <v>36</v>
       </c>
-      <c r="H91" s="18">
+      <c r="H91">
         <f t="shared" ref="H91" si="103">SUM(I91:K91)</f>
         <v>3719</v>
       </c>
-      <c r="I91" s="6">
+      <c r="I91" s="5">
         <v>2955</v>
       </c>
-      <c r="J91" s="7">
+      <c r="J91" s="6">
         <v>399</v>
       </c>
-      <c r="K91" s="8">
+      <c r="K91" s="7">
         <v>365</v>
       </c>
     </row>
@@ -7845,33 +7862,33 @@
       <c r="B92" s="2">
         <v>9</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92">
         <f t="shared" ref="C92" si="104">SUM(D92:F92)</f>
         <v>1673</v>
       </c>
-      <c r="D92" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E92" s="3">
-        <v>371</v>
-      </c>
-      <c r="F92" s="4">
-        <v>197</v>
-      </c>
-      <c r="G92" s="5">
+      <c r="D92">
+        <v>1105</v>
+      </c>
+      <c r="E92">
+        <v>371</v>
+      </c>
+      <c r="F92" s="3">
+        <v>197</v>
+      </c>
+      <c r="G92" s="4">
         <v>36</v>
       </c>
-      <c r="H92" s="18">
+      <c r="H92">
         <f t="shared" ref="H92" si="105">SUM(I92:K92)</f>
         <v>3694</v>
       </c>
-      <c r="I92" s="6">
+      <c r="I92" s="5">
         <v>2931</v>
       </c>
-      <c r="J92" s="7">
+      <c r="J92" s="6">
         <v>399</v>
       </c>
-      <c r="K92" s="8">
+      <c r="K92" s="7">
         <v>364</v>
       </c>
     </row>
@@ -7882,33 +7899,33 @@
       <c r="B93" s="2">
         <v>9</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93">
         <f t="shared" ref="C93" si="106">SUM(D93:F93)</f>
         <v>1673</v>
       </c>
-      <c r="D93" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E93" s="3">
-        <v>371</v>
-      </c>
-      <c r="F93" s="4">
-        <v>197</v>
-      </c>
-      <c r="G93" s="5">
+      <c r="D93">
+        <v>1105</v>
+      </c>
+      <c r="E93">
+        <v>371</v>
+      </c>
+      <c r="F93" s="3">
+        <v>197</v>
+      </c>
+      <c r="G93" s="4">
         <v>36</v>
       </c>
-      <c r="H93" s="18">
+      <c r="H93">
         <f t="shared" ref="H93" si="107">SUM(I93:K93)</f>
         <v>3700</v>
       </c>
-      <c r="I93" s="6">
+      <c r="I93" s="5">
         <v>2932</v>
       </c>
-      <c r="J93" s="7">
+      <c r="J93" s="6">
         <v>403</v>
       </c>
-      <c r="K93" s="8">
+      <c r="K93" s="7">
         <v>365</v>
       </c>
     </row>
@@ -7919,33 +7936,33 @@
       <c r="B94" s="2">
         <v>9</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94">
         <f t="shared" ref="C94" si="108">SUM(D94:F94)</f>
         <v>1673</v>
       </c>
-      <c r="D94" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E94" s="3">
-        <v>371</v>
-      </c>
-      <c r="F94" s="4">
-        <v>197</v>
-      </c>
-      <c r="G94" s="5">
+      <c r="D94">
+        <v>1105</v>
+      </c>
+      <c r="E94">
+        <v>371</v>
+      </c>
+      <c r="F94" s="3">
+        <v>197</v>
+      </c>
+      <c r="G94" s="4">
         <v>36</v>
       </c>
-      <c r="H94" s="18">
+      <c r="H94">
         <f t="shared" ref="H94" si="109">SUM(I94:K94)</f>
         <v>3710</v>
       </c>
-      <c r="I94" s="6">
+      <c r="I94" s="5">
         <v>2940</v>
       </c>
-      <c r="J94" s="7">
+      <c r="J94" s="6">
         <v>403</v>
       </c>
-      <c r="K94" s="8">
+      <c r="K94" s="7">
         <v>367</v>
       </c>
     </row>
@@ -7956,33 +7973,33 @@
       <c r="B95" s="2">
         <v>9</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95">
         <f t="shared" ref="C95" si="110">SUM(D95:F95)</f>
         <v>1673</v>
       </c>
-      <c r="D95" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E95" s="3">
-        <v>371</v>
-      </c>
-      <c r="F95" s="4">
-        <v>197</v>
-      </c>
-      <c r="G95" s="5">
+      <c r="D95">
+        <v>1105</v>
+      </c>
+      <c r="E95">
+        <v>371</v>
+      </c>
+      <c r="F95" s="3">
+        <v>197</v>
+      </c>
+      <c r="G95" s="4">
         <v>36</v>
       </c>
-      <c r="H95" s="18">
+      <c r="H95">
         <f t="shared" ref="H95" si="111">SUM(I95:K95)</f>
         <v>3727</v>
       </c>
-      <c r="I95" s="6">
+      <c r="I95" s="5">
         <v>2952</v>
       </c>
-      <c r="J95" s="7">
+      <c r="J95" s="6">
         <v>407</v>
       </c>
-      <c r="K95" s="8">
+      <c r="K95" s="7">
         <v>368</v>
       </c>
     </row>
@@ -7993,33 +8010,33 @@
       <c r="B96" s="2">
         <v>9</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96">
         <f t="shared" ref="C96" si="112">SUM(D96:F96)</f>
         <v>1673</v>
       </c>
-      <c r="D96" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E96" s="3">
-        <v>371</v>
-      </c>
-      <c r="F96" s="4">
-        <v>197</v>
-      </c>
-      <c r="G96" s="5">
+      <c r="D96">
+        <v>1105</v>
+      </c>
+      <c r="E96">
+        <v>371</v>
+      </c>
+      <c r="F96" s="3">
+        <v>197</v>
+      </c>
+      <c r="G96" s="4">
         <v>36</v>
       </c>
-      <c r="H96" s="18">
+      <c r="H96">
         <f t="shared" ref="H96" si="113">SUM(I96:K96)</f>
         <v>3721</v>
       </c>
-      <c r="I96" s="6">
+      <c r="I96" s="5">
         <v>2949</v>
       </c>
-      <c r="J96" s="7">
+      <c r="J96" s="6">
         <v>404</v>
       </c>
-      <c r="K96" s="8">
+      <c r="K96" s="7">
         <v>368</v>
       </c>
     </row>
@@ -8030,33 +8047,33 @@
       <c r="B97" s="2">
         <v>9</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97">
         <f t="shared" ref="C97" si="114">SUM(D97:F97)</f>
         <v>1673</v>
       </c>
-      <c r="D97" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E97" s="3">
-        <v>371</v>
-      </c>
-      <c r="F97" s="4">
-        <v>197</v>
-      </c>
-      <c r="G97" s="5">
+      <c r="D97">
+        <v>1105</v>
+      </c>
+      <c r="E97">
+        <v>371</v>
+      </c>
+      <c r="F97" s="3">
+        <v>197</v>
+      </c>
+      <c r="G97" s="4">
         <v>36</v>
       </c>
-      <c r="H97" s="18">
+      <c r="H97">
         <f t="shared" ref="H97" si="115">SUM(I97:K97)</f>
         <v>3721</v>
       </c>
-      <c r="I97" s="6">
+      <c r="I97" s="5">
         <v>2949</v>
       </c>
-      <c r="J97" s="7">
+      <c r="J97" s="6">
         <v>404</v>
       </c>
-      <c r="K97" s="8">
+      <c r="K97" s="7">
         <v>368</v>
       </c>
     </row>
@@ -8067,33 +8084,33 @@
       <c r="B98" s="2">
         <v>9</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98">
         <f t="shared" ref="C98" si="116">SUM(D98:F98)</f>
         <v>1673</v>
       </c>
-      <c r="D98" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E98" s="3">
-        <v>371</v>
-      </c>
-      <c r="F98" s="4">
-        <v>197</v>
-      </c>
-      <c r="G98" s="5">
+      <c r="D98">
+        <v>1105</v>
+      </c>
+      <c r="E98">
+        <v>371</v>
+      </c>
+      <c r="F98" s="3">
+        <v>197</v>
+      </c>
+      <c r="G98" s="4">
         <v>37</v>
       </c>
-      <c r="H98" s="18">
+      <c r="H98">
         <f t="shared" ref="H98" si="117">SUM(I98:K98)</f>
         <v>3799</v>
       </c>
-      <c r="I98" s="6">
+      <c r="I98" s="5">
         <v>3014</v>
       </c>
-      <c r="J98" s="7">
+      <c r="J98" s="6">
         <v>411</v>
       </c>
-      <c r="K98" s="8">
+      <c r="K98" s="7">
         <v>374</v>
       </c>
     </row>
@@ -8104,33 +8121,33 @@
       <c r="B99" s="2">
         <v>9</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99">
         <f t="shared" ref="C99" si="118">SUM(D99:F99)</f>
         <v>1673</v>
       </c>
-      <c r="D99" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E99" s="3">
-        <v>371</v>
-      </c>
-      <c r="F99" s="4">
-        <v>197</v>
-      </c>
-      <c r="G99" s="5">
+      <c r="D99">
+        <v>1105</v>
+      </c>
+      <c r="E99">
+        <v>371</v>
+      </c>
+      <c r="F99" s="3">
+        <v>197</v>
+      </c>
+      <c r="G99" s="4">
         <v>36</v>
       </c>
-      <c r="H99" s="18">
+      <c r="H99">
         <f t="shared" ref="H99:H102" si="119">SUM(I99:K99)</f>
         <v>3817</v>
       </c>
-      <c r="I99" s="6">
+      <c r="I99" s="5">
         <v>3023</v>
       </c>
-      <c r="J99" s="7">
+      <c r="J99" s="6">
         <v>417</v>
       </c>
-      <c r="K99" s="8">
+      <c r="K99" s="7">
         <v>377</v>
       </c>
     </row>
@@ -8141,33 +8158,33 @@
       <c r="B100" s="2">
         <v>9</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100">
         <f t="shared" ref="C100" si="120">SUM(D100:F100)</f>
         <v>1673</v>
       </c>
-      <c r="D100" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E100" s="3">
-        <v>371</v>
-      </c>
-      <c r="F100" s="4">
-        <v>197</v>
-      </c>
-      <c r="G100" s="5">
+      <c r="D100">
+        <v>1105</v>
+      </c>
+      <c r="E100">
+        <v>371</v>
+      </c>
+      <c r="F100" s="3">
+        <v>197</v>
+      </c>
+      <c r="G100" s="4">
         <v>39</v>
       </c>
-      <c r="H100" s="18">
+      <c r="H100">
         <f t="shared" si="119"/>
         <v>3886</v>
       </c>
-      <c r="I100" s="6">
+      <c r="I100" s="5">
         <v>3079</v>
       </c>
-      <c r="J100" s="7">
+      <c r="J100" s="6">
         <v>423</v>
       </c>
-      <c r="K100" s="8">
+      <c r="K100" s="7">
         <v>384</v>
       </c>
     </row>
@@ -8178,33 +8195,33 @@
       <c r="B101" s="2">
         <v>9</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101">
         <f t="shared" ref="C101" si="121">SUM(D101:F101)</f>
         <v>1673</v>
       </c>
-      <c r="D101" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E101" s="3">
-        <v>371</v>
-      </c>
-      <c r="F101" s="4">
-        <v>197</v>
-      </c>
-      <c r="G101" s="5">
+      <c r="D101">
+        <v>1105</v>
+      </c>
+      <c r="E101">
+        <v>371</v>
+      </c>
+      <c r="F101" s="3">
+        <v>197</v>
+      </c>
+      <c r="G101" s="4">
         <v>39</v>
       </c>
-      <c r="H101" s="18">
+      <c r="H101">
         <f t="shared" si="119"/>
         <v>3890</v>
       </c>
-      <c r="I101" s="6">
+      <c r="I101" s="5">
         <v>3083</v>
       </c>
-      <c r="J101" s="7">
+      <c r="J101" s="6">
         <v>423</v>
       </c>
-      <c r="K101" s="8">
+      <c r="K101" s="7">
         <v>384</v>
       </c>
     </row>
@@ -8215,33 +8232,33 @@
       <c r="B102" s="2">
         <v>9</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102">
         <f t="shared" ref="C102" si="122">SUM(D102:F102)</f>
         <v>1673</v>
       </c>
-      <c r="D102" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E102" s="3">
-        <v>371</v>
-      </c>
-      <c r="F102" s="4">
-        <v>197</v>
-      </c>
-      <c r="G102" s="5">
+      <c r="D102">
+        <v>1105</v>
+      </c>
+      <c r="E102">
+        <v>371</v>
+      </c>
+      <c r="F102" s="3">
+        <v>197</v>
+      </c>
+      <c r="G102" s="4">
         <v>39</v>
       </c>
-      <c r="H102" s="18">
+      <c r="H102">
         <f t="shared" si="119"/>
         <v>3891</v>
       </c>
-      <c r="I102" s="6">
+      <c r="I102" s="5">
         <v>3084</v>
       </c>
-      <c r="J102" s="7">
+      <c r="J102" s="6">
         <v>423</v>
       </c>
-      <c r="K102" s="8">
+      <c r="K102" s="7">
         <v>384</v>
       </c>
     </row>
@@ -8252,33 +8269,33 @@
       <c r="B103" s="2">
         <v>9</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103">
         <f t="shared" ref="C103" si="123">SUM(D103:F103)</f>
         <v>1673</v>
       </c>
-      <c r="D103" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E103" s="3">
-        <v>371</v>
-      </c>
-      <c r="F103" s="4">
-        <v>197</v>
-      </c>
-      <c r="G103" s="5">
+      <c r="D103">
+        <v>1105</v>
+      </c>
+      <c r="E103">
+        <v>371</v>
+      </c>
+      <c r="F103" s="3">
+        <v>197</v>
+      </c>
+      <c r="G103" s="4">
         <v>39</v>
       </c>
-      <c r="H103" s="18">
+      <c r="H103">
         <f t="shared" ref="H103" si="124">SUM(I103:K103)</f>
         <v>3909</v>
       </c>
-      <c r="I103" s="6">
+      <c r="I103" s="5">
         <v>3104</v>
       </c>
-      <c r="J103" s="7">
+      <c r="J103" s="6">
         <v>423</v>
       </c>
-      <c r="K103" s="8">
+      <c r="K103" s="7">
         <v>382</v>
       </c>
     </row>
@@ -8289,33 +8306,33 @@
       <c r="B104" s="2">
         <v>9</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104">
         <f t="shared" ref="C104" si="125">SUM(D104:F104)</f>
         <v>1673</v>
       </c>
-      <c r="D104" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E104" s="3">
-        <v>371</v>
-      </c>
-      <c r="F104" s="4">
-        <v>197</v>
-      </c>
-      <c r="G104" s="5">
+      <c r="D104">
+        <v>1105</v>
+      </c>
+      <c r="E104">
+        <v>371</v>
+      </c>
+      <c r="F104" s="3">
+        <v>197</v>
+      </c>
+      <c r="G104" s="4">
         <v>39</v>
       </c>
-      <c r="H104" s="18">
+      <c r="H104">
         <f t="shared" ref="H104" si="126">SUM(I104:K104)</f>
         <v>3930</v>
       </c>
-      <c r="I104" s="6">
+      <c r="I104" s="5">
         <v>3123</v>
       </c>
-      <c r="J104" s="7">
+      <c r="J104" s="6">
         <v>422</v>
       </c>
-      <c r="K104" s="8">
+      <c r="K104" s="7">
         <v>385</v>
       </c>
     </row>
@@ -8326,33 +8343,33 @@
       <c r="B105" s="2">
         <v>9</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105">
         <f t="shared" ref="C105" si="127">SUM(D105:F105)</f>
         <v>1673</v>
       </c>
-      <c r="D105" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E105" s="3">
-        <v>371</v>
-      </c>
-      <c r="F105" s="4">
-        <v>197</v>
-      </c>
-      <c r="G105" s="5">
+      <c r="D105">
+        <v>1105</v>
+      </c>
+      <c r="E105">
+        <v>371</v>
+      </c>
+      <c r="F105" s="3">
+        <v>197</v>
+      </c>
+      <c r="G105" s="4">
         <v>39</v>
       </c>
-      <c r="H105" s="18">
+      <c r="H105">
         <f t="shared" ref="H105" si="128">SUM(I105:K105)</f>
         <v>3943</v>
       </c>
-      <c r="I105" s="6">
+      <c r="I105" s="5">
         <v>3135</v>
       </c>
-      <c r="J105" s="7">
+      <c r="J105" s="6">
         <v>422</v>
       </c>
-      <c r="K105" s="8">
+      <c r="K105" s="7">
         <v>386</v>
       </c>
     </row>
@@ -8363,33 +8380,33 @@
       <c r="B106" s="2">
         <v>9</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106">
         <f t="shared" ref="C106" si="129">SUM(D106:F106)</f>
         <v>1673</v>
       </c>
-      <c r="D106" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E106" s="3">
-        <v>371</v>
-      </c>
-      <c r="F106" s="4">
-        <v>197</v>
-      </c>
-      <c r="G106" s="5">
+      <c r="D106">
+        <v>1105</v>
+      </c>
+      <c r="E106">
+        <v>371</v>
+      </c>
+      <c r="F106" s="3">
+        <v>197</v>
+      </c>
+      <c r="G106" s="4">
         <v>39</v>
       </c>
-      <c r="H106" s="18">
+      <c r="H106">
         <f t="shared" ref="H106" si="130">SUM(I106:K106)</f>
         <v>3973</v>
       </c>
-      <c r="I106" s="6">
+      <c r="I106" s="5">
         <v>3163</v>
       </c>
-      <c r="J106" s="7">
+      <c r="J106" s="6">
         <v>423</v>
       </c>
-      <c r="K106" s="8">
+      <c r="K106" s="7">
         <v>387</v>
       </c>
     </row>
@@ -8400,33 +8417,33 @@
       <c r="B107" s="2">
         <v>9</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107">
         <f t="shared" ref="C107" si="131">SUM(D107:F107)</f>
         <v>1673</v>
       </c>
-      <c r="D107" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E107" s="3">
-        <v>371</v>
-      </c>
-      <c r="F107" s="4">
-        <v>197</v>
-      </c>
-      <c r="G107" s="5">
+      <c r="D107">
+        <v>1105</v>
+      </c>
+      <c r="E107">
+        <v>371</v>
+      </c>
+      <c r="F107" s="3">
+        <v>197</v>
+      </c>
+      <c r="G107" s="4">
         <v>39</v>
       </c>
-      <c r="H107" s="18">
+      <c r="H107">
         <f t="shared" ref="H107" si="132">SUM(I107:K107)</f>
         <v>3873</v>
       </c>
-      <c r="I107" s="6">
+      <c r="I107" s="5">
         <v>3069</v>
       </c>
-      <c r="J107" s="7">
+      <c r="J107" s="6">
         <v>423</v>
       </c>
-      <c r="K107" s="8">
+      <c r="K107" s="7">
         <v>381</v>
       </c>
     </row>
@@ -8437,33 +8454,33 @@
       <c r="B108" s="2">
         <v>9</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108">
         <f t="shared" ref="C108" si="133">SUM(D108:F108)</f>
         <v>1673</v>
       </c>
-      <c r="D108" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E108" s="3">
-        <v>371</v>
-      </c>
-      <c r="F108" s="4">
-        <v>197</v>
-      </c>
-      <c r="G108" s="5">
+      <c r="D108">
+        <v>1105</v>
+      </c>
+      <c r="E108">
+        <v>371</v>
+      </c>
+      <c r="F108" s="3">
+        <v>197</v>
+      </c>
+      <c r="G108" s="4">
         <v>39</v>
       </c>
-      <c r="H108" s="18">
+      <c r="H108">
         <f t="shared" ref="H108" si="134">SUM(I108:K108)</f>
         <v>3873</v>
       </c>
-      <c r="I108" s="6">
+      <c r="I108" s="5">
         <v>3069</v>
       </c>
-      <c r="J108" s="7">
+      <c r="J108" s="6">
         <v>423</v>
       </c>
-      <c r="K108" s="8">
+      <c r="K108" s="7">
         <v>381</v>
       </c>
     </row>
@@ -8474,33 +8491,33 @@
       <c r="B109" s="2">
         <v>9</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109">
         <f t="shared" ref="C109" si="135">SUM(D109:F109)</f>
         <v>1673</v>
       </c>
-      <c r="D109" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E109" s="3">
-        <v>371</v>
-      </c>
-      <c r="F109" s="4">
-        <v>197</v>
-      </c>
-      <c r="G109" s="5">
+      <c r="D109">
+        <v>1105</v>
+      </c>
+      <c r="E109">
+        <v>371</v>
+      </c>
+      <c r="F109" s="3">
+        <v>197</v>
+      </c>
+      <c r="G109" s="4">
         <v>39</v>
       </c>
-      <c r="H109" s="18">
+      <c r="H109">
         <f t="shared" ref="H109" si="136">SUM(I109:K109)</f>
         <v>3999</v>
       </c>
-      <c r="I109" s="6">
+      <c r="I109" s="5">
         <v>3161</v>
       </c>
-      <c r="J109" s="7">
+      <c r="J109" s="6">
         <v>449</v>
       </c>
-      <c r="K109" s="8">
+      <c r="K109" s="7">
         <v>389</v>
       </c>
     </row>
@@ -8511,33 +8528,33 @@
       <c r="B110" s="2">
         <v>9</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110">
         <f t="shared" ref="C110" si="137">SUM(D110:F110)</f>
         <v>1673</v>
       </c>
-      <c r="D110" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E110" s="3">
-        <v>371</v>
-      </c>
-      <c r="F110" s="4">
-        <v>197</v>
-      </c>
-      <c r="G110" s="5">
+      <c r="D110">
+        <v>1105</v>
+      </c>
+      <c r="E110">
+        <v>371</v>
+      </c>
+      <c r="F110" s="3">
+        <v>197</v>
+      </c>
+      <c r="G110" s="4">
         <v>39</v>
       </c>
-      <c r="H110" s="18">
+      <c r="H110">
         <f t="shared" ref="H110" si="138">SUM(I110:K110)</f>
         <v>4032</v>
       </c>
-      <c r="I110" s="6">
+      <c r="I110" s="5">
         <v>3185</v>
       </c>
-      <c r="J110" s="7">
+      <c r="J110" s="6">
         <v>459</v>
       </c>
-      <c r="K110" s="8">
+      <c r="K110" s="7">
         <v>388</v>
       </c>
     </row>
@@ -8548,33 +8565,33 @@
       <c r="B111" s="2">
         <v>9</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111">
         <f t="shared" ref="C111" si="139">SUM(D111:F111)</f>
         <v>1673</v>
       </c>
-      <c r="D111" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E111" s="3">
-        <v>371</v>
-      </c>
-      <c r="F111" s="4">
-        <v>197</v>
-      </c>
-      <c r="G111" s="5">
+      <c r="D111">
+        <v>1105</v>
+      </c>
+      <c r="E111">
+        <v>371</v>
+      </c>
+      <c r="F111" s="3">
+        <v>197</v>
+      </c>
+      <c r="G111" s="4">
         <v>39</v>
       </c>
-      <c r="H111" s="18">
+      <c r="H111">
         <f t="shared" ref="H111" si="140">SUM(I111:K111)</f>
         <v>4157</v>
       </c>
-      <c r="I111" s="6">
+      <c r="I111" s="5">
         <v>3297</v>
       </c>
-      <c r="J111" s="7">
+      <c r="J111" s="6">
         <v>457</v>
       </c>
-      <c r="K111" s="8">
+      <c r="K111" s="7">
         <v>403</v>
       </c>
     </row>
@@ -8585,33 +8602,33 @@
       <c r="B112" s="2">
         <v>9</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112">
         <f t="shared" ref="C112" si="141">SUM(D112:F112)</f>
         <v>1673</v>
       </c>
-      <c r="D112" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E112" s="3">
-        <v>371</v>
-      </c>
-      <c r="F112" s="4">
-        <v>197</v>
-      </c>
-      <c r="G112" s="5">
+      <c r="D112">
+        <v>1105</v>
+      </c>
+      <c r="E112">
+        <v>371</v>
+      </c>
+      <c r="F112" s="3">
+        <v>197</v>
+      </c>
+      <c r="G112" s="4">
         <v>39</v>
       </c>
-      <c r="H112" s="18">
+      <c r="H112">
         <f t="shared" ref="H112" si="142">SUM(I112:K112)</f>
         <v>4163</v>
       </c>
-      <c r="I112" s="6">
+      <c r="I112" s="5">
         <v>3302</v>
       </c>
-      <c r="J112" s="7">
+      <c r="J112" s="6">
         <v>458</v>
       </c>
-      <c r="K112" s="8">
+      <c r="K112" s="7">
         <v>403</v>
       </c>
     </row>
@@ -8622,33 +8639,33 @@
       <c r="B113" s="2">
         <v>9</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113">
         <f t="shared" ref="C113" si="143">SUM(D113:F113)</f>
         <v>1673</v>
       </c>
-      <c r="D113" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E113" s="3">
-        <v>371</v>
-      </c>
-      <c r="F113" s="4">
-        <v>197</v>
-      </c>
-      <c r="G113" s="5">
+      <c r="D113">
+        <v>1105</v>
+      </c>
+      <c r="E113">
+        <v>371</v>
+      </c>
+      <c r="F113" s="3">
+        <v>197</v>
+      </c>
+      <c r="G113" s="4">
         <v>39</v>
       </c>
-      <c r="H113" s="18">
+      <c r="H113">
         <f t="shared" ref="H113" si="144">SUM(I113:K113)</f>
         <v>4180</v>
       </c>
-      <c r="I113" s="6">
+      <c r="I113" s="5">
         <v>3319</v>
       </c>
-      <c r="J113" s="7">
+      <c r="J113" s="6">
         <v>458</v>
       </c>
-      <c r="K113" s="8">
+      <c r="K113" s="7">
         <v>403</v>
       </c>
     </row>
@@ -8659,33 +8676,33 @@
       <c r="B114" s="2">
         <v>9</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114">
         <f t="shared" ref="C114" si="145">SUM(D114:F114)</f>
         <v>1673</v>
       </c>
-      <c r="D114" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E114" s="3">
-        <v>371</v>
-      </c>
-      <c r="F114" s="4">
-        <v>197</v>
-      </c>
-      <c r="G114" s="5">
+      <c r="D114">
+        <v>1105</v>
+      </c>
+      <c r="E114">
+        <v>371</v>
+      </c>
+      <c r="F114" s="3">
+        <v>197</v>
+      </c>
+      <c r="G114" s="4">
         <v>39</v>
       </c>
-      <c r="H114" s="18">
+      <c r="H114">
         <f t="shared" ref="H114" si="146">SUM(I114:K114)</f>
         <v>4018</v>
       </c>
-      <c r="I114" s="6">
+      <c r="I114" s="5">
         <v>3221</v>
       </c>
-      <c r="J114" s="7">
+      <c r="J114" s="6">
         <v>413</v>
       </c>
-      <c r="K114" s="8">
+      <c r="K114" s="7">
         <v>384</v>
       </c>
     </row>
@@ -8696,33 +8713,33 @@
       <c r="B115" s="2">
         <v>9</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115">
         <f t="shared" ref="C115" si="147">SUM(D115:F115)</f>
         <v>1673</v>
       </c>
-      <c r="D115" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E115" s="3">
-        <v>371</v>
-      </c>
-      <c r="F115" s="4">
-        <v>197</v>
-      </c>
-      <c r="G115" s="5">
+      <c r="D115">
+        <v>1105</v>
+      </c>
+      <c r="E115">
+        <v>371</v>
+      </c>
+      <c r="F115" s="3">
+        <v>197</v>
+      </c>
+      <c r="G115" s="4">
         <v>39</v>
       </c>
-      <c r="H115" s="18">
+      <c r="H115">
         <f t="shared" ref="H115" si="148">SUM(I115:K115)</f>
         <v>4079</v>
       </c>
-      <c r="I115" s="6">
+      <c r="I115" s="5">
         <v>3273</v>
       </c>
-      <c r="J115" s="7">
+      <c r="J115" s="6">
         <v>428</v>
       </c>
-      <c r="K115" s="8">
+      <c r="K115" s="7">
         <v>378</v>
       </c>
     </row>
@@ -8733,34 +8750,71 @@
       <c r="B116" s="2">
         <v>9</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116">
         <f t="shared" ref="C116" si="149">SUM(D116:F116)</f>
         <v>1673</v>
       </c>
-      <c r="D116" s="3">
-        <v>1105</v>
-      </c>
-      <c r="E116" s="3">
-        <v>371</v>
-      </c>
-      <c r="F116" s="4">
-        <v>197</v>
-      </c>
-      <c r="G116" s="5">
+      <c r="D116">
+        <v>1105</v>
+      </c>
+      <c r="E116">
+        <v>371</v>
+      </c>
+      <c r="F116" s="3">
+        <v>197</v>
+      </c>
+      <c r="G116" s="4">
         <v>39</v>
       </c>
-      <c r="H116" s="18">
+      <c r="H116">
         <f t="shared" ref="H116" si="150">SUM(I116:K116)</f>
         <v>4089</v>
       </c>
-      <c r="I116" s="6">
+      <c r="I116" s="5">
         <v>3282</v>
       </c>
-      <c r="J116" s="7">
+      <c r="J116" s="6">
         <v>428</v>
       </c>
-      <c r="K116" s="8">
+      <c r="K116" s="7">
         <v>379</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>44903</v>
+      </c>
+      <c r="B117" s="2">
+        <v>9</v>
+      </c>
+      <c r="C117">
+        <f t="shared" ref="C117" si="151">SUM(D117:F117)</f>
+        <v>1673</v>
+      </c>
+      <c r="D117">
+        <v>1105</v>
+      </c>
+      <c r="E117">
+        <v>371</v>
+      </c>
+      <c r="F117" s="3">
+        <v>197</v>
+      </c>
+      <c r="G117" s="4">
+        <v>39</v>
+      </c>
+      <c r="H117">
+        <f t="shared" ref="H117" si="152">SUM(I117:K117)</f>
+        <v>4073</v>
+      </c>
+      <c r="I117" s="5">
+        <v>3258</v>
+      </c>
+      <c r="J117" s="6">
+        <v>434</v>
+      </c>
+      <c r="K117" s="7">
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7DF068-1BF1-D94A-BFCB-4C06A8A503A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC4F5FB-7080-CB4B-81F9-1DEBC4A46D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -960,7 +960,7 @@
                   <c:v>4089</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>4073</c:v>
+                  <c:v>4064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1705,7 +1705,7 @@
                   <c:v>3282</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3258</c:v>
+                  <c:v>3249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4464,7 +4464,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I118" sqref="I118"/>
+      <selection pane="bottomRight" activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8805,10 +8805,10 @@
       </c>
       <c r="H117">
         <f t="shared" ref="H117" si="152">SUM(I117:K117)</f>
-        <v>4073</v>
+        <v>4064</v>
       </c>
       <c r="I117" s="5">
-        <v>3258</v>
+        <v>3249</v>
       </c>
       <c r="J117" s="6">
         <v>434</v>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC4F5FB-7080-CB4B-81F9-1DEBC4A46D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD489D8F-E073-0446-A05F-E271FC38F4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -608,6 +608,9 @@
                 <c:pt idx="114">
                   <c:v>44903</c:v>
                 </c:pt>
+                <c:pt idx="115">
+                  <c:v>44904</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -961,6 +964,9 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>4064</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4070</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1353,6 +1359,9 @@
                 <c:pt idx="114">
                   <c:v>44903</c:v>
                 </c:pt>
+                <c:pt idx="115">
+                  <c:v>44904</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1706,6 +1715,9 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>3249</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2100,6 +2112,9 @@
                 <c:pt idx="114">
                   <c:v>44903</c:v>
                 </c:pt>
+                <c:pt idx="115">
+                  <c:v>44904</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2452,6 +2467,9 @@
                   <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="114">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>434</c:v>
                 </c:pt>
               </c:numCache>
@@ -2878,6 +2896,9 @@
                 <c:pt idx="114">
                   <c:v>44903</c:v>
                 </c:pt>
+                <c:pt idx="115">
+                  <c:v>44904</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3230,6 +3251,9 @@
                   <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="114">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>381</c:v>
                 </c:pt>
               </c:numCache>
@@ -4458,13 +4482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K117" sqref="K117"/>
+      <selection pane="bottomRight" activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8814,6 +8838,43 @@
         <v>434</v>
       </c>
       <c r="K117" s="7">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B118" s="2">
+        <v>9</v>
+      </c>
+      <c r="C118">
+        <f t="shared" ref="C118" si="153">SUM(D118:F118)</f>
+        <v>1673</v>
+      </c>
+      <c r="D118">
+        <v>1105</v>
+      </c>
+      <c r="E118">
+        <v>371</v>
+      </c>
+      <c r="F118" s="3">
+        <v>197</v>
+      </c>
+      <c r="G118" s="4">
+        <v>39</v>
+      </c>
+      <c r="H118">
+        <f t="shared" ref="H118" si="154">SUM(I118:K118)</f>
+        <v>4070</v>
+      </c>
+      <c r="I118" s="5">
+        <v>3255</v>
+      </c>
+      <c r="J118" s="6">
+        <v>434</v>
+      </c>
+      <c r="K118" s="7">
         <v>381</v>
       </c>
     </row>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD489D8F-E073-0446-A05F-E271FC38F4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A541561B-1D5B-3646-B736-248931D4D951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -611,6 +611,9 @@
                 <c:pt idx="115">
                   <c:v>44904</c:v>
                 </c:pt>
+                <c:pt idx="116">
+                  <c:v>44908</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -967,6 +970,9 @@
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>4070</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1362,6 +1368,9 @@
                 <c:pt idx="115">
                   <c:v>44904</c:v>
                 </c:pt>
+                <c:pt idx="116">
+                  <c:v>44908</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1718,6 +1727,9 @@
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>3255</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2115,6 +2127,9 @@
                 <c:pt idx="115">
                   <c:v>44904</c:v>
                 </c:pt>
+                <c:pt idx="116">
+                  <c:v>44908</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2471,6 +2486,9 @@
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2899,6 +2917,9 @@
                 <c:pt idx="115">
                   <c:v>44904</c:v>
                 </c:pt>
+                <c:pt idx="116">
+                  <c:v>44908</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3255,6 +3276,9 @@
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4482,13 +4506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I119" sqref="I119"/>
+      <selection pane="bottomRight" activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8876,6 +8900,43 @@
       </c>
       <c r="K118" s="7">
         <v>381</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B119" s="2">
+        <v>9</v>
+      </c>
+      <c r="C119">
+        <f t="shared" ref="C119" si="155">SUM(D119:F119)</f>
+        <v>1673</v>
+      </c>
+      <c r="D119">
+        <v>1105</v>
+      </c>
+      <c r="E119">
+        <v>371</v>
+      </c>
+      <c r="F119" s="3">
+        <v>197</v>
+      </c>
+      <c r="G119" s="4">
+        <v>39</v>
+      </c>
+      <c r="H119">
+        <f t="shared" ref="H119" si="156">SUM(I119:K119)</f>
+        <v>4054</v>
+      </c>
+      <c r="I119" s="5">
+        <v>3238</v>
+      </c>
+      <c r="J119" s="6">
+        <v>436</v>
+      </c>
+      <c r="K119" s="7">
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A541561B-1D5B-3646-B736-248931D4D951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5E610B-0D61-364A-8099-50E016C0FB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -614,6 +614,9 @@
                 <c:pt idx="116">
                   <c:v>44908</c:v>
                 </c:pt>
+                <c:pt idx="117">
+                  <c:v>44910</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -973,6 +976,9 @@
                 </c:pt>
                 <c:pt idx="116">
                   <c:v>4054</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1371,6 +1377,9 @@
                 <c:pt idx="116">
                   <c:v>44908</c:v>
                 </c:pt>
+                <c:pt idx="117">
+                  <c:v>44910</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1730,6 +1739,9 @@
                 </c:pt>
                 <c:pt idx="116">
                   <c:v>3238</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2130,6 +2142,9 @@
                 <c:pt idx="116">
                   <c:v>44908</c:v>
                 </c:pt>
+                <c:pt idx="117">
+                  <c:v>44910</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2488,6 +2503,9 @@
                   <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="116">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>436</c:v>
                 </c:pt>
               </c:numCache>
@@ -2920,6 +2938,9 @@
                 <c:pt idx="116">
                   <c:v>44908</c:v>
                 </c:pt>
+                <c:pt idx="117">
+                  <c:v>44910</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3279,6 +3300,9 @@
                 </c:pt>
                 <c:pt idx="116">
                   <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4210,7 +4234,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4498,7 +4522,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4506,13 +4530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I120" sqref="I120"/>
+      <selection pane="bottomRight" activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8937,6 +8961,43 @@
       </c>
       <c r="K119" s="7">
         <v>380</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>44910</v>
+      </c>
+      <c r="B120" s="2">
+        <v>9</v>
+      </c>
+      <c r="C120">
+        <f t="shared" ref="C120" si="157">SUM(D120:F120)</f>
+        <v>1673</v>
+      </c>
+      <c r="D120">
+        <v>1105</v>
+      </c>
+      <c r="E120">
+        <v>371</v>
+      </c>
+      <c r="F120" s="3">
+        <v>197</v>
+      </c>
+      <c r="G120" s="4">
+        <v>39</v>
+      </c>
+      <c r="H120">
+        <f t="shared" ref="H120" si="158">SUM(I120:K120)</f>
+        <v>4061</v>
+      </c>
+      <c r="I120" s="5">
+        <v>3244</v>
+      </c>
+      <c r="J120" s="6">
+        <v>436</v>
+      </c>
+      <c r="K120" s="7">
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5E610B-0D61-364A-8099-50E016C0FB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB397193-4266-4943-8C9D-B9839FF82405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -617,6 +617,9 @@
                 <c:pt idx="117">
                   <c:v>44910</c:v>
                 </c:pt>
+                <c:pt idx="118">
+                  <c:v>44912</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -979,6 +982,9 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>4061</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4060</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,6 +1386,9 @@
                 <c:pt idx="117">
                   <c:v>44910</c:v>
                 </c:pt>
+                <c:pt idx="118">
+                  <c:v>44912</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1742,6 +1751,9 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2145,6 +2157,9 @@
                 <c:pt idx="117">
                   <c:v>44910</c:v>
                 </c:pt>
+                <c:pt idx="118">
+                  <c:v>44912</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2507,6 +2522,9 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2941,6 +2959,9 @@
                 <c:pt idx="117">
                   <c:v>44910</c:v>
                 </c:pt>
+                <c:pt idx="118">
+                  <c:v>44912</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3303,6 +3324,9 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4530,13 +4554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I121" sqref="I121"/>
+      <selection pane="bottomRight" activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8998,6 +9022,43 @@
       </c>
       <c r="K120" s="7">
         <v>381</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B121" s="2">
+        <v>9</v>
+      </c>
+      <c r="C121">
+        <f t="shared" ref="C121" si="159">SUM(D121:F121)</f>
+        <v>1673</v>
+      </c>
+      <c r="D121">
+        <v>1105</v>
+      </c>
+      <c r="E121">
+        <v>371</v>
+      </c>
+      <c r="F121" s="3">
+        <v>197</v>
+      </c>
+      <c r="G121" s="4">
+        <v>39</v>
+      </c>
+      <c r="H121">
+        <f t="shared" ref="H121" si="160">SUM(I121:K121)</f>
+        <v>4060</v>
+      </c>
+      <c r="I121" s="5">
+        <v>3243</v>
+      </c>
+      <c r="J121" s="6">
+        <v>434</v>
+      </c>
+      <c r="K121" s="7">
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB397193-4266-4943-8C9D-B9839FF82405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE6B162-805E-2741-BE98-1521B09B216E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -620,6 +620,12 @@
                 <c:pt idx="118">
                   <c:v>44912</c:v>
                 </c:pt>
+                <c:pt idx="119">
+                  <c:v>44913</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44914</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -985,6 +991,12 @@
                 </c:pt>
                 <c:pt idx="118">
                   <c:v>4060</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4077</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1389,6 +1401,12 @@
                 <c:pt idx="118">
                   <c:v>44912</c:v>
                 </c:pt>
+                <c:pt idx="119">
+                  <c:v>44913</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44914</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1754,6 +1772,12 @@
                 </c:pt>
                 <c:pt idx="118">
                   <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3260</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2160,6 +2184,12 @@
                 <c:pt idx="118">
                   <c:v>44912</c:v>
                 </c:pt>
+                <c:pt idx="119">
+                  <c:v>44913</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44914</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2525,6 +2555,12 @@
                 </c:pt>
                 <c:pt idx="118">
                   <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2962,6 +2998,12 @@
                 <c:pt idx="118">
                   <c:v>44912</c:v>
                 </c:pt>
+                <c:pt idx="119">
+                  <c:v>44913</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44914</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3326,6 +3368,12 @@
                   <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="118">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="120">
                   <c:v>383</c:v>
                 </c:pt>
               </c:numCache>
@@ -4554,13 +4602,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I122" sqref="I122"/>
+      <selection pane="bottomRight" activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9058,6 +9106,80 @@
         <v>434</v>
       </c>
       <c r="K121" s="7">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>44913</v>
+      </c>
+      <c r="B122" s="2">
+        <v>9</v>
+      </c>
+      <c r="C122">
+        <f t="shared" ref="C122" si="161">SUM(D122:F122)</f>
+        <v>1673</v>
+      </c>
+      <c r="D122">
+        <v>1105</v>
+      </c>
+      <c r="E122">
+        <v>371</v>
+      </c>
+      <c r="F122" s="3">
+        <v>197</v>
+      </c>
+      <c r="G122" s="4">
+        <v>39</v>
+      </c>
+      <c r="H122">
+        <f t="shared" ref="H122" si="162">SUM(I122:K122)</f>
+        <v>4077</v>
+      </c>
+      <c r="I122" s="5">
+        <v>3260</v>
+      </c>
+      <c r="J122" s="6">
+        <v>434</v>
+      </c>
+      <c r="K122" s="7">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>44914</v>
+      </c>
+      <c r="B123" s="2">
+        <v>9</v>
+      </c>
+      <c r="C123">
+        <f t="shared" ref="C123" si="163">SUM(D123:F123)</f>
+        <v>1673</v>
+      </c>
+      <c r="D123">
+        <v>1105</v>
+      </c>
+      <c r="E123">
+        <v>371</v>
+      </c>
+      <c r="F123" s="3">
+        <v>197</v>
+      </c>
+      <c r="G123" s="4">
+        <v>39</v>
+      </c>
+      <c r="H123">
+        <f t="shared" ref="H123" si="164">SUM(I123:K123)</f>
+        <v>4080</v>
+      </c>
+      <c r="I123" s="5">
+        <v>3262</v>
+      </c>
+      <c r="J123" s="6">
+        <v>435</v>
+      </c>
+      <c r="K123" s="7">
         <v>383</v>
       </c>
     </row>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE6B162-805E-2741-BE98-1521B09B216E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650F3287-73C7-C143-9EDF-9454BD4FACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -259,10 +259,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$A$3:$A$150</c:f>
+              <c:f>Table!$A$3:$A$149</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="148"/>
+                <c:ptCount val="147"/>
                 <c:pt idx="0">
                   <c:v>44380</c:v>
                 </c:pt>
@@ -625,16 +625,19 @@
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$H$3:$H$150</c:f>
+              <c:f>Table!$H$3:$H$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="148"/>
+                <c:ptCount val="147"/>
                 <c:pt idx="0">
                   <c:v>340</c:v>
                 </c:pt>
@@ -997,6 +1000,9 @@
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1040,10 +1046,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$A$3:$A$150</c:f>
+              <c:f>Table!$A$3:$A$149</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="148"/>
+                <c:ptCount val="147"/>
                 <c:pt idx="0">
                   <c:v>44380</c:v>
                 </c:pt>
@@ -1406,16 +1412,19 @@
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$I$3:$I$150</c:f>
+              <c:f>Table!$I$3:$I$149</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="148"/>
+                <c:ptCount val="147"/>
                 <c:pt idx="0">
                   <c:v>239</c:v>
                 </c:pt>
@@ -1778,6 +1787,9 @@
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>3262</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,10 +1835,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$A$3:$A$150</c:f>
+              <c:f>Table!$A$3:$A$149</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="148"/>
+                <c:ptCount val="147"/>
                 <c:pt idx="0">
                   <c:v>44380</c:v>
                 </c:pt>
@@ -2189,16 +2201,19 @@
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$J$3:$J$150</c:f>
+              <c:f>Table!$J$3:$J$149</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="148"/>
+                <c:ptCount val="147"/>
                 <c:pt idx="0">
                   <c:v>61</c:v>
                 </c:pt>
@@ -2561,6 +2576,9 @@
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2637,10 +2655,10 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$A$3:$A$150</c:f>
+              <c:f>Table!$A$3:$A$149</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="148"/>
+                <c:ptCount val="147"/>
                 <c:pt idx="0">
                   <c:v>44380</c:v>
                 </c:pt>
@@ -3003,16 +3021,19 @@
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$K$3:$K$150</c:f>
+              <c:f>Table!$K$3:$K$149</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="148"/>
+                <c:ptCount val="147"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -3374,6 +3395,9 @@
                   <c:v>383</c:v>
                 </c:pt>
                 <c:pt idx="120">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>383</c:v>
                 </c:pt>
               </c:numCache>
@@ -4602,13 +4626,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K123"/>
+  <dimension ref="A1:K124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I124" sqref="I124"/>
+      <selection pane="bottomRight" activeCell="A124" sqref="A124:XFD124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9180,6 +9204,43 @@
         <v>435</v>
       </c>
       <c r="K123" s="7">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>44916</v>
+      </c>
+      <c r="B124" s="2">
+        <v>9</v>
+      </c>
+      <c r="C124">
+        <f t="shared" ref="C124" si="165">SUM(D124:F124)</f>
+        <v>1673</v>
+      </c>
+      <c r="D124">
+        <v>1105</v>
+      </c>
+      <c r="E124">
+        <v>371</v>
+      </c>
+      <c r="F124" s="3">
+        <v>197</v>
+      </c>
+      <c r="G124" s="4">
+        <v>39</v>
+      </c>
+      <c r="H124">
+        <f t="shared" ref="H124" si="166">SUM(I124:K124)</f>
+        <v>4092</v>
+      </c>
+      <c r="I124" s="5">
+        <v>3275</v>
+      </c>
+      <c r="J124" s="6">
+        <v>434</v>
+      </c>
+      <c r="K124" s="7">
         <v>383</v>
       </c>
     </row>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650F3287-73C7-C143-9EDF-9454BD4FACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B734FA83-446C-5A4E-8D71-F38498F41855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -629,6 +629,9 @@
                 <c:pt idx="121">
                   <c:v>44916</c:v>
                 </c:pt>
+                <c:pt idx="122">
+                  <c:v>44917</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1003,6 +1006,9 @@
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>4092</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1416,6 +1422,9 @@
                 <c:pt idx="121">
                   <c:v>44916</c:v>
                 </c:pt>
+                <c:pt idx="122">
+                  <c:v>44917</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1790,6 +1799,9 @@
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>3275</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2205,6 +2217,9 @@
                 <c:pt idx="121">
                   <c:v>44916</c:v>
                 </c:pt>
+                <c:pt idx="122">
+                  <c:v>44917</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2578,6 +2593,9 @@
                   <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="121">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="122">
                   <c:v>434</c:v>
                 </c:pt>
               </c:numCache>
@@ -3025,6 +3043,9 @@
                 <c:pt idx="121">
                   <c:v>44916</c:v>
                 </c:pt>
+                <c:pt idx="122">
+                  <c:v>44917</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3399,6 +3420,9 @@
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4626,13 +4650,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A124" sqref="A124:XFD124"/>
+      <selection pane="bottomRight" activeCell="P118" sqref="P118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9117,7 +9141,7 @@
         <v>197</v>
       </c>
       <c r="G121" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <f t="shared" ref="H121" si="160">SUM(I121:K121)</f>
@@ -9154,7 +9178,7 @@
         <v>197</v>
       </c>
       <c r="G122" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H122">
         <f t="shared" ref="H122" si="162">SUM(I122:K122)</f>
@@ -9191,7 +9215,7 @@
         <v>197</v>
       </c>
       <c r="G123" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H123">
         <f t="shared" ref="H123" si="164">SUM(I123:K123)</f>
@@ -9228,7 +9252,7 @@
         <v>197</v>
       </c>
       <c r="G124" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H124">
         <f t="shared" ref="H124" si="166">SUM(I124:K124)</f>
@@ -9242,6 +9266,43 @@
       </c>
       <c r="K124" s="7">
         <v>383</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>44917</v>
+      </c>
+      <c r="B125" s="2">
+        <v>9</v>
+      </c>
+      <c r="C125">
+        <f t="shared" ref="C125" si="167">SUM(D125:F125)</f>
+        <v>1673</v>
+      </c>
+      <c r="D125">
+        <v>1105</v>
+      </c>
+      <c r="E125">
+        <v>371</v>
+      </c>
+      <c r="F125" s="3">
+        <v>197</v>
+      </c>
+      <c r="G125" s="4">
+        <v>40</v>
+      </c>
+      <c r="H125">
+        <f t="shared" ref="H125" si="168">SUM(I125:K125)</f>
+        <v>4100</v>
+      </c>
+      <c r="I125" s="5">
+        <v>3281</v>
+      </c>
+      <c r="J125" s="6">
+        <v>434</v>
+      </c>
+      <c r="K125" s="7">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -9261,7 +9322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA41" sqref="AA41"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B734FA83-446C-5A4E-8D71-F38498F41855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864C6D94-DEB7-554F-BA9B-C2ACE6C6DB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -632,6 +632,9 @@
                 <c:pt idx="122">
                   <c:v>44917</c:v>
                 </c:pt>
+                <c:pt idx="123">
+                  <c:v>44918</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1009,6 +1012,9 @@
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1425,6 +1431,9 @@
                 <c:pt idx="122">
                   <c:v>44917</c:v>
                 </c:pt>
+                <c:pt idx="123">
+                  <c:v>44918</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1802,6 +1811,9 @@
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>3281</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2220,6 +2232,9 @@
                 <c:pt idx="122">
                   <c:v>44917</c:v>
                 </c:pt>
+                <c:pt idx="123">
+                  <c:v>44918</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2597,6 +2612,9 @@
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3046,6 +3064,9 @@
                 <c:pt idx="122">
                   <c:v>44917</c:v>
                 </c:pt>
+                <c:pt idx="123">
+                  <c:v>44918</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3423,6 +3444,9 @@
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4650,13 +4674,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P118" sqref="P118"/>
+      <selection pane="bottomRight" activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9303,6 +9327,43 @@
       </c>
       <c r="K125" s="7">
         <v>385</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>44918</v>
+      </c>
+      <c r="B126" s="2">
+        <v>9</v>
+      </c>
+      <c r="C126">
+        <f t="shared" ref="C126" si="169">SUM(D126:F126)</f>
+        <v>1673</v>
+      </c>
+      <c r="D126">
+        <v>1105</v>
+      </c>
+      <c r="E126">
+        <v>371</v>
+      </c>
+      <c r="F126" s="3">
+        <v>197</v>
+      </c>
+      <c r="G126" s="4">
+        <v>40</v>
+      </c>
+      <c r="H126">
+        <f t="shared" ref="H126" si="170">SUM(I126:K126)</f>
+        <v>4101</v>
+      </c>
+      <c r="I126" s="5">
+        <v>3278</v>
+      </c>
+      <c r="J126" s="6">
+        <v>436</v>
+      </c>
+      <c r="K126" s="7">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -9322,7 +9383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA41" sqref="AA41"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864C6D94-DEB7-554F-BA9B-C2ACE6C6DB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF02296-DB8F-A044-87EA-373F15D29FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -635,6 +635,9 @@
                 <c:pt idx="123">
                   <c:v>44918</c:v>
                 </c:pt>
+                <c:pt idx="124">
+                  <c:v>44919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1015,6 +1018,9 @@
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>4101</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1434,6 +1440,9 @@
                 <c:pt idx="123">
                   <c:v>44918</c:v>
                 </c:pt>
+                <c:pt idx="124">
+                  <c:v>44919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1814,6 +1823,9 @@
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>3278</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2235,6 +2247,9 @@
                 <c:pt idx="123">
                   <c:v>44918</c:v>
                 </c:pt>
+                <c:pt idx="124">
+                  <c:v>44919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2615,6 +2630,9 @@
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3067,6 +3085,9 @@
                 <c:pt idx="123">
                   <c:v>44918</c:v>
                 </c:pt>
+                <c:pt idx="124">
+                  <c:v>44919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3447,6 +3468,9 @@
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4674,13 +4698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I127" sqref="I127"/>
+      <selection pane="bottomRight" activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9364,6 +9388,43 @@
       </c>
       <c r="K126" s="7">
         <v>387</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>44919</v>
+      </c>
+      <c r="B127" s="2">
+        <v>9</v>
+      </c>
+      <c r="C127">
+        <f t="shared" ref="C127" si="171">SUM(D127:F127)</f>
+        <v>1673</v>
+      </c>
+      <c r="D127">
+        <v>1105</v>
+      </c>
+      <c r="E127">
+        <v>371</v>
+      </c>
+      <c r="F127" s="3">
+        <v>197</v>
+      </c>
+      <c r="G127" s="4">
+        <v>43</v>
+      </c>
+      <c r="H127">
+        <f t="shared" ref="H127" si="172">SUM(I127:K127)</f>
+        <v>4192</v>
+      </c>
+      <c r="I127" s="5">
+        <v>3339</v>
+      </c>
+      <c r="J127" s="6">
+        <v>455</v>
+      </c>
+      <c r="K127" s="7">
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF02296-DB8F-A044-87EA-373F15D29FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875CEB27-6C9B-8A47-ACDA-95C170DFB69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -638,6 +638,9 @@
                 <c:pt idx="124">
                   <c:v>44919</c:v>
                 </c:pt>
+                <c:pt idx="125">
+                  <c:v>44919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1021,6 +1024,9 @@
                 </c:pt>
                 <c:pt idx="124">
                   <c:v>4192</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4240</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,6 +1449,9 @@
                 <c:pt idx="124">
                   <c:v>44919</c:v>
                 </c:pt>
+                <c:pt idx="125">
+                  <c:v>44919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1826,6 +1835,9 @@
                 </c:pt>
                 <c:pt idx="124">
                   <c:v>3339</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2250,6 +2262,9 @@
                 <c:pt idx="124">
                   <c:v>44919</c:v>
                 </c:pt>
+                <c:pt idx="125">
+                  <c:v>44919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2633,6 +2648,9 @@
                 </c:pt>
                 <c:pt idx="124">
                   <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3088,6 +3106,9 @@
                 <c:pt idx="124">
                   <c:v>44919</c:v>
                 </c:pt>
+                <c:pt idx="125">
+                  <c:v>44919</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3471,6 +3492,9 @@
                 </c:pt>
                 <c:pt idx="124">
                   <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4698,13 +4722,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K127"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I128" sqref="I128"/>
+      <selection pane="bottomRight" activeCell="I129" sqref="I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9425,6 +9449,43 @@
       </c>
       <c r="K127" s="7">
         <v>398</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>44919</v>
+      </c>
+      <c r="B128" s="2">
+        <v>9</v>
+      </c>
+      <c r="C128">
+        <f t="shared" ref="C128" si="173">SUM(D128:F128)</f>
+        <v>1673</v>
+      </c>
+      <c r="D128">
+        <v>1105</v>
+      </c>
+      <c r="E128">
+        <v>371</v>
+      </c>
+      <c r="F128" s="3">
+        <v>197</v>
+      </c>
+      <c r="G128" s="4">
+        <v>43</v>
+      </c>
+      <c r="H128">
+        <f t="shared" ref="H128" si="174">SUM(I128:K128)</f>
+        <v>4240</v>
+      </c>
+      <c r="I128" s="5">
+        <v>3379</v>
+      </c>
+      <c r="J128" s="6">
+        <v>461</v>
+      </c>
+      <c r="K128" s="7">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875CEB27-6C9B-8A47-ACDA-95C170DFB69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278FB2D4-98C0-3743-A0D7-D35E83CBEF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -1026,7 +1026,7 @@
                   <c:v>4192</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>4240</c:v>
+                  <c:v>4296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1837,7 +1837,7 @@
                   <c:v>3339</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3379</c:v>
+                  <c:v>3410</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2650,7 +2650,7 @@
                   <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>461</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3494,7 +3494,7 @@
                   <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>400</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9476,16 +9476,16 @@
       </c>
       <c r="H128">
         <f t="shared" ref="H128" si="174">SUM(I128:K128)</f>
-        <v>4240</v>
+        <v>4296</v>
       </c>
       <c r="I128" s="5">
-        <v>3379</v>
+        <v>3410</v>
       </c>
       <c r="J128" s="6">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="K128" s="7">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278FB2D4-98C0-3743-A0D7-D35E83CBEF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D508A8-A84C-7447-A9AD-D243213FD117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -639,7 +639,10 @@
                   <c:v>44919</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>44919</c:v>
+                  <c:v>44920</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,6 +1030,9 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>4296</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1450,7 +1456,10 @@
                   <c:v>44919</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>44919</c:v>
+                  <c:v>44920</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1838,6 +1847,9 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>3410</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2263,7 +2275,10 @@
                   <c:v>44919</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>44919</c:v>
+                  <c:v>44920</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2651,6 +2666,9 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3107,7 +3125,10 @@
                   <c:v>44919</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>44919</c:v>
+                  <c:v>44920</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3495,6 +3516,9 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>430</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4722,13 +4746,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I129" sqref="I129"/>
+      <selection pane="bottomRight" activeCell="I130" sqref="I130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9453,7 +9477,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>44919</v>
+        <v>44920</v>
       </c>
       <c r="B128" s="2">
         <v>9</v>
@@ -9486,6 +9510,43 @@
       </c>
       <c r="K128" s="7">
         <v>411</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>44922</v>
+      </c>
+      <c r="B129" s="2">
+        <v>9</v>
+      </c>
+      <c r="C129">
+        <f t="shared" ref="C129" si="175">SUM(D129:F129)</f>
+        <v>1673</v>
+      </c>
+      <c r="D129">
+        <v>1105</v>
+      </c>
+      <c r="E129">
+        <v>371</v>
+      </c>
+      <c r="F129" s="3">
+        <v>197</v>
+      </c>
+      <c r="G129" s="4">
+        <v>43</v>
+      </c>
+      <c r="H129">
+        <f t="shared" ref="H129" si="176">SUM(I129:K129)</f>
+        <v>4379</v>
+      </c>
+      <c r="I129" s="5">
+        <v>3448</v>
+      </c>
+      <c r="J129" s="6">
+        <v>501</v>
+      </c>
+      <c r="K129" s="7">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -9505,7 +9566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA41" sqref="AA41"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D508A8-A84C-7447-A9AD-D243213FD117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8856CB-2AD0-9542-840F-B59D6F4B081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -1032,7 +1032,7 @@
                   <c:v>4296</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>4379</c:v>
+                  <c:v>4420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1849,7 +1849,7 @@
                   <c:v>3410</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3448</c:v>
+                  <c:v>3484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2668,7 +2668,7 @@
                   <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>501</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3518,7 +3518,7 @@
                   <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>430</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9537,16 +9537,16 @@
       </c>
       <c r="H129">
         <f t="shared" ref="H129" si="176">SUM(I129:K129)</f>
-        <v>4379</v>
+        <v>4420</v>
       </c>
       <c r="I129" s="5">
-        <v>3448</v>
+        <v>3484</v>
       </c>
       <c r="J129" s="6">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K129" s="7">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8856CB-2AD0-9542-840F-B59D6F4B081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1189971C-2016-6541-93FB-5F483C040187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -1032,7 +1032,7 @@
                   <c:v>4296</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>4420</c:v>
+                  <c:v>4414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1849,7 +1849,7 @@
                   <c:v>3410</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3484</c:v>
+                  <c:v>3464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2668,7 +2668,7 @@
                   <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>504</c:v>
+                  <c:v>518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4752,7 +4752,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I130" sqref="I130"/>
+      <selection pane="bottomRight" activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9533,17 +9533,17 @@
         <v>197</v>
       </c>
       <c r="G129" s="4">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H129">
         <f t="shared" ref="H129" si="176">SUM(I129:K129)</f>
-        <v>4420</v>
+        <v>4414</v>
       </c>
       <c r="I129" s="5">
-        <v>3484</v>
+        <v>3464</v>
       </c>
       <c r="J129" s="6">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="K129" s="7">
         <v>432</v>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1189971C-2016-6541-93FB-5F483C040187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2F105C-4FEC-9343-B776-5A5670A656D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -644,6 +644,9 @@
                 <c:pt idx="126">
                   <c:v>44922</c:v>
                 </c:pt>
+                <c:pt idx="127">
+                  <c:v>44923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1033,6 +1036,9 @@
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>4414</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1461,6 +1467,9 @@
                 <c:pt idx="126">
                   <c:v>44922</c:v>
                 </c:pt>
+                <c:pt idx="127">
+                  <c:v>44923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1850,6 +1859,9 @@
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>3464</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2280,6 +2292,9 @@
                 <c:pt idx="126">
                   <c:v>44922</c:v>
                 </c:pt>
+                <c:pt idx="127">
+                  <c:v>44923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2669,6 +2684,9 @@
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3130,6 +3148,9 @@
                 <c:pt idx="126">
                   <c:v>44922</c:v>
                 </c:pt>
+                <c:pt idx="127">
+                  <c:v>44923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3519,6 +3540,9 @@
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4746,13 +4770,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G129" sqref="G129"/>
+      <selection pane="bottomRight" activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9547,6 +9571,43 @@
       </c>
       <c r="K129" s="7">
         <v>432</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>44923</v>
+      </c>
+      <c r="B130" s="2">
+        <v>9</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ref="C130" si="177">SUM(D130:F130)</f>
+        <v>1673</v>
+      </c>
+      <c r="D130">
+        <v>1105</v>
+      </c>
+      <c r="E130">
+        <v>371</v>
+      </c>
+      <c r="F130" s="3">
+        <v>197</v>
+      </c>
+      <c r="G130" s="4">
+        <v>50</v>
+      </c>
+      <c r="H130">
+        <f t="shared" ref="H130" si="178">SUM(I130:K130)</f>
+        <v>4386</v>
+      </c>
+      <c r="I130" s="5">
+        <v>3455</v>
+      </c>
+      <c r="J130" s="6">
+        <v>514</v>
+      </c>
+      <c r="K130" s="7">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -9566,8 +9627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA41" sqref="AA41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2F105C-4FEC-9343-B776-5A5670A656D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32810BF5-54AF-D24A-8D5F-456DEF9384BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -1038,7 +1038,7 @@
                   <c:v>4414</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>4386</c:v>
+                  <c:v>4298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1861,7 +1861,7 @@
                   <c:v>3464</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3455</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2686,7 +2686,7 @@
                   <c:v>518</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>514</c:v>
+                  <c:v>488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3542,7 +3542,7 @@
                   <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>417</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4772,7 +4772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -9598,16 +9598,16 @@
       </c>
       <c r="H130">
         <f t="shared" ref="H130" si="178">SUM(I130:K130)</f>
-        <v>4386</v>
+        <v>4298</v>
       </c>
       <c r="I130" s="5">
-        <v>3455</v>
+        <v>3400</v>
       </c>
       <c r="J130" s="6">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="K130" s="7">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -9627,7 +9627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF74EE1A-2980-604D-A888-B21097F30C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC384C2-F51C-3843-88DE-FDF13A480223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -650,6 +650,9 @@
                 <c:pt idx="128">
                   <c:v>44929</c:v>
                 </c:pt>
+                <c:pt idx="129">
+                  <c:v>44930</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1045,6 +1048,9 @@
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>4325</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1479,6 +1485,9 @@
                 <c:pt idx="128">
                   <c:v>44929</c:v>
                 </c:pt>
+                <c:pt idx="129">
+                  <c:v>44930</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1874,6 +1883,9 @@
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>3427</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2310,6 +2322,9 @@
                 <c:pt idx="128">
                   <c:v>44929</c:v>
                 </c:pt>
+                <c:pt idx="129">
+                  <c:v>44930</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2705,6 +2720,9 @@
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3172,6 +3190,9 @@
                 <c:pt idx="128">
                   <c:v>44929</c:v>
                 </c:pt>
+                <c:pt idx="129">
+                  <c:v>44930</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3567,6 +3588,9 @@
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4794,13 +4818,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K131"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I132" sqref="I132"/>
+      <selection pane="bottomRight" activeCell="I133" sqref="I133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9669,6 +9693,43 @@
       </c>
       <c r="K131" s="7">
         <v>413</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>44930</v>
+      </c>
+      <c r="B132" s="2">
+        <v>9</v>
+      </c>
+      <c r="C132">
+        <f t="shared" ref="C132" si="181">SUM(D132:F132)</f>
+        <v>1673</v>
+      </c>
+      <c r="D132">
+        <v>1105</v>
+      </c>
+      <c r="E132">
+        <v>371</v>
+      </c>
+      <c r="F132" s="3">
+        <v>197</v>
+      </c>
+      <c r="G132" s="4">
+        <v>50</v>
+      </c>
+      <c r="H132">
+        <f t="shared" ref="H132" si="182">SUM(I132:K132)</f>
+        <v>4350</v>
+      </c>
+      <c r="I132" s="5">
+        <v>3449</v>
+      </c>
+      <c r="J132" s="6">
+        <v>486</v>
+      </c>
+      <c r="K132" s="7">
+        <v>415</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC384C2-F51C-3843-88DE-FDF13A480223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7642399-0E13-0648-8130-517712134A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -653,6 +653,9 @@
                 <c:pt idx="129">
                   <c:v>44930</c:v>
                 </c:pt>
+                <c:pt idx="130">
+                  <c:v>44936</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1051,6 +1054,9 @@
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>4350</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1488,6 +1494,9 @@
                 <c:pt idx="129">
                   <c:v>44930</c:v>
                 </c:pt>
+                <c:pt idx="130">
+                  <c:v>44936</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1886,6 +1895,9 @@
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>3449</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2325,6 +2337,9 @@
                 <c:pt idx="129">
                   <c:v>44930</c:v>
                 </c:pt>
+                <c:pt idx="130">
+                  <c:v>44936</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2723,6 +2738,9 @@
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3193,6 +3211,9 @@
                 <c:pt idx="129">
                   <c:v>44930</c:v>
                 </c:pt>
+                <c:pt idx="130">
+                  <c:v>44936</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3591,6 +3612,9 @@
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4522,7 +4546,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4810,7 +4834,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4818,13 +4842,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I133" sqref="I133"/>
+      <selection pane="bottomRight" activeCell="I134" sqref="I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9730,6 +9754,43 @@
       </c>
       <c r="K132" s="7">
         <v>415</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>44936</v>
+      </c>
+      <c r="B133" s="2">
+        <v>9</v>
+      </c>
+      <c r="C133">
+        <f t="shared" ref="C133" si="183">SUM(D133:F133)</f>
+        <v>1673</v>
+      </c>
+      <c r="D133">
+        <v>1105</v>
+      </c>
+      <c r="E133">
+        <v>371</v>
+      </c>
+      <c r="F133" s="3">
+        <v>197</v>
+      </c>
+      <c r="G133" s="4">
+        <v>51</v>
+      </c>
+      <c r="H133">
+        <f t="shared" ref="H133" si="184">SUM(I133:K133)</f>
+        <v>4367</v>
+      </c>
+      <c r="I133" s="5">
+        <v>3457</v>
+      </c>
+      <c r="J133" s="6">
+        <v>492</v>
+      </c>
+      <c r="K133" s="7">
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7642399-0E13-0648-8130-517712134A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE70207B-4E8F-4048-8E02-AF75CBA3E51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -656,6 +656,9 @@
                 <c:pt idx="130">
                   <c:v>44936</c:v>
                 </c:pt>
+                <c:pt idx="131">
+                  <c:v>44937</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1057,6 +1060,9 @@
                 </c:pt>
                 <c:pt idx="130">
                   <c:v>4367</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1497,6 +1503,9 @@
                 <c:pt idx="130">
                   <c:v>44936</c:v>
                 </c:pt>
+                <c:pt idx="131">
+                  <c:v>44937</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1898,6 +1907,9 @@
                 </c:pt>
                 <c:pt idx="130">
                   <c:v>3457</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2340,6 +2352,9 @@
                 <c:pt idx="130">
                   <c:v>44936</c:v>
                 </c:pt>
+                <c:pt idx="131">
+                  <c:v>44937</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2740,6 +2755,9 @@
                   <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="130">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="131">
                   <c:v>492</c:v>
                 </c:pt>
               </c:numCache>
@@ -3214,6 +3232,9 @@
                 <c:pt idx="130">
                   <c:v>44936</c:v>
                 </c:pt>
+                <c:pt idx="131">
+                  <c:v>44937</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3614,6 +3635,9 @@
                   <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="130">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="131">
                   <c:v>418</c:v>
                 </c:pt>
               </c:numCache>
@@ -4842,13 +4866,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:K134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I134" sqref="I134"/>
+      <selection pane="bottomRight" activeCell="I135" sqref="I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9790,6 +9814,43 @@
         <v>492</v>
       </c>
       <c r="K133" s="7">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>44937</v>
+      </c>
+      <c r="B134" s="2">
+        <v>9</v>
+      </c>
+      <c r="C134">
+        <f t="shared" ref="C134" si="185">SUM(D134:F134)</f>
+        <v>1673</v>
+      </c>
+      <c r="D134">
+        <v>1105</v>
+      </c>
+      <c r="E134">
+        <v>371</v>
+      </c>
+      <c r="F134" s="3">
+        <v>197</v>
+      </c>
+      <c r="G134" s="4">
+        <v>51</v>
+      </c>
+      <c r="H134">
+        <f t="shared" ref="H134" si="186">SUM(I134:K134)</f>
+        <v>4370</v>
+      </c>
+      <c r="I134" s="5">
+        <v>3460</v>
+      </c>
+      <c r="J134" s="6">
+        <v>492</v>
+      </c>
+      <c r="K134" s="7">
         <v>418</v>
       </c>
     </row>
@@ -9811,7 +9872,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+      <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE70207B-4E8F-4048-8E02-AF75CBA3E51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333137DA-B905-824B-9E7A-F6795DE4F25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -659,6 +659,9 @@
                 <c:pt idx="131">
                   <c:v>44937</c:v>
                 </c:pt>
+                <c:pt idx="132">
+                  <c:v>44938</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1063,6 +1066,9 @@
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>4370</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,6 +1512,9 @@
                 <c:pt idx="131">
                   <c:v>44937</c:v>
                 </c:pt>
+                <c:pt idx="132">
+                  <c:v>44938</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1910,6 +1919,9 @@
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>3460</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2355,6 +2367,9 @@
                 <c:pt idx="131">
                   <c:v>44937</c:v>
                 </c:pt>
+                <c:pt idx="132">
+                  <c:v>44938</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2759,6 +2774,9 @@
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3235,6 +3253,9 @@
                 <c:pt idx="131">
                   <c:v>44937</c:v>
                 </c:pt>
+                <c:pt idx="132">
+                  <c:v>44938</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3639,6 +3660,9 @@
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4866,13 +4890,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I135" sqref="I135"/>
+      <selection pane="bottomRight" activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9852,6 +9876,43 @@
       </c>
       <c r="K134" s="7">
         <v>418</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>44938</v>
+      </c>
+      <c r="B135" s="2">
+        <v>9</v>
+      </c>
+      <c r="C135">
+        <f t="shared" ref="C135" si="187">SUM(D135:F135)</f>
+        <v>1673</v>
+      </c>
+      <c r="D135">
+        <v>1105</v>
+      </c>
+      <c r="E135">
+        <v>371</v>
+      </c>
+      <c r="F135" s="3">
+        <v>197</v>
+      </c>
+      <c r="G135" s="4">
+        <v>51</v>
+      </c>
+      <c r="H135">
+        <f t="shared" ref="H135" si="188">SUM(I135:K135)</f>
+        <v>4446</v>
+      </c>
+      <c r="I135" s="5">
+        <v>3504</v>
+      </c>
+      <c r="J135" s="6">
+        <v>508</v>
+      </c>
+      <c r="K135" s="7">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -9871,8 +9932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA35" sqref="AA35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333137DA-B905-824B-9E7A-F6795DE4F25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8400896-FCE0-7845-8182-DD5E4CCB804E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -662,6 +662,9 @@
                 <c:pt idx="132">
                   <c:v>44938</c:v>
                 </c:pt>
+                <c:pt idx="133">
+                  <c:v>44944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1069,6 +1072,9 @@
                 </c:pt>
                 <c:pt idx="132">
                   <c:v>4446</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1515,6 +1521,9 @@
                 <c:pt idx="132">
                   <c:v>44938</c:v>
                 </c:pt>
+                <c:pt idx="133">
+                  <c:v>44944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1922,6 +1931,9 @@
                 </c:pt>
                 <c:pt idx="132">
                   <c:v>3504</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2370,6 +2382,9 @@
                 <c:pt idx="132">
                   <c:v>44938</c:v>
                 </c:pt>
+                <c:pt idx="133">
+                  <c:v>44944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2777,6 +2792,9 @@
                 </c:pt>
                 <c:pt idx="132">
                   <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3256,6 +3274,9 @@
                 <c:pt idx="132">
                   <c:v>44938</c:v>
                 </c:pt>
+                <c:pt idx="133">
+                  <c:v>44944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3663,6 +3684,9 @@
                 </c:pt>
                 <c:pt idx="132">
                   <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4890,13 +4914,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K135"/>
+  <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I136" sqref="I136"/>
+      <selection pane="bottomRight" activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9913,6 +9937,43 @@
       </c>
       <c r="K135" s="7">
         <v>434</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>44944</v>
+      </c>
+      <c r="B136" s="2">
+        <v>9</v>
+      </c>
+      <c r="C136">
+        <f t="shared" ref="C136" si="189">SUM(D136:F136)</f>
+        <v>1673</v>
+      </c>
+      <c r="D136">
+        <v>1105</v>
+      </c>
+      <c r="E136">
+        <v>371</v>
+      </c>
+      <c r="F136" s="3">
+        <v>197</v>
+      </c>
+      <c r="G136" s="4">
+        <v>51</v>
+      </c>
+      <c r="H136">
+        <f t="shared" ref="H136" si="190">SUM(I136:K136)</f>
+        <v>4459</v>
+      </c>
+      <c r="I136" s="5">
+        <v>3512</v>
+      </c>
+      <c r="J136" s="6">
+        <v>509</v>
+      </c>
+      <c r="K136" s="7">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -9932,7 +9993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8400896-FCE0-7845-8182-DD5E4CCB804E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670C9439-D4CE-3C41-BF54-C1434D4CC6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -665,6 +665,9 @@
                 <c:pt idx="133">
                   <c:v>44944</c:v>
                 </c:pt>
+                <c:pt idx="134">
+                  <c:v>44947</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1075,6 +1078,9 @@
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>4459</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1524,6 +1530,9 @@
                 <c:pt idx="133">
                   <c:v>44944</c:v>
                 </c:pt>
+                <c:pt idx="134">
+                  <c:v>44947</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1934,6 +1943,9 @@
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>3512</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2385,6 +2397,9 @@
                 <c:pt idx="133">
                   <c:v>44944</c:v>
                 </c:pt>
+                <c:pt idx="134">
+                  <c:v>44947</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2795,6 +2810,9 @@
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3277,6 +3295,9 @@
                 <c:pt idx="133">
                   <c:v>44944</c:v>
                 </c:pt>
+                <c:pt idx="134">
+                  <c:v>44947</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3686,6 +3707,9 @@
                   <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="133">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="134">
                   <c:v>438</c:v>
                 </c:pt>
               </c:numCache>
@@ -4914,13 +4938,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K136"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I137" sqref="I137"/>
+      <selection pane="bottomRight" activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9973,6 +9997,43 @@
         <v>509</v>
       </c>
       <c r="K136" s="7">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>44947</v>
+      </c>
+      <c r="B137" s="2">
+        <v>9</v>
+      </c>
+      <c r="C137">
+        <f t="shared" ref="C137" si="191">SUM(D137:F137)</f>
+        <v>1673</v>
+      </c>
+      <c r="D137">
+        <v>1105</v>
+      </c>
+      <c r="E137">
+        <v>371</v>
+      </c>
+      <c r="F137" s="3">
+        <v>197</v>
+      </c>
+      <c r="G137" s="4">
+        <v>51</v>
+      </c>
+      <c r="H137">
+        <f t="shared" ref="H137" si="192">SUM(I137:K137)</f>
+        <v>4464</v>
+      </c>
+      <c r="I137" s="5">
+        <v>3515</v>
+      </c>
+      <c r="J137" s="6">
+        <v>511</v>
+      </c>
+      <c r="K137" s="7">
         <v>438</v>
       </c>
     </row>
@@ -9993,7 +10054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670C9439-D4CE-3C41-BF54-C1434D4CC6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957291B9-DDBC-A84F-935C-AA6797696D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -668,6 +668,9 @@
                 <c:pt idx="134">
                   <c:v>44947</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>44948</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1081,6 +1084,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>4464</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1533,6 +1539,9 @@
                 <c:pt idx="134">
                   <c:v>44947</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>44948</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1946,6 +1955,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>3515</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2400,6 +2412,9 @@
                 <c:pt idx="134">
                   <c:v>44947</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>44948</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2812,6 +2827,9 @@
                   <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="134">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="135">
                   <c:v>511</c:v>
                 </c:pt>
               </c:numCache>
@@ -3298,6 +3316,9 @@
                 <c:pt idx="134">
                   <c:v>44947</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>44948</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3711,6 +3732,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3803,7 +3827,7 @@
         <c:axId val="1582338719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4500"/>
+          <c:max val="5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4938,13 +4962,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I138" sqref="I138"/>
+      <selection pane="bottomRight" activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10035,6 +10059,43 @@
       </c>
       <c r="K137" s="7">
         <v>438</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>44948</v>
+      </c>
+      <c r="B138" s="2">
+        <v>9</v>
+      </c>
+      <c r="C138">
+        <f t="shared" ref="C138" si="193">SUM(D138:F138)</f>
+        <v>1673</v>
+      </c>
+      <c r="D138">
+        <v>1105</v>
+      </c>
+      <c r="E138">
+        <v>371</v>
+      </c>
+      <c r="F138" s="3">
+        <v>197</v>
+      </c>
+      <c r="G138" s="4">
+        <v>51</v>
+      </c>
+      <c r="H138">
+        <f t="shared" ref="H138" si="194">SUM(I138:K138)</f>
+        <v>4493</v>
+      </c>
+      <c r="I138" s="5">
+        <v>3539</v>
+      </c>
+      <c r="J138" s="6">
+        <v>511</v>
+      </c>
+      <c r="K138" s="7">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -10054,8 +10115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957291B9-DDBC-A84F-935C-AA6797696D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A152572-D6FB-2942-9742-CC5B59ECBD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -671,6 +671,9 @@
                 <c:pt idx="135">
                   <c:v>44948</c:v>
                 </c:pt>
+                <c:pt idx="136">
+                  <c:v>44950</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1087,6 +1090,9 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>4493</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1542,6 +1548,9 @@
                 <c:pt idx="135">
                   <c:v>44948</c:v>
                 </c:pt>
+                <c:pt idx="136">
+                  <c:v>44950</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1958,6 +1967,9 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>3539</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2415,6 +2427,9 @@
                 <c:pt idx="135">
                   <c:v>44948</c:v>
                 </c:pt>
+                <c:pt idx="136">
+                  <c:v>44950</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2831,6 +2846,9 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3319,6 +3337,9 @@
                 <c:pt idx="135">
                   <c:v>44948</c:v>
                 </c:pt>
+                <c:pt idx="136">
+                  <c:v>44950</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3734,6 +3755,9 @@
                   <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="135">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>443</c:v>
                 </c:pt>
               </c:numCache>
@@ -4962,13 +4986,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K138"/>
+  <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I139" sqref="I139"/>
+      <selection pane="bottomRight" activeCell="M95" sqref="M95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10095,6 +10119,43 @@
         <v>511</v>
       </c>
       <c r="K138" s="7">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B139" s="2">
+        <v>9</v>
+      </c>
+      <c r="C139">
+        <f t="shared" ref="C139" si="195">SUM(D139:F139)</f>
+        <v>1673</v>
+      </c>
+      <c r="D139">
+        <v>1105</v>
+      </c>
+      <c r="E139">
+        <v>371</v>
+      </c>
+      <c r="F139" s="3">
+        <v>197</v>
+      </c>
+      <c r="G139" s="4">
+        <v>51</v>
+      </c>
+      <c r="H139">
+        <f t="shared" ref="H139" si="196">SUM(I139:K139)</f>
+        <v>4496</v>
+      </c>
+      <c r="I139" s="5">
+        <v>3545</v>
+      </c>
+      <c r="J139" s="6">
+        <v>508</v>
+      </c>
+      <c r="K139" s="7">
         <v>443</v>
       </c>
     </row>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A152572-D6FB-2942-9742-CC5B59ECBD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84C55FF-0236-A048-84D8-A9A773CAAB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -674,6 +674,9 @@
                 <c:pt idx="136">
                   <c:v>44950</c:v>
                 </c:pt>
+                <c:pt idx="137">
+                  <c:v>44952</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1093,6 +1096,9 @@
                 </c:pt>
                 <c:pt idx="136">
                   <c:v>4496</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1551,6 +1557,9 @@
                 <c:pt idx="136">
                   <c:v>44950</c:v>
                 </c:pt>
+                <c:pt idx="137">
+                  <c:v>44952</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1970,6 +1979,9 @@
                 </c:pt>
                 <c:pt idx="136">
                   <c:v>3545</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2430,6 +2442,9 @@
                 <c:pt idx="136">
                   <c:v>44950</c:v>
                 </c:pt>
+                <c:pt idx="137">
+                  <c:v>44952</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2848,6 +2863,9 @@
                   <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="136">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="137">
                   <c:v>508</c:v>
                 </c:pt>
               </c:numCache>
@@ -3340,6 +3358,9 @@
                 <c:pt idx="136">
                   <c:v>44950</c:v>
                 </c:pt>
+                <c:pt idx="137">
+                  <c:v>44952</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3758,6 +3779,9 @@
                   <c:v>443</c:v>
                 </c:pt>
                 <c:pt idx="136">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="137">
                   <c:v>443</c:v>
                 </c:pt>
               </c:numCache>
@@ -4986,13 +5010,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K139"/>
+  <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M95" sqref="M95"/>
+      <selection pane="bottomRight" activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10156,6 +10180,43 @@
         <v>508</v>
       </c>
       <c r="K139" s="7">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B140" s="2">
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <f t="shared" ref="C140" si="197">SUM(D140:F140)</f>
+        <v>1673</v>
+      </c>
+      <c r="D140">
+        <v>1105</v>
+      </c>
+      <c r="E140">
+        <v>371</v>
+      </c>
+      <c r="F140" s="3">
+        <v>197</v>
+      </c>
+      <c r="G140" s="4">
+        <v>51</v>
+      </c>
+      <c r="H140">
+        <f t="shared" ref="H140" si="198">SUM(I140:K140)</f>
+        <v>4485</v>
+      </c>
+      <c r="I140" s="5">
+        <v>3534</v>
+      </c>
+      <c r="J140" s="6">
+        <v>508</v>
+      </c>
+      <c r="K140" s="7">
         <v>443</v>
       </c>
     </row>
@@ -10176,7 +10237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84C55FF-0236-A048-84D8-A9A773CAAB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B26D86-5044-514D-A1CD-C4148348B418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -677,6 +677,9 @@
                 <c:pt idx="137">
                   <c:v>44952</c:v>
                 </c:pt>
+                <c:pt idx="138">
+                  <c:v>44954</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1099,6 +1102,9 @@
                 </c:pt>
                 <c:pt idx="137">
                   <c:v>4485</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1560,6 +1566,9 @@
                 <c:pt idx="137">
                   <c:v>44952</c:v>
                 </c:pt>
+                <c:pt idx="138">
+                  <c:v>44954</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1982,6 +1991,9 @@
                 </c:pt>
                 <c:pt idx="137">
                   <c:v>3534</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2445,6 +2457,9 @@
                 <c:pt idx="137">
                   <c:v>44952</c:v>
                 </c:pt>
+                <c:pt idx="138">
+                  <c:v>44954</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2867,6 +2882,9 @@
                 </c:pt>
                 <c:pt idx="137">
                   <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3361,6 +3379,9 @@
                 <c:pt idx="137">
                   <c:v>44952</c:v>
                 </c:pt>
+                <c:pt idx="138">
+                  <c:v>44954</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3783,6 +3804,9 @@
                 </c:pt>
                 <c:pt idx="137">
                   <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5010,13 +5034,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K140"/>
+  <dimension ref="A1:K141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A141" sqref="A141"/>
+      <selection pane="bottomRight" activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10218,6 +10242,43 @@
       </c>
       <c r="K140" s="7">
         <v>443</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>44954</v>
+      </c>
+      <c r="B141" s="2">
+        <v>9</v>
+      </c>
+      <c r="C141">
+        <f t="shared" ref="C141" si="199">SUM(D141:F141)</f>
+        <v>1673</v>
+      </c>
+      <c r="D141">
+        <v>1105</v>
+      </c>
+      <c r="E141">
+        <v>371</v>
+      </c>
+      <c r="F141" s="3">
+        <v>197</v>
+      </c>
+      <c r="G141" s="4">
+        <v>51</v>
+      </c>
+      <c r="H141">
+        <f t="shared" ref="H141" si="200">SUM(I141:K141)</f>
+        <v>4521</v>
+      </c>
+      <c r="I141" s="5">
+        <v>3564</v>
+      </c>
+      <c r="J141" s="6">
+        <v>510</v>
+      </c>
+      <c r="K141" s="7">
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B26D86-5044-514D-A1CD-C4148348B418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56244D07-DDD5-E741-82B3-DF562D6E77C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -680,6 +680,9 @@
                 <c:pt idx="138">
                   <c:v>44954</c:v>
                 </c:pt>
+                <c:pt idx="139">
+                  <c:v>44962</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1105,6 +1108,9 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>4521</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4640</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1569,6 +1575,9 @@
                 <c:pt idx="138">
                   <c:v>44954</c:v>
                 </c:pt>
+                <c:pt idx="139">
+                  <c:v>44962</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1994,6 +2003,9 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>3564</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2460,6 +2472,9 @@
                 <c:pt idx="138">
                   <c:v>44954</c:v>
                 </c:pt>
+                <c:pt idx="139">
+                  <c:v>44962</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2885,6 +2900,9 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3382,6 +3400,9 @@
                 <c:pt idx="138">
                   <c:v>44954</c:v>
                 </c:pt>
+                <c:pt idx="139">
+                  <c:v>44962</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3807,6 +3828,9 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3833,8 +3857,8 @@
         <c:axId val="1582352671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44960"/>
-          <c:min val="44349"/>
+          <c:max val="44990"/>
+          <c:min val="44379"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5034,13 +5058,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K141"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I142" sqref="I142"/>
+      <selection pane="bottomRight" activeCell="I143" sqref="I143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10279,6 +10303,43 @@
       </c>
       <c r="K141" s="7">
         <v>447</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>44962</v>
+      </c>
+      <c r="B142" s="2">
+        <v>9</v>
+      </c>
+      <c r="C142">
+        <f t="shared" ref="C142" si="201">SUM(D142:F142)</f>
+        <v>1673</v>
+      </c>
+      <c r="D142">
+        <v>1105</v>
+      </c>
+      <c r="E142">
+        <v>371</v>
+      </c>
+      <c r="F142" s="3">
+        <v>197</v>
+      </c>
+      <c r="G142" s="4">
+        <v>51</v>
+      </c>
+      <c r="H142">
+        <f t="shared" ref="H142" si="202">SUM(I142:K142)</f>
+        <v>4640</v>
+      </c>
+      <c r="I142" s="5">
+        <v>3646</v>
+      </c>
+      <c r="J142" s="6">
+        <v>526</v>
+      </c>
+      <c r="K142" s="7">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -10298,7 +10359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56244D07-DDD5-E741-82B3-DF562D6E77C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1DD8A2-7F40-624A-B13C-540AE330684A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -683,6 +683,9 @@
                 <c:pt idx="139">
                   <c:v>44962</c:v>
                 </c:pt>
+                <c:pt idx="140">
+                  <c:v>44965</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1111,6 +1114,9 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>4640</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1578,6 +1584,9 @@
                 <c:pt idx="139">
                   <c:v>44962</c:v>
                 </c:pt>
+                <c:pt idx="140">
+                  <c:v>44965</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2006,6 +2015,9 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>3646</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2475,6 +2487,9 @@
                 <c:pt idx="139">
                   <c:v>44962</c:v>
                 </c:pt>
+                <c:pt idx="140">
+                  <c:v>44965</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2903,6 +2918,9 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3403,6 +3421,9 @@
                 <c:pt idx="139">
                   <c:v>44962</c:v>
                 </c:pt>
+                <c:pt idx="140">
+                  <c:v>44965</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3830,6 +3851,9 @@
                   <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="139">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="140">
                   <c:v>468</c:v>
                 </c:pt>
               </c:numCache>
@@ -5058,13 +5082,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K142"/>
+  <dimension ref="A1:K143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I143" sqref="I143"/>
+      <selection pane="bottomRight" activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10339,6 +10363,43 @@
         <v>526</v>
       </c>
       <c r="K142" s="7">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>44965</v>
+      </c>
+      <c r="B143" s="2">
+        <v>9</v>
+      </c>
+      <c r="C143">
+        <f t="shared" ref="C143" si="203">SUM(D143:F143)</f>
+        <v>1673</v>
+      </c>
+      <c r="D143">
+        <v>1105</v>
+      </c>
+      <c r="E143">
+        <v>371</v>
+      </c>
+      <c r="F143" s="3">
+        <v>197</v>
+      </c>
+      <c r="G143" s="4">
+        <v>51</v>
+      </c>
+      <c r="H143">
+        <f t="shared" ref="H143" si="204">SUM(I143:K143)</f>
+        <v>4651</v>
+      </c>
+      <c r="I143" s="5">
+        <v>3656</v>
+      </c>
+      <c r="J143" s="6">
+        <v>527</v>
+      </c>
+      <c r="K143" s="7">
         <v>468</v>
       </c>
     </row>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1DD8A2-7F40-624A-B13C-540AE330684A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22934EF-1BAA-4845-9556-999069DD46F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -686,6 +686,9 @@
                 <c:pt idx="140">
                   <c:v>44965</c:v>
                 </c:pt>
+                <c:pt idx="141">
+                  <c:v>44968</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1117,6 +1120,9 @@
                 </c:pt>
                 <c:pt idx="140">
                   <c:v>4651</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1587,6 +1593,9 @@
                 <c:pt idx="140">
                   <c:v>44965</c:v>
                 </c:pt>
+                <c:pt idx="141">
+                  <c:v>44968</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2018,6 +2027,9 @@
                 </c:pt>
                 <c:pt idx="140">
                   <c:v>3656</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2490,6 +2502,9 @@
                 <c:pt idx="140">
                   <c:v>44965</c:v>
                 </c:pt>
+                <c:pt idx="141">
+                  <c:v>44968</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2921,6 +2936,9 @@
                 </c:pt>
                 <c:pt idx="140">
                   <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3424,6 +3442,9 @@
                 <c:pt idx="140">
                   <c:v>44965</c:v>
                 </c:pt>
+                <c:pt idx="141">
+                  <c:v>44968</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3855,6 +3876,9 @@
                 </c:pt>
                 <c:pt idx="140">
                   <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>470</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5082,13 +5106,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:K144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I144" sqref="I144"/>
+      <selection pane="bottomRight" activeCell="I145" sqref="I145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10401,6 +10425,43 @@
       </c>
       <c r="K143" s="7">
         <v>468</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B144" s="2">
+        <v>9</v>
+      </c>
+      <c r="C144">
+        <f t="shared" ref="C144" si="205">SUM(D144:F144)</f>
+        <v>1673</v>
+      </c>
+      <c r="D144">
+        <v>1105</v>
+      </c>
+      <c r="E144">
+        <v>371</v>
+      </c>
+      <c r="F144" s="3">
+        <v>197</v>
+      </c>
+      <c r="G144" s="4">
+        <v>51</v>
+      </c>
+      <c r="H144">
+        <f t="shared" ref="H144" si="206">SUM(I144:K144)</f>
+        <v>4696</v>
+      </c>
+      <c r="I144" s="5">
+        <v>3697</v>
+      </c>
+      <c r="J144" s="6">
+        <v>529</v>
+      </c>
+      <c r="K144" s="7">
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22934EF-1BAA-4845-9556-999069DD46F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9A96C4-D039-2741-8359-10DE8B049291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -689,6 +689,9 @@
                 <c:pt idx="141">
                   <c:v>44968</c:v>
                 </c:pt>
+                <c:pt idx="142">
+                  <c:v>44971</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1123,6 +1126,9 @@
                 </c:pt>
                 <c:pt idx="141">
                   <c:v>4696</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1596,6 +1602,9 @@
                 <c:pt idx="141">
                   <c:v>44968</c:v>
                 </c:pt>
+                <c:pt idx="142">
+                  <c:v>44971</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2030,6 +2039,9 @@
                 </c:pt>
                 <c:pt idx="141">
                   <c:v>3697</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2505,6 +2517,9 @@
                 <c:pt idx="141">
                   <c:v>44968</c:v>
                 </c:pt>
+                <c:pt idx="142">
+                  <c:v>44971</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2938,6 +2953,9 @@
                   <c:v>527</c:v>
                 </c:pt>
                 <c:pt idx="141">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="142">
                   <c:v>529</c:v>
                 </c:pt>
               </c:numCache>
@@ -3445,6 +3463,9 @@
                 <c:pt idx="141">
                   <c:v>44968</c:v>
                 </c:pt>
+                <c:pt idx="142">
+                  <c:v>44971</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3878,6 +3899,9 @@
                   <c:v>468</c:v>
                 </c:pt>
                 <c:pt idx="141">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="142">
                   <c:v>470</c:v>
                 </c:pt>
               </c:numCache>
@@ -5106,13 +5130,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K144"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I145" sqref="I145"/>
+      <selection pane="bottomRight" activeCell="I146" sqref="I146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10461,6 +10485,43 @@
         <v>529</v>
       </c>
       <c r="K144" s="7">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B145" s="2">
+        <v>9</v>
+      </c>
+      <c r="C145">
+        <f t="shared" ref="C145" si="207">SUM(D145:F145)</f>
+        <v>1673</v>
+      </c>
+      <c r="D145">
+        <v>1105</v>
+      </c>
+      <c r="E145">
+        <v>371</v>
+      </c>
+      <c r="F145" s="3">
+        <v>197</v>
+      </c>
+      <c r="G145" s="4">
+        <v>51</v>
+      </c>
+      <c r="H145">
+        <f t="shared" ref="H145" si="208">SUM(I145:K145)</f>
+        <v>4699</v>
+      </c>
+      <c r="I145" s="5">
+        <v>3700</v>
+      </c>
+      <c r="J145" s="6">
+        <v>529</v>
+      </c>
+      <c r="K145" s="7">
         <v>470</v>
       </c>
     </row>
@@ -10481,7 +10542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9A96C4-D039-2741-8359-10DE8B049291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2226D53-BDCB-DB48-948E-67004ADB739A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
     <sheet name="Graph" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Table!$A$3:$A$149</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Table!$H$3:$H$149</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Table!$I$3:$I$149</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Table!$J$3:$J$149</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Table!$K$3:$K$149</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Table!$A$3:$A$149</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Table!$H$3:$H$149</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Table!$I$3:$I$149</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Table!$J$3:$J$149</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Table!$K$3:$K$149</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -692,6 +704,9 @@
                 <c:pt idx="142">
                   <c:v>44971</c:v>
                 </c:pt>
+                <c:pt idx="143">
+                  <c:v>44972</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1129,6 +1144,9 @@
                 </c:pt>
                 <c:pt idx="142">
                   <c:v>4699</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1605,6 +1623,9 @@
                 <c:pt idx="142">
                   <c:v>44971</c:v>
                 </c:pt>
+                <c:pt idx="143">
+                  <c:v>44972</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2042,6 +2063,9 @@
                 </c:pt>
                 <c:pt idx="142">
                   <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2520,6 +2544,9 @@
                 <c:pt idx="142">
                   <c:v>44971</c:v>
                 </c:pt>
+                <c:pt idx="143">
+                  <c:v>44972</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2956,6 +2983,9 @@
                   <c:v>529</c:v>
                 </c:pt>
                 <c:pt idx="142">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="143">
                   <c:v>529</c:v>
                 </c:pt>
               </c:numCache>
@@ -3001,19 +3031,7 @@
           <c:dPt>
             <c:idx val="61"/>
             <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
+              <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3466,6 +3484,9 @@
                 <c:pt idx="142">
                   <c:v>44971</c:v>
                 </c:pt>
+                <c:pt idx="143">
+                  <c:v>44972</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3902,6 +3923,9 @@
                   <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="142">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="143">
                   <c:v>470</c:v>
                 </c:pt>
               </c:numCache>
@@ -3948,7 +3972,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="[$]\ mmm\ d\,\ yyyy;@" c16r2:formatcode2="[$-en-NL,1]\ mmm\ d\,\ yyyy;@" sourceLinked="0"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -4147,8 +4171,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.6393516697157211"/>
           <c:y val="0.59630513927694528"/>
-          <c:w val="8.6045271289377251E-2"/>
-          <c:h val="0.14401330501945014"/>
+          <c:w val="7.1125922625114371E-2"/>
+          <c:h val="0.1179698432124137"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5130,13 +5154,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K145"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I146" sqref="I146"/>
+      <selection pane="bottomRight" activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10522,6 +10546,43 @@
         <v>529</v>
       </c>
       <c r="K145" s="7">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>44972</v>
+      </c>
+      <c r="B146" s="2">
+        <v>9</v>
+      </c>
+      <c r="C146">
+        <f t="shared" ref="C146" si="209">SUM(D146:F146)</f>
+        <v>1673</v>
+      </c>
+      <c r="D146">
+        <v>1105</v>
+      </c>
+      <c r="E146">
+        <v>371</v>
+      </c>
+      <c r="F146" s="3">
+        <v>197</v>
+      </c>
+      <c r="G146" s="4">
+        <v>51</v>
+      </c>
+      <c r="H146">
+        <f t="shared" ref="H146" si="210">SUM(I146:K146)</f>
+        <v>4706</v>
+      </c>
+      <c r="I146" s="5">
+        <v>3707</v>
+      </c>
+      <c r="J146" s="6">
+        <v>529</v>
+      </c>
+      <c r="K146" s="7">
         <v>470</v>
       </c>
     </row>
@@ -10542,7 +10603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2226D53-BDCB-DB48-948E-67004ADB739A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C9C59A-8C73-2445-A5C7-53E5F27D483F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -16,18 +16,6 @@
     <sheet name="Table" sheetId="1" r:id="rId1"/>
     <sheet name="Graph" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Table!$A$3:$A$149</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Table!$H$3:$H$149</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Table!$I$3:$I$149</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Table!$J$3:$J$149</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Table!$K$3:$K$149</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Table!$A$3:$A$149</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Table!$H$3:$H$149</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Table!$I$3:$I$149</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Table!$J$3:$J$149</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Table!$K$3:$K$149</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -707,6 +695,9 @@
                 <c:pt idx="143">
                   <c:v>44972</c:v>
                 </c:pt>
+                <c:pt idx="144">
+                  <c:v>44974</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1147,6 +1138,9 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>4706</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1626,6 +1620,9 @@
                 <c:pt idx="143">
                   <c:v>44972</c:v>
                 </c:pt>
+                <c:pt idx="144">
+                  <c:v>44974</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2065,6 +2062,9 @@
                   <c:v>3700</c:v>
                 </c:pt>
                 <c:pt idx="143">
+                  <c:v>3707</c:v>
+                </c:pt>
+                <c:pt idx="144">
                   <c:v>3707</c:v>
                 </c:pt>
               </c:numCache>
@@ -2547,6 +2547,9 @@
                 <c:pt idx="143">
                   <c:v>44972</c:v>
                 </c:pt>
+                <c:pt idx="144">
+                  <c:v>44974</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2987,6 +2990,9 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3487,6 +3493,9 @@
                 <c:pt idx="143">
                   <c:v>44972</c:v>
                 </c:pt>
+                <c:pt idx="144">
+                  <c:v>44974</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3927,6 +3936,9 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5154,13 +5166,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:K147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A147" sqref="A147"/>
+      <selection pane="bottomRight" activeCell="I148" sqref="I148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10584,6 +10596,43 @@
       </c>
       <c r="K146" s="7">
         <v>470</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B147" s="2">
+        <v>9</v>
+      </c>
+      <c r="C147">
+        <f t="shared" ref="C147" si="211">SUM(D147:F147)</f>
+        <v>1673</v>
+      </c>
+      <c r="D147">
+        <v>1105</v>
+      </c>
+      <c r="E147">
+        <v>371</v>
+      </c>
+      <c r="F147" s="3">
+        <v>197</v>
+      </c>
+      <c r="G147" s="4">
+        <v>52</v>
+      </c>
+      <c r="H147">
+        <f t="shared" ref="H147" si="212">SUM(I147:K147)</f>
+        <v>4722</v>
+      </c>
+      <c r="I147" s="5">
+        <v>3707</v>
+      </c>
+      <c r="J147" s="6">
+        <v>540</v>
+      </c>
+      <c r="K147" s="7">
+        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C9C59A-8C73-2445-A5C7-53E5F27D483F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB981222-28B7-A54D-B0B9-C5BD043BB908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -698,6 +698,9 @@
                 <c:pt idx="144">
                   <c:v>44974</c:v>
                 </c:pt>
+                <c:pt idx="145">
+                  <c:v>44975</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1141,6 +1144,9 @@
                 </c:pt>
                 <c:pt idx="144">
                   <c:v>4722</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1623,6 +1629,9 @@
                 <c:pt idx="144">
                   <c:v>44974</c:v>
                 </c:pt>
+                <c:pt idx="145">
+                  <c:v>44975</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2066,6 +2075,9 @@
                 </c:pt>
                 <c:pt idx="144">
                   <c:v>3707</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2550,6 +2562,9 @@
                 <c:pt idx="144">
                   <c:v>44974</c:v>
                 </c:pt>
+                <c:pt idx="145">
+                  <c:v>44975</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2993,6 +3008,9 @@
                 </c:pt>
                 <c:pt idx="144">
                   <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3496,6 +3514,9 @@
                 <c:pt idx="144">
                   <c:v>44974</c:v>
                 </c:pt>
+                <c:pt idx="145">
+                  <c:v>44975</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3938,6 +3959,9 @@
                   <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="144">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="145">
                   <c:v>475</c:v>
                 </c:pt>
               </c:numCache>
@@ -5166,13 +5190,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K147"/>
+  <dimension ref="A1:K148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I148" sqref="I148"/>
+      <selection pane="bottomRight" activeCell="P101" sqref="P101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10632,6 +10656,43 @@
         <v>540</v>
       </c>
       <c r="K147" s="7">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>44975</v>
+      </c>
+      <c r="B148" s="2">
+        <v>9</v>
+      </c>
+      <c r="C148">
+        <f t="shared" ref="C148" si="213">SUM(D148:F148)</f>
+        <v>1673</v>
+      </c>
+      <c r="D148">
+        <v>1105</v>
+      </c>
+      <c r="E148">
+        <v>371</v>
+      </c>
+      <c r="F148" s="3">
+        <v>197</v>
+      </c>
+      <c r="G148" s="4">
+        <v>52</v>
+      </c>
+      <c r="H148">
+        <f t="shared" ref="H148" si="214">SUM(I148:K148)</f>
+        <v>4735</v>
+      </c>
+      <c r="I148" s="5">
+        <v>3716</v>
+      </c>
+      <c r="J148" s="6">
+        <v>544</v>
+      </c>
+      <c r="K148" s="7">
         <v>475</v>
       </c>
     </row>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB981222-28B7-A54D-B0B9-C5BD043BB908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA9B5CB-48BE-2F46-BE3B-8C02FF627F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -701,6 +701,9 @@
                 <c:pt idx="145">
                   <c:v>44975</c:v>
                 </c:pt>
+                <c:pt idx="146">
+                  <c:v>44976</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1147,6 +1150,9 @@
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>4735</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1632,6 +1638,9 @@
                 <c:pt idx="145">
                   <c:v>44975</c:v>
                 </c:pt>
+                <c:pt idx="146">
+                  <c:v>44976</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2078,6 +2087,9 @@
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>3716</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2565,6 +2577,9 @@
                 <c:pt idx="145">
                   <c:v>44975</c:v>
                 </c:pt>
+                <c:pt idx="146">
+                  <c:v>44976</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3010,6 +3025,9 @@
                   <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="145">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="146">
                   <c:v>544</c:v>
                 </c:pt>
               </c:numCache>
@@ -3517,6 +3535,9 @@
                 <c:pt idx="145">
                   <c:v>44975</c:v>
                 </c:pt>
+                <c:pt idx="146">
+                  <c:v>44976</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3963,6 +3984,9 @@
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5190,13 +5214,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K148"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P101" sqref="P101"/>
+      <selection pane="bottomRight" activeCell="I151" sqref="I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10694,6 +10718,80 @@
       </c>
       <c r="K148" s="7">
         <v>475</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>44976</v>
+      </c>
+      <c r="B149" s="2">
+        <v>9</v>
+      </c>
+      <c r="C149">
+        <f t="shared" ref="C149" si="215">SUM(D149:F149)</f>
+        <v>1673</v>
+      </c>
+      <c r="D149">
+        <v>1105</v>
+      </c>
+      <c r="E149">
+        <v>371</v>
+      </c>
+      <c r="F149" s="3">
+        <v>197</v>
+      </c>
+      <c r="G149" s="4">
+        <v>52</v>
+      </c>
+      <c r="H149">
+        <f t="shared" ref="H149" si="216">SUM(I149:K149)</f>
+        <v>4744</v>
+      </c>
+      <c r="I149" s="5">
+        <v>3724</v>
+      </c>
+      <c r="J149" s="6">
+        <v>544</v>
+      </c>
+      <c r="K149" s="7">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>44977</v>
+      </c>
+      <c r="B150" s="2">
+        <v>9</v>
+      </c>
+      <c r="C150">
+        <f t="shared" ref="C150" si="217">SUM(D150:F150)</f>
+        <v>1673</v>
+      </c>
+      <c r="D150">
+        <v>1105</v>
+      </c>
+      <c r="E150">
+        <v>371</v>
+      </c>
+      <c r="F150" s="3">
+        <v>197</v>
+      </c>
+      <c r="G150" s="4">
+        <v>52</v>
+      </c>
+      <c r="H150">
+        <f t="shared" ref="H150" si="218">SUM(I150:K150)</f>
+        <v>5767</v>
+      </c>
+      <c r="I150" s="5">
+        <v>4747</v>
+      </c>
+      <c r="J150" s="6">
+        <v>544</v>
+      </c>
+      <c r="K150" s="7">
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA9B5CB-48BE-2F46-BE3B-8C02FF627F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57933A3F-D29A-1649-9A1A-CC31DAC9CE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -259,10 +259,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$A$3:$A$149</c:f>
+              <c:f>Table!$A$3:$A$200</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="147"/>
+                <c:ptCount val="198"/>
                 <c:pt idx="0">
                   <c:v>44380</c:v>
                 </c:pt>
@@ -703,16 +703,22 @@
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>44976</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44977</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$H$3:$H$149</c:f>
+              <c:f>Table!$H$3:$H$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="147"/>
+                <c:ptCount val="198"/>
                 <c:pt idx="0">
                   <c:v>340</c:v>
                 </c:pt>
@@ -1153,6 +1159,12 @@
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>4744</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4746</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1196,10 +1208,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$A$3:$A$149</c:f>
+              <c:f>Table!$A$3:$A$200</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="147"/>
+                <c:ptCount val="198"/>
                 <c:pt idx="0">
                   <c:v>44380</c:v>
                 </c:pt>
@@ -1640,16 +1652,22 @@
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>44976</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44977</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$I$3:$I$149</c:f>
+              <c:f>Table!$I$3:$I$200</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="147"/>
+                <c:ptCount val="198"/>
                 <c:pt idx="0">
                   <c:v>239</c:v>
                 </c:pt>
@@ -2090,6 +2108,12 @@
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>3724</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3726</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2135,10 +2159,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$A$3:$A$149</c:f>
+              <c:f>Table!$A$3:$A$200</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="147"/>
+                <c:ptCount val="198"/>
                 <c:pt idx="0">
                   <c:v>44380</c:v>
                 </c:pt>
@@ -2579,16 +2603,22 @@
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>44976</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44977</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$J$3:$J$149</c:f>
+              <c:f>Table!$J$3:$J$200</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="147"/>
+                <c:ptCount val="198"/>
                 <c:pt idx="0">
                   <c:v>61</c:v>
                 </c:pt>
@@ -3028,6 +3058,12 @@
                   <c:v>544</c:v>
                 </c:pt>
                 <c:pt idx="146">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="148">
                   <c:v>544</c:v>
                 </c:pt>
               </c:numCache>
@@ -3093,10 +3129,10 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>Table!$A$3:$A$149</c:f>
+              <c:f>Table!$A$3:$A$200</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="147"/>
+                <c:ptCount val="198"/>
                 <c:pt idx="0">
                   <c:v>44380</c:v>
                 </c:pt>
@@ -3537,16 +3573,22 @@
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>44976</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44977</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Table!$K$3:$K$149</c:f>
+              <c:f>Table!$K$3:$K$200</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="147"/>
+                <c:ptCount val="198"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -3987,6 +4029,12 @@
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5214,13 +5262,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K150"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I151" sqref="I151"/>
+      <selection pane="bottomRight" activeCell="I152" sqref="I152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10782,16 +10830,53 @@
       </c>
       <c r="H150">
         <f t="shared" ref="H150" si="218">SUM(I150:K150)</f>
-        <v>5767</v>
+        <v>4746</v>
       </c>
       <c r="I150" s="5">
-        <v>4747</v>
+        <v>3726</v>
       </c>
       <c r="J150" s="6">
         <v>544</v>
       </c>
       <c r="K150" s="7">
         <v>476</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>44979</v>
+      </c>
+      <c r="B151" s="2">
+        <v>9</v>
+      </c>
+      <c r="C151">
+        <f t="shared" ref="C151" si="219">SUM(D151:F151)</f>
+        <v>1673</v>
+      </c>
+      <c r="D151">
+        <v>1105</v>
+      </c>
+      <c r="E151">
+        <v>371</v>
+      </c>
+      <c r="F151" s="3">
+        <v>197</v>
+      </c>
+      <c r="G151" s="4">
+        <v>52</v>
+      </c>
+      <c r="H151">
+        <f t="shared" ref="H151" si="220">SUM(I151:K151)</f>
+        <v>4747</v>
+      </c>
+      <c r="I151" s="5">
+        <v>3726</v>
+      </c>
+      <c r="J151" s="6">
+        <v>544</v>
+      </c>
+      <c r="K151" s="7">
+        <v>477</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57933A3F-D29A-1649-9A1A-CC31DAC9CE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E23BDF-21BD-D844-BA4C-FC446F9F10AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26560" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -710,6 +710,9 @@
                 <c:pt idx="148">
                   <c:v>44979</c:v>
                 </c:pt>
+                <c:pt idx="149">
+                  <c:v>44983</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1165,6 +1168,9 @@
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>4747</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1659,6 +1665,9 @@
                 <c:pt idx="148">
                   <c:v>44979</c:v>
                 </c:pt>
+                <c:pt idx="149">
+                  <c:v>44983</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2114,6 +2123,9 @@
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>3726</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2610,6 +2622,9 @@
                 <c:pt idx="148">
                   <c:v>44979</c:v>
                 </c:pt>
+                <c:pt idx="149">
+                  <c:v>44983</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3065,6 +3080,9 @@
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3580,6 +3598,9 @@
                 <c:pt idx="148">
                   <c:v>44979</c:v>
                 </c:pt>
+                <c:pt idx="149">
+                  <c:v>44983</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4035,6 +4056,9 @@
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5262,13 +5286,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I152" sqref="I152"/>
+      <selection pane="bottomRight" activeCell="I153" sqref="I153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10877,6 +10901,43 @@
       </c>
       <c r="K151" s="7">
         <v>477</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>44983</v>
+      </c>
+      <c r="B152" s="2">
+        <v>9</v>
+      </c>
+      <c r="C152">
+        <f t="shared" ref="C152" si="221">SUM(D152:F152)</f>
+        <v>1673</v>
+      </c>
+      <c r="D152">
+        <v>1105</v>
+      </c>
+      <c r="E152">
+        <v>371</v>
+      </c>
+      <c r="F152" s="3">
+        <v>197</v>
+      </c>
+      <c r="G152" s="4">
+        <v>52</v>
+      </c>
+      <c r="H152">
+        <f t="shared" ref="H152" si="222">SUM(I152:K152)</f>
+        <v>4784</v>
+      </c>
+      <c r="I152" s="5">
+        <v>3746</v>
+      </c>
+      <c r="J152" s="6">
+        <v>549</v>
+      </c>
+      <c r="K152" s="7">
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E23BDF-21BD-D844-BA4C-FC446F9F10AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA17142-C9CE-2E44-B771-9C3DBE8E6483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -713,6 +713,9 @@
                 <c:pt idx="149">
                   <c:v>44983</c:v>
                 </c:pt>
+                <c:pt idx="150">
+                  <c:v>44989</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1171,6 +1174,9 @@
                 </c:pt>
                 <c:pt idx="149">
                   <c:v>4784</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1668,6 +1674,9 @@
                 <c:pt idx="149">
                   <c:v>44983</c:v>
                 </c:pt>
+                <c:pt idx="150">
+                  <c:v>44989</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2126,6 +2135,9 @@
                 </c:pt>
                 <c:pt idx="149">
                   <c:v>3746</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2625,6 +2637,9 @@
                 <c:pt idx="149">
                   <c:v>44983</c:v>
                 </c:pt>
+                <c:pt idx="150">
+                  <c:v>44989</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3083,6 +3098,9 @@
                 </c:pt>
                 <c:pt idx="149">
                   <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3601,6 +3619,9 @@
                 <c:pt idx="149">
                   <c:v>44983</c:v>
                 </c:pt>
+                <c:pt idx="150">
+                  <c:v>44989</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4058,6 +4079,9 @@
                   <c:v>477</c:v>
                 </c:pt>
                 <c:pt idx="149">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="150">
                   <c:v>489</c:v>
                 </c:pt>
               </c:numCache>
@@ -4085,7 +4109,7 @@
         <c:axId val="1582352671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44990"/>
+          <c:max val="45000"/>
           <c:min val="44379"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5286,13 +5310,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I153" sqref="I153"/>
+      <selection pane="bottomRight" activeCell="N150" sqref="N150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10937,6 +10961,43 @@
         <v>549</v>
       </c>
       <c r="K152" s="7">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>44989</v>
+      </c>
+      <c r="B153" s="2">
+        <v>9</v>
+      </c>
+      <c r="C153">
+        <f t="shared" ref="C153" si="223">SUM(D153:F153)</f>
+        <v>1673</v>
+      </c>
+      <c r="D153">
+        <v>1105</v>
+      </c>
+      <c r="E153">
+        <v>371</v>
+      </c>
+      <c r="F153" s="3">
+        <v>197</v>
+      </c>
+      <c r="G153" s="4">
+        <v>52</v>
+      </c>
+      <c r="H153">
+        <f t="shared" ref="H153" si="224">SUM(I153:K153)</f>
+        <v>4801</v>
+      </c>
+      <c r="I153" s="5">
+        <v>3750</v>
+      </c>
+      <c r="J153" s="6">
+        <v>562</v>
+      </c>
+      <c r="K153" s="7">
         <v>489</v>
       </c>
     </row>
@@ -10958,7 +11019,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA17142-C9CE-2E44-B771-9C3DBE8E6483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE33628-24C2-2D40-9BC6-F9725D2EFAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26440" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -716,6 +716,9 @@
                 <c:pt idx="150">
                   <c:v>44989</c:v>
                 </c:pt>
+                <c:pt idx="151">
+                  <c:v>44990</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1177,6 +1180,9 @@
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>4801</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1677,6 +1683,9 @@
                 <c:pt idx="150">
                   <c:v>44989</c:v>
                 </c:pt>
+                <c:pt idx="151">
+                  <c:v>44990</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2138,6 +2147,9 @@
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2640,6 +2652,9 @@
                 <c:pt idx="150">
                   <c:v>44989</c:v>
                 </c:pt>
+                <c:pt idx="151">
+                  <c:v>44990</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3101,6 +3116,9 @@
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3622,6 +3640,9 @@
                 <c:pt idx="150">
                   <c:v>44989</c:v>
                 </c:pt>
+                <c:pt idx="151">
+                  <c:v>44990</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4083,6 +4104,9 @@
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5310,13 +5334,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N150" sqref="N150"/>
+      <selection pane="bottomRight" activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10999,6 +11023,43 @@
       </c>
       <c r="K153" s="7">
         <v>489</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>44990</v>
+      </c>
+      <c r="B154" s="2">
+        <v>9</v>
+      </c>
+      <c r="C154">
+        <f t="shared" ref="C154" si="225">SUM(D154:F154)</f>
+        <v>1673</v>
+      </c>
+      <c r="D154">
+        <v>1105</v>
+      </c>
+      <c r="E154">
+        <v>371</v>
+      </c>
+      <c r="F154" s="3">
+        <v>197</v>
+      </c>
+      <c r="G154" s="4">
+        <v>53</v>
+      </c>
+      <c r="H154">
+        <f t="shared" ref="H154" si="226">SUM(I154:K154)</f>
+        <v>4826</v>
+      </c>
+      <c r="I154" s="5">
+        <v>3778</v>
+      </c>
+      <c r="J154" s="6">
+        <v>564</v>
+      </c>
+      <c r="K154" s="7">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -11018,7 +11079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE33628-24C2-2D40-9BC6-F9725D2EFAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AEF3ED-7F0E-5B4D-8824-E0E92AE28CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26440" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -719,6 +719,9 @@
                 <c:pt idx="151">
                   <c:v>44990</c:v>
                 </c:pt>
+                <c:pt idx="152">
+                  <c:v>44991</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1183,6 +1186,9 @@
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>4826</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1686,6 +1692,9 @@
                 <c:pt idx="151">
                   <c:v>44990</c:v>
                 </c:pt>
+                <c:pt idx="152">
+                  <c:v>44991</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2150,6 +2159,9 @@
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>3778</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2655,6 +2667,9 @@
                 <c:pt idx="151">
                   <c:v>44990</c:v>
                 </c:pt>
+                <c:pt idx="152">
+                  <c:v>44991</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3119,6 +3134,9 @@
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3643,6 +3661,9 @@
                 <c:pt idx="151">
                   <c:v>44990</c:v>
                 </c:pt>
+                <c:pt idx="152">
+                  <c:v>44991</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4107,6 +4128,9 @@
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5334,13 +5358,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K154"/>
+  <dimension ref="A1:K155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G155" sqref="G155"/>
+      <selection pane="bottomRight" activeCell="M155" sqref="M155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11060,6 +11084,43 @@
       </c>
       <c r="K154" s="7">
         <v>484</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>44991</v>
+      </c>
+      <c r="B155" s="2">
+        <v>9</v>
+      </c>
+      <c r="C155">
+        <f t="shared" ref="C155" si="227">SUM(D155:F155)</f>
+        <v>1673</v>
+      </c>
+      <c r="D155">
+        <v>1105</v>
+      </c>
+      <c r="E155">
+        <v>371</v>
+      </c>
+      <c r="F155" s="3">
+        <v>197</v>
+      </c>
+      <c r="G155" s="4">
+        <v>53</v>
+      </c>
+      <c r="H155">
+        <f t="shared" ref="H155" si="228">SUM(I155:K155)</f>
+        <v>4862</v>
+      </c>
+      <c r="I155" s="5">
+        <v>3809</v>
+      </c>
+      <c r="J155" s="6">
+        <v>570</v>
+      </c>
+      <c r="K155" s="7">
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AEF3ED-7F0E-5B4D-8824-E0E92AE28CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F9E0BD-FBA2-8040-BAA4-DF1A92A7E300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26440" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -722,6 +722,9 @@
                 <c:pt idx="152">
                   <c:v>44991</c:v>
                 </c:pt>
+                <c:pt idx="153">
+                  <c:v>44992</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1189,6 +1192,9 @@
                 </c:pt>
                 <c:pt idx="152">
                   <c:v>4862</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1695,6 +1701,9 @@
                 <c:pt idx="152">
                   <c:v>44991</c:v>
                 </c:pt>
+                <c:pt idx="153">
+                  <c:v>44992</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2162,6 +2171,9 @@
                 </c:pt>
                 <c:pt idx="152">
                   <c:v>3809</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2670,6 +2682,9 @@
                 <c:pt idx="152">
                   <c:v>44991</c:v>
                 </c:pt>
+                <c:pt idx="153">
+                  <c:v>44992</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3137,6 +3152,9 @@
                 </c:pt>
                 <c:pt idx="152">
                   <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3664,6 +3682,9 @@
                 <c:pt idx="152">
                   <c:v>44991</c:v>
                 </c:pt>
+                <c:pt idx="153">
+                  <c:v>44992</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4131,6 +4152,9 @@
                 </c:pt>
                 <c:pt idx="152">
                   <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5358,13 +5382,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K155"/>
+  <dimension ref="A1:K156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M155" sqref="M155"/>
+      <selection pane="bottomRight" activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11121,6 +11145,43 @@
       </c>
       <c r="K155" s="7">
         <v>483</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>44992</v>
+      </c>
+      <c r="B156" s="2">
+        <v>9</v>
+      </c>
+      <c r="C156">
+        <f t="shared" ref="C156" si="229">SUM(D156:F156)</f>
+        <v>1673</v>
+      </c>
+      <c r="D156">
+        <v>1105</v>
+      </c>
+      <c r="E156">
+        <v>371</v>
+      </c>
+      <c r="F156" s="3">
+        <v>197</v>
+      </c>
+      <c r="G156" s="4">
+        <v>53</v>
+      </c>
+      <c r="H156">
+        <f t="shared" ref="H156" si="230">SUM(I156:K156)</f>
+        <v>4872</v>
+      </c>
+      <c r="I156" s="5">
+        <v>3823</v>
+      </c>
+      <c r="J156" s="6">
+        <v>564</v>
+      </c>
+      <c r="K156" s="7">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -11140,7 +11201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F9E0BD-FBA2-8040-BAA4-DF1A92A7E300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78AAD03-3A40-544A-93E7-A2D34FD2C2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -725,6 +725,9 @@
                 <c:pt idx="153">
                   <c:v>44992</c:v>
                 </c:pt>
+                <c:pt idx="154">
+                  <c:v>44996</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1195,6 +1198,9 @@
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>4872</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1704,6 +1710,9 @@
                 <c:pt idx="153">
                   <c:v>44992</c:v>
                 </c:pt>
+                <c:pt idx="154">
+                  <c:v>44996</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2174,6 +2183,9 @@
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>3823</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2685,6 +2697,9 @@
                 <c:pt idx="153">
                   <c:v>44992</c:v>
                 </c:pt>
+                <c:pt idx="154">
+                  <c:v>44996</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3154,6 +3169,9 @@
                   <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="153">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="154">
                   <c:v>564</c:v>
                 </c:pt>
               </c:numCache>
@@ -3685,6 +3703,9 @@
                 <c:pt idx="153">
                   <c:v>44992</c:v>
                 </c:pt>
+                <c:pt idx="154">
+                  <c:v>44996</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4155,6 +4176,9 @@
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5382,13 +5406,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K156"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I157" sqref="I157"/>
+      <selection pane="bottomRight" activeCell="I158" sqref="I158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11182,6 +11206,43 @@
       </c>
       <c r="K156" s="7">
         <v>485</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>44996</v>
+      </c>
+      <c r="B157" s="2">
+        <v>9</v>
+      </c>
+      <c r="C157">
+        <f t="shared" ref="C157" si="231">SUM(D157:F157)</f>
+        <v>1673</v>
+      </c>
+      <c r="D157">
+        <v>1105</v>
+      </c>
+      <c r="E157">
+        <v>371</v>
+      </c>
+      <c r="F157" s="3">
+        <v>197</v>
+      </c>
+      <c r="G157" s="4">
+        <v>53</v>
+      </c>
+      <c r="H157">
+        <f t="shared" ref="H157" si="232">SUM(I157:K157)</f>
+        <v>4899</v>
+      </c>
+      <c r="I157" s="5">
+        <v>3853</v>
+      </c>
+      <c r="J157" s="6">
+        <v>564</v>
+      </c>
+      <c r="K157" s="7">
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78AAD03-3A40-544A-93E7-A2D34FD2C2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CB58C4-2793-2A4C-947B-AB71A7742471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="1860" yWindow="880" windowWidth="35220" windowHeight="26440" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -728,6 +728,9 @@
                 <c:pt idx="154">
                   <c:v>44996</c:v>
                 </c:pt>
+                <c:pt idx="155">
+                  <c:v>44997</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1201,6 +1204,9 @@
                 </c:pt>
                 <c:pt idx="154">
                   <c:v>4899</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1713,6 +1719,9 @@
                 <c:pt idx="154">
                   <c:v>44996</c:v>
                 </c:pt>
+                <c:pt idx="155">
+                  <c:v>44997</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2186,6 +2195,9 @@
                 </c:pt>
                 <c:pt idx="154">
                   <c:v>3853</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2700,6 +2712,9 @@
                 <c:pt idx="154">
                   <c:v>44996</c:v>
                 </c:pt>
+                <c:pt idx="155">
+                  <c:v>44997</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3172,6 +3187,9 @@
                   <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="154">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="155">
                   <c:v>564</c:v>
                 </c:pt>
               </c:numCache>
@@ -3706,6 +3724,9 @@
                 <c:pt idx="154">
                   <c:v>44996</c:v>
                 </c:pt>
+                <c:pt idx="155">
+                  <c:v>44997</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4179,6 +4200,9 @@
                 </c:pt>
                 <c:pt idx="154">
                   <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5406,13 +5430,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K157"/>
+  <dimension ref="A1:K158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I158" sqref="I158"/>
+      <selection pane="bottomRight" activeCell="N151" sqref="N151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11243,6 +11267,43 @@
       </c>
       <c r="K157" s="7">
         <v>482</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>44997</v>
+      </c>
+      <c r="B158" s="2">
+        <v>9</v>
+      </c>
+      <c r="C158">
+        <f t="shared" ref="C158" si="233">SUM(D158:F158)</f>
+        <v>1673</v>
+      </c>
+      <c r="D158">
+        <v>1105</v>
+      </c>
+      <c r="E158">
+        <v>371</v>
+      </c>
+      <c r="F158" s="3">
+        <v>197</v>
+      </c>
+      <c r="G158" s="4">
+        <v>53</v>
+      </c>
+      <c r="H158">
+        <f t="shared" ref="H158" si="234">SUM(I158:K158)</f>
+        <v>4914</v>
+      </c>
+      <c r="I158" s="5">
+        <v>3865</v>
+      </c>
+      <c r="J158" s="6">
+        <v>564</v>
+      </c>
+      <c r="K158" s="7">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -11262,7 +11323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CB58C4-2793-2A4C-947B-AB71A7742471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36980DA-7181-1141-8DAD-FEEFFF56F1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="880" windowWidth="35220" windowHeight="26440" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -731,6 +731,9 @@
                 <c:pt idx="155">
                   <c:v>44997</c:v>
                 </c:pt>
+                <c:pt idx="156">
+                  <c:v>45004</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1207,6 +1210,9 @@
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>4914</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4940</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1722,6 +1728,9 @@
                 <c:pt idx="155">
                   <c:v>44997</c:v>
                 </c:pt>
+                <c:pt idx="156">
+                  <c:v>45004</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2198,6 +2207,9 @@
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>3865</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2715,6 +2727,9 @@
                 <c:pt idx="155">
                   <c:v>44997</c:v>
                 </c:pt>
+                <c:pt idx="156">
+                  <c:v>45004</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3190,6 +3205,9 @@
                   <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="155">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="156">
                   <c:v>564</c:v>
                 </c:pt>
               </c:numCache>
@@ -3727,6 +3745,9 @@
                 <c:pt idx="155">
                   <c:v>44997</c:v>
                 </c:pt>
+                <c:pt idx="156">
+                  <c:v>45004</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4203,6 +4224,9 @@
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4229,7 +4253,7 @@
         <c:axId val="1582352671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45000"/>
+          <c:max val="45015"/>
           <c:min val="44379"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4295,7 +4319,7 @@
         <c:axId val="1582338719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5000"/>
+          <c:max val="5500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5430,13 +5454,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K158"/>
+  <dimension ref="A1:K159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N151" sqref="N151"/>
+      <selection pane="bottomRight" activeCell="N149" sqref="N149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11304,6 +11328,43 @@
       </c>
       <c r="K158" s="7">
         <v>485</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>45004</v>
+      </c>
+      <c r="B159" s="2">
+        <v>9</v>
+      </c>
+      <c r="C159">
+        <f t="shared" ref="C159" si="235">SUM(D159:F159)</f>
+        <v>1673</v>
+      </c>
+      <c r="D159">
+        <v>1105</v>
+      </c>
+      <c r="E159">
+        <v>371</v>
+      </c>
+      <c r="F159" s="3">
+        <v>197</v>
+      </c>
+      <c r="G159" s="4">
+        <v>56</v>
+      </c>
+      <c r="H159">
+        <f t="shared" ref="H159" si="236">SUM(I159:K159)</f>
+        <v>4940</v>
+      </c>
+      <c r="I159" s="5">
+        <v>3889</v>
+      </c>
+      <c r="J159" s="6">
+        <v>564</v>
+      </c>
+      <c r="K159" s="7">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -11323,7 +11384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36980DA-7181-1141-8DAD-FEEFFF56F1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25D2366-891C-A44E-A5AC-263FF0A1E5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -218,10 +218,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.1022188322599515E-2"/>
-          <c:y val="1.6163437505872624E-2"/>
+          <c:x val="6.2226293808397372E-2"/>
+          <c:y val="1.6163437781421017E-2"/>
           <c:w val="0.91000114697971568"/>
-          <c:h val="0.88298472151990171"/>
+          <c:h val="0.89275990794405835"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -734,6 +734,9 @@
                 <c:pt idx="156">
                   <c:v>45004</c:v>
                 </c:pt>
+                <c:pt idx="157">
+                  <c:v>45006</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1212,6 +1215,9 @@
                   <c:v>4914</c:v>
                 </c:pt>
                 <c:pt idx="156">
+                  <c:v>4940</c:v>
+                </c:pt>
+                <c:pt idx="157">
                   <c:v>4940</c:v>
                 </c:pt>
               </c:numCache>
@@ -1731,6 +1737,9 @@
                 <c:pt idx="156">
                   <c:v>45004</c:v>
                 </c:pt>
+                <c:pt idx="157">
+                  <c:v>45006</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2209,6 +2218,9 @@
                   <c:v>3865</c:v>
                 </c:pt>
                 <c:pt idx="156">
+                  <c:v>3889</c:v>
+                </c:pt>
+                <c:pt idx="157">
                   <c:v>3889</c:v>
                 </c:pt>
               </c:numCache>
@@ -2730,6 +2742,9 @@
                 <c:pt idx="156">
                   <c:v>45004</c:v>
                 </c:pt>
+                <c:pt idx="157">
+                  <c:v>45006</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3208,6 +3223,9 @@
                   <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="156">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="157">
                   <c:v>564</c:v>
                 </c:pt>
               </c:numCache>
@@ -3748,6 +3766,9 @@
                 <c:pt idx="156">
                   <c:v>45004</c:v>
                 </c:pt>
+                <c:pt idx="157">
+                  <c:v>45006</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4226,6 +4247,9 @@
                   <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="156">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="157">
                   <c:v>487</c:v>
                 </c:pt>
               </c:numCache>
@@ -4290,7 +4314,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4320,6 +4344,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5454,13 +5479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K159"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N149" sqref="N149"/>
+      <selection pane="bottomRight" activeCell="I161" sqref="I161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11364,6 +11389,43 @@
         <v>564</v>
       </c>
       <c r="K159" s="7">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>45006</v>
+      </c>
+      <c r="B160" s="2">
+        <v>9</v>
+      </c>
+      <c r="C160">
+        <f t="shared" ref="C160" si="237">SUM(D160:F160)</f>
+        <v>1673</v>
+      </c>
+      <c r="D160">
+        <v>1105</v>
+      </c>
+      <c r="E160">
+        <v>371</v>
+      </c>
+      <c r="F160" s="3">
+        <v>197</v>
+      </c>
+      <c r="G160" s="4">
+        <v>56</v>
+      </c>
+      <c r="H160">
+        <f t="shared" ref="H160" si="238">SUM(I160:K160)</f>
+        <v>4940</v>
+      </c>
+      <c r="I160" s="5">
+        <v>3889</v>
+      </c>
+      <c r="J160" s="6">
+        <v>564</v>
+      </c>
+      <c r="K160" s="7">
         <v>487</v>
       </c>
     </row>
@@ -11384,8 +11446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25D2366-891C-A44E-A5AC-263FF0A1E5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BD4A69-00F3-4B4E-AF59-F25FFF64EEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -737,6 +737,9 @@
                 <c:pt idx="157">
                   <c:v>45006</c:v>
                 </c:pt>
+                <c:pt idx="158">
+                  <c:v>45007</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1219,6 +1222,9 @@
                 </c:pt>
                 <c:pt idx="157">
                   <c:v>4940</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1739,6 +1745,9 @@
                 </c:pt>
                 <c:pt idx="157">
                   <c:v>45006</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>45007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2744,6 +2753,9 @@
                 </c:pt>
                 <c:pt idx="157">
                   <c:v>45006</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>45007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3769,6 +3781,9 @@
                 <c:pt idx="157">
                   <c:v>45006</c:v>
                 </c:pt>
+                <c:pt idx="158">
+                  <c:v>45007</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4314,7 +4329,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -5479,13 +5494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I161" sqref="I161"/>
+      <selection pane="bottomRight" activeCell="M157" sqref="M157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11427,6 +11442,34 @@
       </c>
       <c r="K160" s="7">
         <v>487</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>45007</v>
+      </c>
+      <c r="B161" s="2">
+        <v>9</v>
+      </c>
+      <c r="C161">
+        <f t="shared" ref="C161" si="239">SUM(D161:F161)</f>
+        <v>1673</v>
+      </c>
+      <c r="D161">
+        <v>1105</v>
+      </c>
+      <c r="E161">
+        <v>371</v>
+      </c>
+      <c r="F161" s="3">
+        <v>197</v>
+      </c>
+      <c r="G161" s="4">
+        <v>57</v>
+      </c>
+      <c r="H161">
+        <f t="shared" ref="H161" si="240">SUM(I161:K161)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BD4A69-00F3-4B4E-AF59-F25FFF64EEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D262EDD-94E4-7C44-8B82-19D7AE75A7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -1224,7 +1224,7 @@
                   <c:v>4940</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0</c:v>
+                  <c:v>4954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2231,6 +2231,9 @@
                 </c:pt>
                 <c:pt idx="157">
                   <c:v>3889</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3239,6 +3242,9 @@
                 </c:pt>
                 <c:pt idx="157">
                   <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4266,6 +4272,9 @@
                 </c:pt>
                 <c:pt idx="157">
                   <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5500,7 +5509,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M157" sqref="M157"/>
+      <selection pane="bottomRight" activeCell="M154" sqref="M154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11444,7 +11453,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>45007</v>
       </c>
@@ -11469,7 +11478,16 @@
       </c>
       <c r="H161">
         <f t="shared" ref="H161" si="240">SUM(I161:K161)</f>
-        <v>0</v>
+        <v>4954</v>
+      </c>
+      <c r="I161" s="5">
+        <v>3895</v>
+      </c>
+      <c r="J161" s="6">
+        <v>570</v>
+      </c>
+      <c r="K161" s="7">
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D262EDD-94E4-7C44-8B82-19D7AE75A7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C080A8-5668-9E45-8001-17D136C0A2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -740,6 +740,9 @@
                 <c:pt idx="158">
                   <c:v>45007</c:v>
                 </c:pt>
+                <c:pt idx="159">
+                  <c:v>45008</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1225,6 +1228,9 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>4954</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1749,6 +1755,9 @@
                 <c:pt idx="158">
                   <c:v>45007</c:v>
                 </c:pt>
+                <c:pt idx="159">
+                  <c:v>45008</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2234,6 +2243,9 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>3895</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2760,6 +2772,9 @@
                 <c:pt idx="158">
                   <c:v>45007</c:v>
                 </c:pt>
+                <c:pt idx="159">
+                  <c:v>45008</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3245,6 +3260,9 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>560</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3790,6 +3808,9 @@
                 <c:pt idx="158">
                   <c:v>45007</c:v>
                 </c:pt>
+                <c:pt idx="159">
+                  <c:v>45008</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4275,6 +4296,9 @@
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5503,13 +5527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K161"/>
+  <dimension ref="A1:K162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M154" sqref="M154"/>
+      <selection pane="bottomRight" activeCell="I163" sqref="I163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11488,6 +11512,43 @@
       </c>
       <c r="K161" s="7">
         <v>489</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>45008</v>
+      </c>
+      <c r="B162" s="2">
+        <v>9</v>
+      </c>
+      <c r="C162">
+        <f t="shared" ref="C162" si="241">SUM(D162:F162)</f>
+        <v>1673</v>
+      </c>
+      <c r="D162">
+        <v>1105</v>
+      </c>
+      <c r="E162">
+        <v>371</v>
+      </c>
+      <c r="F162" s="3">
+        <v>197</v>
+      </c>
+      <c r="G162" s="4">
+        <v>56</v>
+      </c>
+      <c r="H162">
+        <f t="shared" ref="H162" si="242">SUM(I162:K162)</f>
+        <v>4931</v>
+      </c>
+      <c r="I162" s="5">
+        <v>3888</v>
+      </c>
+      <c r="J162" s="6">
+        <v>560</v>
+      </c>
+      <c r="K162" s="7">
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C080A8-5668-9E45-8001-17D136C0A2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352E6813-1C9A-6049-AF4F-050E6245124C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -743,6 +743,9 @@
                 <c:pt idx="159">
                   <c:v>45008</c:v>
                 </c:pt>
+                <c:pt idx="160">
+                  <c:v>45017</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1231,6 +1234,9 @@
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>4931</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1758,6 +1764,9 @@
                 <c:pt idx="159">
                   <c:v>45008</c:v>
                 </c:pt>
+                <c:pt idx="160">
+                  <c:v>45017</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2246,6 +2255,9 @@
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>3888</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2775,6 +2787,9 @@
                 <c:pt idx="159">
                   <c:v>45008</c:v>
                 </c:pt>
+                <c:pt idx="160">
+                  <c:v>45017</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3262,6 +3277,9 @@
                   <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="159">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="160">
                   <c:v>560</c:v>
                 </c:pt>
               </c:numCache>
@@ -3811,6 +3829,9 @@
                 <c:pt idx="159">
                   <c:v>45008</c:v>
                 </c:pt>
+                <c:pt idx="160">
+                  <c:v>45017</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4299,6 +4320,9 @@
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4325,7 +4349,7 @@
         <c:axId val="1582352671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45015"/>
+          <c:max val="45045"/>
           <c:min val="44379"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5527,13 +5551,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K162"/>
+  <dimension ref="A1:K163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I163" sqref="I163"/>
+      <selection pane="bottomRight" activeCell="I164" sqref="I164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11549,6 +11573,43 @@
       </c>
       <c r="K162" s="7">
         <v>483</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B163" s="2">
+        <v>9</v>
+      </c>
+      <c r="C163">
+        <f t="shared" ref="C163" si="243">SUM(D163:F163)</f>
+        <v>1673</v>
+      </c>
+      <c r="D163">
+        <v>1105</v>
+      </c>
+      <c r="E163">
+        <v>371</v>
+      </c>
+      <c r="F163" s="3">
+        <v>197</v>
+      </c>
+      <c r="G163" s="4">
+        <v>56</v>
+      </c>
+      <c r="H163">
+        <f t="shared" ref="H163" si="244">SUM(I163:K163)</f>
+        <v>4898</v>
+      </c>
+      <c r="I163" s="5">
+        <v>3852</v>
+      </c>
+      <c r="J163" s="6">
+        <v>560</v>
+      </c>
+      <c r="K163" s="7">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -11568,7 +11629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352E6813-1C9A-6049-AF4F-050E6245124C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C688D703-DACD-5F42-B55D-5B75C8B2EF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -746,6 +746,9 @@
                 <c:pt idx="160">
                   <c:v>45017</c:v>
                 </c:pt>
+                <c:pt idx="161">
+                  <c:v>45117</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1237,6 +1240,9 @@
                 </c:pt>
                 <c:pt idx="160">
                   <c:v>4898</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1767,6 +1773,9 @@
                 <c:pt idx="160">
                   <c:v>45017</c:v>
                 </c:pt>
+                <c:pt idx="161">
+                  <c:v>45117</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2258,6 +2267,9 @@
                 </c:pt>
                 <c:pt idx="160">
                   <c:v>3852</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2790,6 +2802,9 @@
                 <c:pt idx="160">
                   <c:v>45017</c:v>
                 </c:pt>
+                <c:pt idx="161">
+                  <c:v>45117</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3281,6 +3296,9 @@
                 </c:pt>
                 <c:pt idx="160">
                   <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3832,6 +3850,9 @@
                 <c:pt idx="160">
                   <c:v>45017</c:v>
                 </c:pt>
+                <c:pt idx="161">
+                  <c:v>45117</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4322,6 +4343,9 @@
                   <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="160">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="161">
                   <c:v>486</c:v>
                 </c:pt>
               </c:numCache>
@@ -4349,7 +4373,7 @@
         <c:axId val="1582352671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45045"/>
+          <c:max val="45145"/>
           <c:min val="44379"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5551,13 +5575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K163"/>
+  <dimension ref="A1:K164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I164" sqref="I164"/>
+      <selection pane="bottomRight" activeCell="I165" sqref="I165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11599,7 +11623,7 @@
         <v>56</v>
       </c>
       <c r="H163">
-        <f t="shared" ref="H163" si="244">SUM(I163:K163)</f>
+        <f t="shared" ref="H163:H164" si="244">SUM(I163:K163)</f>
         <v>4898</v>
       </c>
       <c r="I163" s="5">
@@ -11609,6 +11633,43 @@
         <v>560</v>
       </c>
       <c r="K163" s="7">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>45117</v>
+      </c>
+      <c r="B164" s="2">
+        <v>9</v>
+      </c>
+      <c r="C164">
+        <f t="shared" ref="C164" si="245">SUM(D164:F164)</f>
+        <v>1673</v>
+      </c>
+      <c r="D164">
+        <v>1105</v>
+      </c>
+      <c r="E164">
+        <v>371</v>
+      </c>
+      <c r="F164" s="3">
+        <v>197</v>
+      </c>
+      <c r="G164" s="4">
+        <v>56</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="244"/>
+        <v>4944</v>
+      </c>
+      <c r="I164" s="5">
+        <v>3899</v>
+      </c>
+      <c r="J164" s="6">
+        <v>559</v>
+      </c>
+      <c r="K164" s="7">
         <v>486</v>
       </c>
     </row>
@@ -11629,7 +11690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C688D703-DACD-5F42-B55D-5B75C8B2EF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4758B06B-DD44-4643-A843-5FF4AF51FE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -747,6 +747,9 @@
                   <c:v>45017</c:v>
                 </c:pt>
                 <c:pt idx="161">
+                  <c:v>45116</c:v>
+                </c:pt>
+                <c:pt idx="162">
                   <c:v>45117</c:v>
                 </c:pt>
               </c:numCache>
@@ -1243,6 +1246,9 @@
                 </c:pt>
                 <c:pt idx="161">
                   <c:v>4944</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1774,6 +1780,9 @@
                   <c:v>45017</c:v>
                 </c:pt>
                 <c:pt idx="161">
+                  <c:v>45116</c:v>
+                </c:pt>
+                <c:pt idx="162">
                   <c:v>45117</c:v>
                 </c:pt>
               </c:numCache>
@@ -2270,6 +2279,9 @@
                 </c:pt>
                 <c:pt idx="161">
                   <c:v>3899</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2803,6 +2815,9 @@
                   <c:v>45017</c:v>
                 </c:pt>
                 <c:pt idx="161">
+                  <c:v>45116</c:v>
+                </c:pt>
+                <c:pt idx="162">
                   <c:v>45117</c:v>
                 </c:pt>
               </c:numCache>
@@ -3299,6 +3314,9 @@
                 </c:pt>
                 <c:pt idx="161">
                   <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3851,6 +3869,9 @@
                   <c:v>45017</c:v>
                 </c:pt>
                 <c:pt idx="161">
+                  <c:v>45116</c:v>
+                </c:pt>
+                <c:pt idx="162">
                   <c:v>45117</c:v>
                 </c:pt>
               </c:numCache>
@@ -4347,6 +4368,9 @@
                 </c:pt>
                 <c:pt idx="161">
                   <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5575,13 +5599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K164"/>
+  <dimension ref="A1:K165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I165" sqref="I165"/>
+      <selection pane="bottomRight" activeCell="I166" sqref="I166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11638,7 +11662,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>45117</v>
+        <v>45116</v>
       </c>
       <c r="B164" s="2">
         <v>9</v>
@@ -11671,6 +11695,43 @@
       </c>
       <c r="K164" s="7">
         <v>486</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>45117</v>
+      </c>
+      <c r="B165" s="2">
+        <v>9</v>
+      </c>
+      <c r="C165">
+        <f t="shared" ref="C165" si="246">SUM(D165:F165)</f>
+        <v>1673</v>
+      </c>
+      <c r="D165">
+        <v>1105</v>
+      </c>
+      <c r="E165">
+        <v>371</v>
+      </c>
+      <c r="F165" s="3">
+        <v>197</v>
+      </c>
+      <c r="G165" s="4">
+        <v>56</v>
+      </c>
+      <c r="H165">
+        <f t="shared" ref="H165" si="247">SUM(I165:K165)</f>
+        <v>4949</v>
+      </c>
+      <c r="I165" s="5">
+        <v>3890</v>
+      </c>
+      <c r="J165" s="6">
+        <v>571</v>
+      </c>
+      <c r="K165" s="7">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -11690,7 +11751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4758B06B-DD44-4643-A843-5FF4AF51FE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2ADA3F-C7D7-3241-A807-545CDEFDE920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -752,6 +752,9 @@
                 <c:pt idx="162">
                   <c:v>45117</c:v>
                 </c:pt>
+                <c:pt idx="163">
+                  <c:v>45127</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1249,6 +1252,9 @@
                 </c:pt>
                 <c:pt idx="162">
                   <c:v>4949</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>4406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1785,6 +1791,9 @@
                 <c:pt idx="162">
                   <c:v>45117</c:v>
                 </c:pt>
+                <c:pt idx="163">
+                  <c:v>45127</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2282,6 +2291,9 @@
                 </c:pt>
                 <c:pt idx="162">
                   <c:v>3890</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2820,6 +2832,9 @@
                 <c:pt idx="162">
                   <c:v>45117</c:v>
                 </c:pt>
+                <c:pt idx="163">
+                  <c:v>45127</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3317,6 +3332,9 @@
                 </c:pt>
                 <c:pt idx="162">
                   <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3874,6 +3892,9 @@
                 <c:pt idx="162">
                   <c:v>45117</c:v>
                 </c:pt>
+                <c:pt idx="163">
+                  <c:v>45127</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4371,6 +4392,9 @@
                 </c:pt>
                 <c:pt idx="162">
                   <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5599,13 +5623,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K165"/>
+  <dimension ref="A1:K166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I166" sqref="I166"/>
+      <selection pane="bottomRight" activeCell="I167" sqref="I167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11732,6 +11756,43 @@
       </c>
       <c r="K165" s="7">
         <v>488</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B166" s="2">
+        <v>9</v>
+      </c>
+      <c r="C166">
+        <f t="shared" ref="C166" si="248">SUM(D166:F166)</f>
+        <v>1673</v>
+      </c>
+      <c r="D166">
+        <v>1105</v>
+      </c>
+      <c r="E166">
+        <v>371</v>
+      </c>
+      <c r="F166" s="3">
+        <v>197</v>
+      </c>
+      <c r="G166" s="4">
+        <v>56</v>
+      </c>
+      <c r="H166">
+        <f t="shared" ref="H166" si="249">SUM(I166:K166)</f>
+        <v>4406</v>
+      </c>
+      <c r="I166" s="5">
+        <v>3577</v>
+      </c>
+      <c r="J166" s="6">
+        <v>435</v>
+      </c>
+      <c r="K166" s="7">
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2ADA3F-C7D7-3241-A807-545CDEFDE920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97EB4CF-204D-E048-A135-F91F56A7D4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -1254,7 +1254,7 @@
                   <c:v>4949</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>4406</c:v>
+                  <c:v>4959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2293,7 +2293,7 @@
                   <c:v>3890</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3577</c:v>
+                  <c:v>3904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3334,7 +3334,7 @@
                   <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>435</c:v>
+                  <c:v>568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4394,7 +4394,7 @@
                   <c:v>488</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>394</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11783,16 +11783,16 @@
       </c>
       <c r="H166">
         <f t="shared" ref="H166" si="249">SUM(I166:K166)</f>
-        <v>4406</v>
+        <v>4959</v>
       </c>
       <c r="I166" s="5">
-        <v>3577</v>
+        <v>3904</v>
       </c>
       <c r="J166" s="6">
-        <v>435</v>
+        <v>568</v>
       </c>
       <c r="K166" s="7">
-        <v>394</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97EB4CF-204D-E048-A135-F91F56A7D4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60194EF1-46F0-564F-BE5D-336F3928824D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -755,6 +755,9 @@
                 <c:pt idx="163">
                   <c:v>45127</c:v>
                 </c:pt>
+                <c:pt idx="164">
+                  <c:v>45136</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1255,6 +1258,9 @@
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>4959</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1794,6 +1800,9 @@
                 <c:pt idx="163">
                   <c:v>45127</c:v>
                 </c:pt>
+                <c:pt idx="164">
+                  <c:v>45136</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2294,6 +2303,9 @@
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>3904</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>4012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2835,6 +2847,9 @@
                 <c:pt idx="163">
                   <c:v>45127</c:v>
                 </c:pt>
+                <c:pt idx="164">
+                  <c:v>45136</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3335,6 +3350,9 @@
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3895,6 +3913,9 @@
                 <c:pt idx="163">
                   <c:v>45127</c:v>
                 </c:pt>
+                <c:pt idx="164">
+                  <c:v>45136</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4395,6 +4416,9 @@
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5623,13 +5647,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K166"/>
+  <dimension ref="A1:K167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I167" sqref="I167"/>
+      <selection pane="bottomRight" activeCell="I168" sqref="I168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11793,6 +11817,43 @@
       </c>
       <c r="K166" s="7">
         <v>487</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>45136</v>
+      </c>
+      <c r="B167" s="2">
+        <v>9</v>
+      </c>
+      <c r="C167">
+        <f t="shared" ref="C167" si="250">SUM(D167:F167)</f>
+        <v>1673</v>
+      </c>
+      <c r="D167">
+        <v>1105</v>
+      </c>
+      <c r="E167">
+        <v>371</v>
+      </c>
+      <c r="F167" s="3">
+        <v>197</v>
+      </c>
+      <c r="G167" s="4">
+        <v>56</v>
+      </c>
+      <c r="H167">
+        <f t="shared" ref="H167" si="251">SUM(I167:K167)</f>
+        <v>5028</v>
+      </c>
+      <c r="I167" s="5">
+        <v>4012</v>
+      </c>
+      <c r="J167" s="6">
+        <v>563</v>
+      </c>
+      <c r="K167" s="7">
+        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60194EF1-46F0-564F-BE5D-336F3928824D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F450DEFB-A106-D04D-8B61-BF54F65F7783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -758,6 +758,9 @@
                 <c:pt idx="164">
                   <c:v>45136</c:v>
                 </c:pt>
+                <c:pt idx="165">
+                  <c:v>45137</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1261,6 +1264,9 @@
                 </c:pt>
                 <c:pt idx="164">
                   <c:v>5028</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1803,6 +1809,9 @@
                 <c:pt idx="164">
                   <c:v>45136</c:v>
                 </c:pt>
+                <c:pt idx="165">
+                  <c:v>45137</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2306,6 +2315,9 @@
                 </c:pt>
                 <c:pt idx="164">
                   <c:v>4012</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>4037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2850,6 +2862,9 @@
                 <c:pt idx="164">
                   <c:v>45136</c:v>
                 </c:pt>
+                <c:pt idx="165">
+                  <c:v>45137</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3353,6 +3368,9 @@
                 </c:pt>
                 <c:pt idx="164">
                   <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3916,6 +3934,9 @@
                 <c:pt idx="164">
                   <c:v>45136</c:v>
                 </c:pt>
+                <c:pt idx="165">
+                  <c:v>45137</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4419,6 +4440,9 @@
                 </c:pt>
                 <c:pt idx="164">
                   <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5647,13 +5671,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K167"/>
+  <dimension ref="A1:K168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I168" sqref="I168"/>
+      <selection pane="bottomRight" activeCell="I169" sqref="I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11854,6 +11878,43 @@
       </c>
       <c r="K167" s="7">
         <v>453</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>45137</v>
+      </c>
+      <c r="B168" s="2">
+        <v>9</v>
+      </c>
+      <c r="C168">
+        <f t="shared" ref="C168" si="252">SUM(D168:F168)</f>
+        <v>1673</v>
+      </c>
+      <c r="D168">
+        <v>1105</v>
+      </c>
+      <c r="E168">
+        <v>371</v>
+      </c>
+      <c r="F168" s="3">
+        <v>197</v>
+      </c>
+      <c r="G168" s="4">
+        <v>57</v>
+      </c>
+      <c r="H168">
+        <f t="shared" ref="H168" si="253">SUM(I168:K168)</f>
+        <v>5054</v>
+      </c>
+      <c r="I168" s="5">
+        <v>4037</v>
+      </c>
+      <c r="J168" s="6">
+        <v>555</v>
+      </c>
+      <c r="K168" s="7">
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F450DEFB-A106-D04D-8B61-BF54F65F7783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E0384E-7842-2E45-98EC-EC779068ED28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -5673,11 +5673,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
   <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I169" sqref="I169"/>
+      <selection pane="bottomRight" activeCell="G169" sqref="G169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11901,7 +11901,7 @@
         <v>197</v>
       </c>
       <c r="G168" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H168">
         <f t="shared" ref="H168" si="253">SUM(I168:K168)</f>
@@ -11934,7 +11934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E0384E-7842-2E45-98EC-EC779068ED28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D961CBD-74BE-1C4E-B3F7-6A9A190F64E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -761,6 +761,9 @@
                 <c:pt idx="165">
                   <c:v>45137</c:v>
                 </c:pt>
+                <c:pt idx="166">
+                  <c:v>45138</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1266,7 +1269,10 @@
                   <c:v>5028</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>5054</c:v>
+                  <c:v>5071</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1812,6 +1818,9 @@
                 <c:pt idx="165">
                   <c:v>45137</c:v>
                 </c:pt>
+                <c:pt idx="166">
+                  <c:v>45138</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2317,7 +2326,10 @@
                   <c:v>4012</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>4037</c:v>
+                  <c:v>4027</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>4054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2865,6 +2877,9 @@
                 <c:pt idx="165">
                   <c:v>45137</c:v>
                 </c:pt>
+                <c:pt idx="166">
+                  <c:v>45138</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3370,7 +3385,10 @@
                   <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>555</c:v>
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3937,6 +3955,9 @@
                 <c:pt idx="165">
                   <c:v>45137</c:v>
                 </c:pt>
+                <c:pt idx="166">
+                  <c:v>45138</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4442,7 +4463,10 @@
                   <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>462</c:v>
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5671,13 +5695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K168"/>
+  <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G169" sqref="G169"/>
+      <selection pane="bottomRight" activeCell="I169" sqref="I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11905,16 +11929,53 @@
       </c>
       <c r="H168">
         <f t="shared" ref="H168" si="253">SUM(I168:K168)</f>
-        <v>5054</v>
+        <v>5071</v>
       </c>
       <c r="I168" s="5">
-        <v>4037</v>
+        <v>4027</v>
       </c>
       <c r="J168" s="6">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="K168" s="7">
-        <v>462</v>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B169" s="2">
+        <v>9</v>
+      </c>
+      <c r="C169">
+        <f t="shared" ref="C169" si="254">SUM(D169:F169)</f>
+        <v>1673</v>
+      </c>
+      <c r="D169">
+        <v>1105</v>
+      </c>
+      <c r="E169">
+        <v>371</v>
+      </c>
+      <c r="F169" s="3">
+        <v>197</v>
+      </c>
+      <c r="G169" s="4">
+        <v>58</v>
+      </c>
+      <c r="H169">
+        <f t="shared" ref="H169" si="255">SUM(I169:K169)</f>
+        <v>5098</v>
+      </c>
+      <c r="I169" s="5">
+        <v>4054</v>
+      </c>
+      <c r="J169" s="6">
+        <v>572</v>
+      </c>
+      <c r="K169" s="7">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -11934,7 +11995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D961CBD-74BE-1C4E-B3F7-6A9A190F64E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9E3C79-6089-2944-92F4-FE3612EE9329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -764,6 +764,9 @@
                 <c:pt idx="166">
                   <c:v>45138</c:v>
                 </c:pt>
+                <c:pt idx="167">
+                  <c:v>45139</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1273,6 +1276,9 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>5098</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>5092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1821,6 +1827,9 @@
                 <c:pt idx="166">
                   <c:v>45138</c:v>
                 </c:pt>
+                <c:pt idx="167">
+                  <c:v>45139</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2330,6 +2339,9 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>4054</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2880,6 +2892,9 @@
                 <c:pt idx="166">
                   <c:v>45138</c:v>
                 </c:pt>
+                <c:pt idx="167">
+                  <c:v>45139</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3389,6 +3404,9 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3958,6 +3976,9 @@
                 <c:pt idx="166">
                   <c:v>45138</c:v>
                 </c:pt>
+                <c:pt idx="167">
+                  <c:v>45139</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4466,6 +4487,9 @@
                   <c:v>472</c:v>
                 </c:pt>
                 <c:pt idx="166">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="167">
                   <c:v>472</c:v>
                 </c:pt>
               </c:numCache>
@@ -4493,7 +4517,7 @@
         <c:axId val="1582352671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45145"/>
+          <c:max val="45175"/>
           <c:min val="44379"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5695,13 +5719,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K169"/>
+  <dimension ref="A1:K170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I169" sqref="I169"/>
+      <selection pane="bottomRight" activeCell="I171" sqref="I171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11975,6 +11999,43 @@
         <v>572</v>
       </c>
       <c r="K169" s="7">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B170" s="2">
+        <v>9</v>
+      </c>
+      <c r="C170">
+        <f t="shared" ref="C170" si="256">SUM(D170:F170)</f>
+        <v>1673</v>
+      </c>
+      <c r="D170">
+        <v>1105</v>
+      </c>
+      <c r="E170">
+        <v>371</v>
+      </c>
+      <c r="F170" s="3">
+        <v>197</v>
+      </c>
+      <c r="G170" s="4">
+        <v>58</v>
+      </c>
+      <c r="H170">
+        <f t="shared" ref="H170" si="257">SUM(I170:K170)</f>
+        <v>5092</v>
+      </c>
+      <c r="I170" s="5">
+        <v>4049</v>
+      </c>
+      <c r="J170" s="6">
+        <v>571</v>
+      </c>
+      <c r="K170" s="7">
         <v>472</v>
       </c>
     </row>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9E3C79-6089-2944-92F4-FE3612EE9329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538A78FB-6883-6042-B8B9-69071B12D307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -767,6 +767,9 @@
                 <c:pt idx="167">
                   <c:v>45139</c:v>
                 </c:pt>
+                <c:pt idx="168">
+                  <c:v>45142</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1279,6 +1282,9 @@
                 </c:pt>
                 <c:pt idx="167">
                   <c:v>5092</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>5112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1830,6 +1836,9 @@
                 <c:pt idx="167">
                   <c:v>45139</c:v>
                 </c:pt>
+                <c:pt idx="168">
+                  <c:v>45142</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2342,6 +2351,9 @@
                 </c:pt>
                 <c:pt idx="167">
                   <c:v>4049</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2895,6 +2907,9 @@
                 <c:pt idx="167">
                   <c:v>45139</c:v>
                 </c:pt>
+                <c:pt idx="168">
+                  <c:v>45142</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3407,6 +3422,9 @@
                 </c:pt>
                 <c:pt idx="167">
                   <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3979,6 +3997,9 @@
                 <c:pt idx="167">
                   <c:v>45139</c:v>
                 </c:pt>
+                <c:pt idx="168">
+                  <c:v>45142</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4491,6 +4512,9 @@
                 </c:pt>
                 <c:pt idx="167">
                   <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5719,13 +5743,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K170"/>
+  <dimension ref="A1:K171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I171" sqref="I171"/>
+      <selection pane="bottomRight" activeCell="I172" sqref="I172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12037,6 +12061,43 @@
       </c>
       <c r="K170" s="7">
         <v>472</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>45142</v>
+      </c>
+      <c r="B171" s="2">
+        <v>9</v>
+      </c>
+      <c r="C171">
+        <f t="shared" ref="C171" si="258">SUM(D171:F171)</f>
+        <v>1673</v>
+      </c>
+      <c r="D171">
+        <v>1105</v>
+      </c>
+      <c r="E171">
+        <v>371</v>
+      </c>
+      <c r="F171" s="3">
+        <v>197</v>
+      </c>
+      <c r="G171" s="4">
+        <v>58</v>
+      </c>
+      <c r="H171">
+        <f t="shared" ref="H171" si="259">SUM(I171:K171)</f>
+        <v>5112</v>
+      </c>
+      <c r="I171" s="5">
+        <v>4073</v>
+      </c>
+      <c r="J171" s="6">
+        <v>564</v>
+      </c>
+      <c r="K171" s="7">
+        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538A78FB-6883-6042-B8B9-69071B12D307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D6F07A-0317-6D44-8091-16D138231B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -770,6 +770,9 @@
                 <c:pt idx="168">
                   <c:v>45142</c:v>
                 </c:pt>
+                <c:pt idx="169">
+                  <c:v>45145</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1285,6 +1288,9 @@
                 </c:pt>
                 <c:pt idx="168">
                   <c:v>5112</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>5101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1839,6 +1845,9 @@
                 <c:pt idx="168">
                   <c:v>45142</c:v>
                 </c:pt>
+                <c:pt idx="169">
+                  <c:v>45145</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2354,6 +2363,9 @@
                 </c:pt>
                 <c:pt idx="168">
                   <c:v>4073</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2910,6 +2922,9 @@
                 <c:pt idx="168">
                   <c:v>45142</c:v>
                 </c:pt>
+                <c:pt idx="169">
+                  <c:v>45145</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3424,6 +3439,9 @@
                   <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="168">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="169">
                   <c:v>564</c:v>
                 </c:pt>
               </c:numCache>
@@ -4000,6 +4018,9 @@
                 <c:pt idx="168">
                   <c:v>45142</c:v>
                 </c:pt>
+                <c:pt idx="169">
+                  <c:v>45145</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4515,6 +4536,9 @@
                 </c:pt>
                 <c:pt idx="168">
                   <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>474</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5743,13 +5767,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K171"/>
+  <dimension ref="A1:K172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I172" sqref="I172"/>
+      <selection pane="bottomRight" activeCell="I173" sqref="I173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12098,6 +12122,43 @@
       </c>
       <c r="K171" s="7">
         <v>475</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>45145</v>
+      </c>
+      <c r="B172" s="2">
+        <v>9</v>
+      </c>
+      <c r="C172">
+        <f t="shared" ref="C172" si="260">SUM(D172:F172)</f>
+        <v>1673</v>
+      </c>
+      <c r="D172">
+        <v>1105</v>
+      </c>
+      <c r="E172">
+        <v>371</v>
+      </c>
+      <c r="F172" s="3">
+        <v>197</v>
+      </c>
+      <c r="G172" s="4">
+        <v>58</v>
+      </c>
+      <c r="H172">
+        <f t="shared" ref="H172" si="261">SUM(I172:K172)</f>
+        <v>5101</v>
+      </c>
+      <c r="I172" s="5">
+        <v>4063</v>
+      </c>
+      <c r="J172" s="6">
+        <v>564</v>
+      </c>
+      <c r="K172" s="7">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -12117,7 +12178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D6F07A-0317-6D44-8091-16D138231B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093ACDD4-72FA-8342-966E-9478EED05AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -773,6 +773,9 @@
                 <c:pt idx="169">
                   <c:v>45145</c:v>
                 </c:pt>
+                <c:pt idx="170">
+                  <c:v>45146</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1291,6 +1294,9 @@
                 </c:pt>
                 <c:pt idx="169">
                   <c:v>5101</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1848,6 +1854,9 @@
                 <c:pt idx="169">
                   <c:v>45145</c:v>
                 </c:pt>
+                <c:pt idx="170">
+                  <c:v>45146</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2366,6 +2375,9 @@
                 </c:pt>
                 <c:pt idx="169">
                   <c:v>4063</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2925,6 +2937,9 @@
                 <c:pt idx="169">
                   <c:v>45145</c:v>
                 </c:pt>
+                <c:pt idx="170">
+                  <c:v>45146</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3442,6 +3457,9 @@
                   <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="169">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="170">
                   <c:v>564</c:v>
                 </c:pt>
               </c:numCache>
@@ -4021,6 +4039,9 @@
                 <c:pt idx="169">
                   <c:v>45145</c:v>
                 </c:pt>
+                <c:pt idx="170">
+                  <c:v>45146</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4538,6 +4559,9 @@
                   <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="169">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="170">
                   <c:v>474</c:v>
                 </c:pt>
               </c:numCache>
@@ -5767,13 +5791,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K172"/>
+  <dimension ref="A1:K173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I173" sqref="I173"/>
+      <selection pane="bottomRight" activeCell="I174" sqref="I174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12158,6 +12182,43 @@
         <v>564</v>
       </c>
       <c r="K172" s="7">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>45146</v>
+      </c>
+      <c r="B173" s="2">
+        <v>9</v>
+      </c>
+      <c r="C173">
+        <f t="shared" ref="C173" si="262">SUM(D173:F173)</f>
+        <v>1673</v>
+      </c>
+      <c r="D173">
+        <v>1105</v>
+      </c>
+      <c r="E173">
+        <v>371</v>
+      </c>
+      <c r="F173" s="3">
+        <v>197</v>
+      </c>
+      <c r="G173" s="4">
+        <v>58</v>
+      </c>
+      <c r="H173">
+        <f t="shared" ref="H173" si="263">SUM(I173:K173)</f>
+        <v>5106</v>
+      </c>
+      <c r="I173" s="5">
+        <v>4068</v>
+      </c>
+      <c r="J173" s="6">
+        <v>564</v>
+      </c>
+      <c r="K173" s="7">
         <v>474</v>
       </c>
     </row>
@@ -12178,7 +12239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
+++ b/Fotogroep Waalre/Documentation/FotogroepWaalre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093ACDD4-72FA-8342-966E-9478EED05AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F8F0FC-3D34-2847-9282-C431D03CF7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -776,6 +776,9 @@
                 <c:pt idx="170">
                   <c:v>45146</c:v>
                 </c:pt>
+                <c:pt idx="171">
+                  <c:v>45147</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1297,6 +1300,9 @@
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>5106</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1857,6 +1863,9 @@
                 <c:pt idx="170">
                   <c:v>45146</c:v>
                 </c:pt>
+                <c:pt idx="171">
+                  <c:v>45147</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2378,6 +2387,9 @@
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>4068</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2940,6 +2952,9 @@
                 <c:pt idx="170">
                   <c:v>45146</c:v>
                 </c:pt>
+                <c:pt idx="171">
+                  <c:v>45147</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3460,6 +3475,9 @@
                   <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="170">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="171">
                   <c:v>564</c:v>
                 </c:pt>
               </c:numCache>
@@ -4042,6 +4060,9 @@
                 <c:pt idx="170">
                   <c:v>45146</c:v>
                 </c:pt>
+                <c:pt idx="171">
+                  <c:v>45147</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4563,6 +4584,9 @@
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5791,13 +5815,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K173"/>
+  <dimension ref="A1:K174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I174" sqref="I174"/>
+      <selection pane="bottomRight" activeCell="I175" sqref="I175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12220,6 +12244,43 @@
       </c>
       <c r="K173" s="7">
         <v>474</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>45147</v>
+      </c>
+      <c r="B174" s="2">
+        <v>9</v>
+      </c>
+      <c r="C174">
+        <f t="shared" ref="C174" si="264">SUM(D174:F174)</f>
+        <v>1673</v>
+      </c>
+      <c r="D174">
+        <v>1105</v>
+      </c>
+      <c r="E174">
+        <v>371</v>
+      </c>
+      <c r="F174" s="3">
+        <v>197</v>
+      </c>
+      <c r="G174" s="4">
+        <v>58</v>
+      </c>
+      <c r="H174">
+        <f t="shared" ref="H174" si="265">SUM(I174:K174)</f>
+        <v>5098</v>
+      </c>
+      <c r="I174" s="5">
+        <v>4062</v>
+      </c>
+      <c r="J174" s="6">
+        <v>564</v>
+      </c>
+      <c r="K174" s="7">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
